--- a/trunk/Documents/Microsoft/MSHW Price April 2011 - Picture (new).xlsx
+++ b/trunk/Documents/Microsoft/MSHW Price April 2011 - Picture (new).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="12510" windowHeight="5280"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="12510" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
   <si>
     <t>P58-00043</t>
   </si>
@@ -527,16 +527,42 @@
   </si>
   <si>
     <t>52A-00003</t>
+  </si>
+  <si>
+    <t>Giá thị trường (VND)</t>
+  </si>
+  <si>
+    <t>1.848.000</t>
+  </si>
+  <si>
+    <t>1.199.000</t>
+  </si>
+  <si>
+    <t>Giá nhập (VND)</t>
+  </si>
+  <si>
+    <t>Giá cho người dùng cuối (vnd)
+(đã bao gồm 10% VAT)</t>
+  </si>
+  <si>
+    <t>GIA BAN ( 10% VAT)</t>
+  </si>
+  <si>
+    <t>LOI NHUAN</t>
+  </si>
+  <si>
+    <t>KHUYEN MAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,8 +702,118 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +856,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -870,6 +1030,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -878,7 +1087,7 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -984,6 +1193,48 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1005,6 +1256,30 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,6 +1299,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5491,10 +5793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:M70"/>
+  <dimension ref="A6:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5502,380 +5804,408 @@
     <col min="1" max="1" width="12.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="57.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="259" max="259" width="8.75" customWidth="1"/>
-    <col min="260" max="260" width="45" customWidth="1"/>
-    <col min="261" max="261" width="24.25" customWidth="1"/>
-    <col min="262" max="262" width="11" customWidth="1"/>
-    <col min="263" max="263" width="9.875" customWidth="1"/>
-    <col min="515" max="515" width="8.75" customWidth="1"/>
-    <col min="516" max="516" width="45" customWidth="1"/>
-    <col min="517" max="517" width="24.25" customWidth="1"/>
-    <col min="518" max="518" width="11" customWidth="1"/>
-    <col min="519" max="519" width="9.875" customWidth="1"/>
-    <col min="771" max="771" width="8.75" customWidth="1"/>
-    <col min="772" max="772" width="45" customWidth="1"/>
-    <col min="773" max="773" width="24.25" customWidth="1"/>
-    <col min="774" max="774" width="11" customWidth="1"/>
-    <col min="775" max="775" width="9.875" customWidth="1"/>
-    <col min="1027" max="1027" width="8.75" customWidth="1"/>
-    <col min="1028" max="1028" width="45" customWidth="1"/>
-    <col min="1029" max="1029" width="24.25" customWidth="1"/>
-    <col min="1030" max="1030" width="11" customWidth="1"/>
-    <col min="1031" max="1031" width="9.875" customWidth="1"/>
-    <col min="1283" max="1283" width="8.75" customWidth="1"/>
-    <col min="1284" max="1284" width="45" customWidth="1"/>
-    <col min="1285" max="1285" width="24.25" customWidth="1"/>
-    <col min="1286" max="1286" width="11" customWidth="1"/>
-    <col min="1287" max="1287" width="9.875" customWidth="1"/>
-    <col min="1539" max="1539" width="8.75" customWidth="1"/>
-    <col min="1540" max="1540" width="45" customWidth="1"/>
-    <col min="1541" max="1541" width="24.25" customWidth="1"/>
-    <col min="1542" max="1542" width="11" customWidth="1"/>
-    <col min="1543" max="1543" width="9.875" customWidth="1"/>
-    <col min="1795" max="1795" width="8.75" customWidth="1"/>
-    <col min="1796" max="1796" width="45" customWidth="1"/>
-    <col min="1797" max="1797" width="24.25" customWidth="1"/>
-    <col min="1798" max="1798" width="11" customWidth="1"/>
-    <col min="1799" max="1799" width="9.875" customWidth="1"/>
-    <col min="2051" max="2051" width="8.75" customWidth="1"/>
-    <col min="2052" max="2052" width="45" customWidth="1"/>
-    <col min="2053" max="2053" width="24.25" customWidth="1"/>
-    <col min="2054" max="2054" width="11" customWidth="1"/>
-    <col min="2055" max="2055" width="9.875" customWidth="1"/>
-    <col min="2307" max="2307" width="8.75" customWidth="1"/>
-    <col min="2308" max="2308" width="45" customWidth="1"/>
-    <col min="2309" max="2309" width="24.25" customWidth="1"/>
-    <col min="2310" max="2310" width="11" customWidth="1"/>
-    <col min="2311" max="2311" width="9.875" customWidth="1"/>
-    <col min="2563" max="2563" width="8.75" customWidth="1"/>
-    <col min="2564" max="2564" width="45" customWidth="1"/>
-    <col min="2565" max="2565" width="24.25" customWidth="1"/>
-    <col min="2566" max="2566" width="11" customWidth="1"/>
-    <col min="2567" max="2567" width="9.875" customWidth="1"/>
-    <col min="2819" max="2819" width="8.75" customWidth="1"/>
-    <col min="2820" max="2820" width="45" customWidth="1"/>
-    <col min="2821" max="2821" width="24.25" customWidth="1"/>
-    <col min="2822" max="2822" width="11" customWidth="1"/>
-    <col min="2823" max="2823" width="9.875" customWidth="1"/>
-    <col min="3075" max="3075" width="8.75" customWidth="1"/>
-    <col min="3076" max="3076" width="45" customWidth="1"/>
-    <col min="3077" max="3077" width="24.25" customWidth="1"/>
-    <col min="3078" max="3078" width="11" customWidth="1"/>
-    <col min="3079" max="3079" width="9.875" customWidth="1"/>
-    <col min="3331" max="3331" width="8.75" customWidth="1"/>
-    <col min="3332" max="3332" width="45" customWidth="1"/>
-    <col min="3333" max="3333" width="24.25" customWidth="1"/>
-    <col min="3334" max="3334" width="11" customWidth="1"/>
-    <col min="3335" max="3335" width="9.875" customWidth="1"/>
-    <col min="3587" max="3587" width="8.75" customWidth="1"/>
-    <col min="3588" max="3588" width="45" customWidth="1"/>
-    <col min="3589" max="3589" width="24.25" customWidth="1"/>
-    <col min="3590" max="3590" width="11" customWidth="1"/>
-    <col min="3591" max="3591" width="9.875" customWidth="1"/>
-    <col min="3843" max="3843" width="8.75" customWidth="1"/>
-    <col min="3844" max="3844" width="45" customWidth="1"/>
-    <col min="3845" max="3845" width="24.25" customWidth="1"/>
-    <col min="3846" max="3846" width="11" customWidth="1"/>
-    <col min="3847" max="3847" width="9.875" customWidth="1"/>
-    <col min="4099" max="4099" width="8.75" customWidth="1"/>
-    <col min="4100" max="4100" width="45" customWidth="1"/>
-    <col min="4101" max="4101" width="24.25" customWidth="1"/>
-    <col min="4102" max="4102" width="11" customWidth="1"/>
-    <col min="4103" max="4103" width="9.875" customWidth="1"/>
-    <col min="4355" max="4355" width="8.75" customWidth="1"/>
-    <col min="4356" max="4356" width="45" customWidth="1"/>
-    <col min="4357" max="4357" width="24.25" customWidth="1"/>
-    <col min="4358" max="4358" width="11" customWidth="1"/>
-    <col min="4359" max="4359" width="9.875" customWidth="1"/>
-    <col min="4611" max="4611" width="8.75" customWidth="1"/>
-    <col min="4612" max="4612" width="45" customWidth="1"/>
-    <col min="4613" max="4613" width="24.25" customWidth="1"/>
-    <col min="4614" max="4614" width="11" customWidth="1"/>
-    <col min="4615" max="4615" width="9.875" customWidth="1"/>
-    <col min="4867" max="4867" width="8.75" customWidth="1"/>
-    <col min="4868" max="4868" width="45" customWidth="1"/>
-    <col min="4869" max="4869" width="24.25" customWidth="1"/>
-    <col min="4870" max="4870" width="11" customWidth="1"/>
-    <col min="4871" max="4871" width="9.875" customWidth="1"/>
-    <col min="5123" max="5123" width="8.75" customWidth="1"/>
-    <col min="5124" max="5124" width="45" customWidth="1"/>
-    <col min="5125" max="5125" width="24.25" customWidth="1"/>
-    <col min="5126" max="5126" width="11" customWidth="1"/>
-    <col min="5127" max="5127" width="9.875" customWidth="1"/>
-    <col min="5379" max="5379" width="8.75" customWidth="1"/>
-    <col min="5380" max="5380" width="45" customWidth="1"/>
-    <col min="5381" max="5381" width="24.25" customWidth="1"/>
-    <col min="5382" max="5382" width="11" customWidth="1"/>
-    <col min="5383" max="5383" width="9.875" customWidth="1"/>
-    <col min="5635" max="5635" width="8.75" customWidth="1"/>
-    <col min="5636" max="5636" width="45" customWidth="1"/>
-    <col min="5637" max="5637" width="24.25" customWidth="1"/>
-    <col min="5638" max="5638" width="11" customWidth="1"/>
-    <col min="5639" max="5639" width="9.875" customWidth="1"/>
-    <col min="5891" max="5891" width="8.75" customWidth="1"/>
-    <col min="5892" max="5892" width="45" customWidth="1"/>
-    <col min="5893" max="5893" width="24.25" customWidth="1"/>
-    <col min="5894" max="5894" width="11" customWidth="1"/>
-    <col min="5895" max="5895" width="9.875" customWidth="1"/>
-    <col min="6147" max="6147" width="8.75" customWidth="1"/>
-    <col min="6148" max="6148" width="45" customWidth="1"/>
-    <col min="6149" max="6149" width="24.25" customWidth="1"/>
-    <col min="6150" max="6150" width="11" customWidth="1"/>
-    <col min="6151" max="6151" width="9.875" customWidth="1"/>
-    <col min="6403" max="6403" width="8.75" customWidth="1"/>
-    <col min="6404" max="6404" width="45" customWidth="1"/>
-    <col min="6405" max="6405" width="24.25" customWidth="1"/>
-    <col min="6406" max="6406" width="11" customWidth="1"/>
-    <col min="6407" max="6407" width="9.875" customWidth="1"/>
-    <col min="6659" max="6659" width="8.75" customWidth="1"/>
-    <col min="6660" max="6660" width="45" customWidth="1"/>
-    <col min="6661" max="6661" width="24.25" customWidth="1"/>
-    <col min="6662" max="6662" width="11" customWidth="1"/>
-    <col min="6663" max="6663" width="9.875" customWidth="1"/>
-    <col min="6915" max="6915" width="8.75" customWidth="1"/>
-    <col min="6916" max="6916" width="45" customWidth="1"/>
-    <col min="6917" max="6917" width="24.25" customWidth="1"/>
-    <col min="6918" max="6918" width="11" customWidth="1"/>
-    <col min="6919" max="6919" width="9.875" customWidth="1"/>
-    <col min="7171" max="7171" width="8.75" customWidth="1"/>
-    <col min="7172" max="7172" width="45" customWidth="1"/>
-    <col min="7173" max="7173" width="24.25" customWidth="1"/>
-    <col min="7174" max="7174" width="11" customWidth="1"/>
-    <col min="7175" max="7175" width="9.875" customWidth="1"/>
-    <col min="7427" max="7427" width="8.75" customWidth="1"/>
-    <col min="7428" max="7428" width="45" customWidth="1"/>
-    <col min="7429" max="7429" width="24.25" customWidth="1"/>
-    <col min="7430" max="7430" width="11" customWidth="1"/>
-    <col min="7431" max="7431" width="9.875" customWidth="1"/>
-    <col min="7683" max="7683" width="8.75" customWidth="1"/>
-    <col min="7684" max="7684" width="45" customWidth="1"/>
-    <col min="7685" max="7685" width="24.25" customWidth="1"/>
-    <col min="7686" max="7686" width="11" customWidth="1"/>
-    <col min="7687" max="7687" width="9.875" customWidth="1"/>
-    <col min="7939" max="7939" width="8.75" customWidth="1"/>
-    <col min="7940" max="7940" width="45" customWidth="1"/>
-    <col min="7941" max="7941" width="24.25" customWidth="1"/>
-    <col min="7942" max="7942" width="11" customWidth="1"/>
-    <col min="7943" max="7943" width="9.875" customWidth="1"/>
-    <col min="8195" max="8195" width="8.75" customWidth="1"/>
-    <col min="8196" max="8196" width="45" customWidth="1"/>
-    <col min="8197" max="8197" width="24.25" customWidth="1"/>
-    <col min="8198" max="8198" width="11" customWidth="1"/>
-    <col min="8199" max="8199" width="9.875" customWidth="1"/>
-    <col min="8451" max="8451" width="8.75" customWidth="1"/>
-    <col min="8452" max="8452" width="45" customWidth="1"/>
-    <col min="8453" max="8453" width="24.25" customWidth="1"/>
-    <col min="8454" max="8454" width="11" customWidth="1"/>
-    <col min="8455" max="8455" width="9.875" customWidth="1"/>
-    <col min="8707" max="8707" width="8.75" customWidth="1"/>
-    <col min="8708" max="8708" width="45" customWidth="1"/>
-    <col min="8709" max="8709" width="24.25" customWidth="1"/>
-    <col min="8710" max="8710" width="11" customWidth="1"/>
-    <col min="8711" max="8711" width="9.875" customWidth="1"/>
-    <col min="8963" max="8963" width="8.75" customWidth="1"/>
-    <col min="8964" max="8964" width="45" customWidth="1"/>
-    <col min="8965" max="8965" width="24.25" customWidth="1"/>
-    <col min="8966" max="8966" width="11" customWidth="1"/>
-    <col min="8967" max="8967" width="9.875" customWidth="1"/>
-    <col min="9219" max="9219" width="8.75" customWidth="1"/>
-    <col min="9220" max="9220" width="45" customWidth="1"/>
-    <col min="9221" max="9221" width="24.25" customWidth="1"/>
-    <col min="9222" max="9222" width="11" customWidth="1"/>
-    <col min="9223" max="9223" width="9.875" customWidth="1"/>
-    <col min="9475" max="9475" width="8.75" customWidth="1"/>
-    <col min="9476" max="9476" width="45" customWidth="1"/>
-    <col min="9477" max="9477" width="24.25" customWidth="1"/>
-    <col min="9478" max="9478" width="11" customWidth="1"/>
-    <col min="9479" max="9479" width="9.875" customWidth="1"/>
-    <col min="9731" max="9731" width="8.75" customWidth="1"/>
-    <col min="9732" max="9732" width="45" customWidth="1"/>
-    <col min="9733" max="9733" width="24.25" customWidth="1"/>
-    <col min="9734" max="9734" width="11" customWidth="1"/>
-    <col min="9735" max="9735" width="9.875" customWidth="1"/>
-    <col min="9987" max="9987" width="8.75" customWidth="1"/>
-    <col min="9988" max="9988" width="45" customWidth="1"/>
-    <col min="9989" max="9989" width="24.25" customWidth="1"/>
-    <col min="9990" max="9990" width="11" customWidth="1"/>
-    <col min="9991" max="9991" width="9.875" customWidth="1"/>
-    <col min="10243" max="10243" width="8.75" customWidth="1"/>
-    <col min="10244" max="10244" width="45" customWidth="1"/>
-    <col min="10245" max="10245" width="24.25" customWidth="1"/>
-    <col min="10246" max="10246" width="11" customWidth="1"/>
-    <col min="10247" max="10247" width="9.875" customWidth="1"/>
-    <col min="10499" max="10499" width="8.75" customWidth="1"/>
-    <col min="10500" max="10500" width="45" customWidth="1"/>
-    <col min="10501" max="10501" width="24.25" customWidth="1"/>
-    <col min="10502" max="10502" width="11" customWidth="1"/>
-    <col min="10503" max="10503" width="9.875" customWidth="1"/>
-    <col min="10755" max="10755" width="8.75" customWidth="1"/>
-    <col min="10756" max="10756" width="45" customWidth="1"/>
-    <col min="10757" max="10757" width="24.25" customWidth="1"/>
-    <col min="10758" max="10758" width="11" customWidth="1"/>
-    <col min="10759" max="10759" width="9.875" customWidth="1"/>
-    <col min="11011" max="11011" width="8.75" customWidth="1"/>
-    <col min="11012" max="11012" width="45" customWidth="1"/>
-    <col min="11013" max="11013" width="24.25" customWidth="1"/>
-    <col min="11014" max="11014" width="11" customWidth="1"/>
-    <col min="11015" max="11015" width="9.875" customWidth="1"/>
-    <col min="11267" max="11267" width="8.75" customWidth="1"/>
-    <col min="11268" max="11268" width="45" customWidth="1"/>
-    <col min="11269" max="11269" width="24.25" customWidth="1"/>
-    <col min="11270" max="11270" width="11" customWidth="1"/>
-    <col min="11271" max="11271" width="9.875" customWidth="1"/>
-    <col min="11523" max="11523" width="8.75" customWidth="1"/>
-    <col min="11524" max="11524" width="45" customWidth="1"/>
-    <col min="11525" max="11525" width="24.25" customWidth="1"/>
-    <col min="11526" max="11526" width="11" customWidth="1"/>
-    <col min="11527" max="11527" width="9.875" customWidth="1"/>
-    <col min="11779" max="11779" width="8.75" customWidth="1"/>
-    <col min="11780" max="11780" width="45" customWidth="1"/>
-    <col min="11781" max="11781" width="24.25" customWidth="1"/>
-    <col min="11782" max="11782" width="11" customWidth="1"/>
-    <col min="11783" max="11783" width="9.875" customWidth="1"/>
-    <col min="12035" max="12035" width="8.75" customWidth="1"/>
-    <col min="12036" max="12036" width="45" customWidth="1"/>
-    <col min="12037" max="12037" width="24.25" customWidth="1"/>
-    <col min="12038" max="12038" width="11" customWidth="1"/>
-    <col min="12039" max="12039" width="9.875" customWidth="1"/>
-    <col min="12291" max="12291" width="8.75" customWidth="1"/>
-    <col min="12292" max="12292" width="45" customWidth="1"/>
-    <col min="12293" max="12293" width="24.25" customWidth="1"/>
-    <col min="12294" max="12294" width="11" customWidth="1"/>
-    <col min="12295" max="12295" width="9.875" customWidth="1"/>
-    <col min="12547" max="12547" width="8.75" customWidth="1"/>
-    <col min="12548" max="12548" width="45" customWidth="1"/>
-    <col min="12549" max="12549" width="24.25" customWidth="1"/>
-    <col min="12550" max="12550" width="11" customWidth="1"/>
-    <col min="12551" max="12551" width="9.875" customWidth="1"/>
-    <col min="12803" max="12803" width="8.75" customWidth="1"/>
-    <col min="12804" max="12804" width="45" customWidth="1"/>
-    <col min="12805" max="12805" width="24.25" customWidth="1"/>
-    <col min="12806" max="12806" width="11" customWidth="1"/>
-    <col min="12807" max="12807" width="9.875" customWidth="1"/>
-    <col min="13059" max="13059" width="8.75" customWidth="1"/>
-    <col min="13060" max="13060" width="45" customWidth="1"/>
-    <col min="13061" max="13061" width="24.25" customWidth="1"/>
-    <col min="13062" max="13062" width="11" customWidth="1"/>
-    <col min="13063" max="13063" width="9.875" customWidth="1"/>
-    <col min="13315" max="13315" width="8.75" customWidth="1"/>
-    <col min="13316" max="13316" width="45" customWidth="1"/>
-    <col min="13317" max="13317" width="24.25" customWidth="1"/>
-    <col min="13318" max="13318" width="11" customWidth="1"/>
-    <col min="13319" max="13319" width="9.875" customWidth="1"/>
-    <col min="13571" max="13571" width="8.75" customWidth="1"/>
-    <col min="13572" max="13572" width="45" customWidth="1"/>
-    <col min="13573" max="13573" width="24.25" customWidth="1"/>
-    <col min="13574" max="13574" width="11" customWidth="1"/>
-    <col min="13575" max="13575" width="9.875" customWidth="1"/>
-    <col min="13827" max="13827" width="8.75" customWidth="1"/>
-    <col min="13828" max="13828" width="45" customWidth="1"/>
-    <col min="13829" max="13829" width="24.25" customWidth="1"/>
-    <col min="13830" max="13830" width="11" customWidth="1"/>
-    <col min="13831" max="13831" width="9.875" customWidth="1"/>
-    <col min="14083" max="14083" width="8.75" customWidth="1"/>
-    <col min="14084" max="14084" width="45" customWidth="1"/>
-    <col min="14085" max="14085" width="24.25" customWidth="1"/>
-    <col min="14086" max="14086" width="11" customWidth="1"/>
-    <col min="14087" max="14087" width="9.875" customWidth="1"/>
-    <col min="14339" max="14339" width="8.75" customWidth="1"/>
-    <col min="14340" max="14340" width="45" customWidth="1"/>
-    <col min="14341" max="14341" width="24.25" customWidth="1"/>
-    <col min="14342" max="14342" width="11" customWidth="1"/>
-    <col min="14343" max="14343" width="9.875" customWidth="1"/>
-    <col min="14595" max="14595" width="8.75" customWidth="1"/>
-    <col min="14596" max="14596" width="45" customWidth="1"/>
-    <col min="14597" max="14597" width="24.25" customWidth="1"/>
-    <col min="14598" max="14598" width="11" customWidth="1"/>
-    <col min="14599" max="14599" width="9.875" customWidth="1"/>
-    <col min="14851" max="14851" width="8.75" customWidth="1"/>
-    <col min="14852" max="14852" width="45" customWidth="1"/>
-    <col min="14853" max="14853" width="24.25" customWidth="1"/>
-    <col min="14854" max="14854" width="11" customWidth="1"/>
-    <col min="14855" max="14855" width="9.875" customWidth="1"/>
-    <col min="15107" max="15107" width="8.75" customWidth="1"/>
-    <col min="15108" max="15108" width="45" customWidth="1"/>
-    <col min="15109" max="15109" width="24.25" customWidth="1"/>
-    <col min="15110" max="15110" width="11" customWidth="1"/>
-    <col min="15111" max="15111" width="9.875" customWidth="1"/>
-    <col min="15363" max="15363" width="8.75" customWidth="1"/>
-    <col min="15364" max="15364" width="45" customWidth="1"/>
-    <col min="15365" max="15365" width="24.25" customWidth="1"/>
-    <col min="15366" max="15366" width="11" customWidth="1"/>
-    <col min="15367" max="15367" width="9.875" customWidth="1"/>
-    <col min="15619" max="15619" width="8.75" customWidth="1"/>
-    <col min="15620" max="15620" width="45" customWidth="1"/>
-    <col min="15621" max="15621" width="24.25" customWidth="1"/>
-    <col min="15622" max="15622" width="11" customWidth="1"/>
-    <col min="15623" max="15623" width="9.875" customWidth="1"/>
-    <col min="15875" max="15875" width="8.75" customWidth="1"/>
-    <col min="15876" max="15876" width="45" customWidth="1"/>
-    <col min="15877" max="15877" width="24.25" customWidth="1"/>
-    <col min="15878" max="15878" width="11" customWidth="1"/>
-    <col min="15879" max="15879" width="9.875" customWidth="1"/>
-    <col min="16131" max="16131" width="8.75" customWidth="1"/>
-    <col min="16132" max="16132" width="45" customWidth="1"/>
-    <col min="16133" max="16133" width="24.25" customWidth="1"/>
-    <col min="16134" max="16134" width="11" customWidth="1"/>
-    <col min="16135" max="16135" width="9.875" customWidth="1"/>
+    <col min="4" max="5" width="28.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="45" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="41" customWidth="1"/>
+    <col min="9" max="11" width="14.75" style="74" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="23.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18.25" customWidth="1"/>
+    <col min="266" max="266" width="8.75" customWidth="1"/>
+    <col min="267" max="267" width="45" customWidth="1"/>
+    <col min="268" max="268" width="24.25" customWidth="1"/>
+    <col min="269" max="269" width="11" customWidth="1"/>
+    <col min="270" max="270" width="9.875" customWidth="1"/>
+    <col min="522" max="522" width="8.75" customWidth="1"/>
+    <col min="523" max="523" width="45" customWidth="1"/>
+    <col min="524" max="524" width="24.25" customWidth="1"/>
+    <col min="525" max="525" width="11" customWidth="1"/>
+    <col min="526" max="526" width="9.875" customWidth="1"/>
+    <col min="778" max="778" width="8.75" customWidth="1"/>
+    <col min="779" max="779" width="45" customWidth="1"/>
+    <col min="780" max="780" width="24.25" customWidth="1"/>
+    <col min="781" max="781" width="11" customWidth="1"/>
+    <col min="782" max="782" width="9.875" customWidth="1"/>
+    <col min="1034" max="1034" width="8.75" customWidth="1"/>
+    <col min="1035" max="1035" width="45" customWidth="1"/>
+    <col min="1036" max="1036" width="24.25" customWidth="1"/>
+    <col min="1037" max="1037" width="11" customWidth="1"/>
+    <col min="1038" max="1038" width="9.875" customWidth="1"/>
+    <col min="1290" max="1290" width="8.75" customWidth="1"/>
+    <col min="1291" max="1291" width="45" customWidth="1"/>
+    <col min="1292" max="1292" width="24.25" customWidth="1"/>
+    <col min="1293" max="1293" width="11" customWidth="1"/>
+    <col min="1294" max="1294" width="9.875" customWidth="1"/>
+    <col min="1546" max="1546" width="8.75" customWidth="1"/>
+    <col min="1547" max="1547" width="45" customWidth="1"/>
+    <col min="1548" max="1548" width="24.25" customWidth="1"/>
+    <col min="1549" max="1549" width="11" customWidth="1"/>
+    <col min="1550" max="1550" width="9.875" customWidth="1"/>
+    <col min="1802" max="1802" width="8.75" customWidth="1"/>
+    <col min="1803" max="1803" width="45" customWidth="1"/>
+    <col min="1804" max="1804" width="24.25" customWidth="1"/>
+    <col min="1805" max="1805" width="11" customWidth="1"/>
+    <col min="1806" max="1806" width="9.875" customWidth="1"/>
+    <col min="2058" max="2058" width="8.75" customWidth="1"/>
+    <col min="2059" max="2059" width="45" customWidth="1"/>
+    <col min="2060" max="2060" width="24.25" customWidth="1"/>
+    <col min="2061" max="2061" width="11" customWidth="1"/>
+    <col min="2062" max="2062" width="9.875" customWidth="1"/>
+    <col min="2314" max="2314" width="8.75" customWidth="1"/>
+    <col min="2315" max="2315" width="45" customWidth="1"/>
+    <col min="2316" max="2316" width="24.25" customWidth="1"/>
+    <col min="2317" max="2317" width="11" customWidth="1"/>
+    <col min="2318" max="2318" width="9.875" customWidth="1"/>
+    <col min="2570" max="2570" width="8.75" customWidth="1"/>
+    <col min="2571" max="2571" width="45" customWidth="1"/>
+    <col min="2572" max="2572" width="24.25" customWidth="1"/>
+    <col min="2573" max="2573" width="11" customWidth="1"/>
+    <col min="2574" max="2574" width="9.875" customWidth="1"/>
+    <col min="2826" max="2826" width="8.75" customWidth="1"/>
+    <col min="2827" max="2827" width="45" customWidth="1"/>
+    <col min="2828" max="2828" width="24.25" customWidth="1"/>
+    <col min="2829" max="2829" width="11" customWidth="1"/>
+    <col min="2830" max="2830" width="9.875" customWidth="1"/>
+    <col min="3082" max="3082" width="8.75" customWidth="1"/>
+    <col min="3083" max="3083" width="45" customWidth="1"/>
+    <col min="3084" max="3084" width="24.25" customWidth="1"/>
+    <col min="3085" max="3085" width="11" customWidth="1"/>
+    <col min="3086" max="3086" width="9.875" customWidth="1"/>
+    <col min="3338" max="3338" width="8.75" customWidth="1"/>
+    <col min="3339" max="3339" width="45" customWidth="1"/>
+    <col min="3340" max="3340" width="24.25" customWidth="1"/>
+    <col min="3341" max="3341" width="11" customWidth="1"/>
+    <col min="3342" max="3342" width="9.875" customWidth="1"/>
+    <col min="3594" max="3594" width="8.75" customWidth="1"/>
+    <col min="3595" max="3595" width="45" customWidth="1"/>
+    <col min="3596" max="3596" width="24.25" customWidth="1"/>
+    <col min="3597" max="3597" width="11" customWidth="1"/>
+    <col min="3598" max="3598" width="9.875" customWidth="1"/>
+    <col min="3850" max="3850" width="8.75" customWidth="1"/>
+    <col min="3851" max="3851" width="45" customWidth="1"/>
+    <col min="3852" max="3852" width="24.25" customWidth="1"/>
+    <col min="3853" max="3853" width="11" customWidth="1"/>
+    <col min="3854" max="3854" width="9.875" customWidth="1"/>
+    <col min="4106" max="4106" width="8.75" customWidth="1"/>
+    <col min="4107" max="4107" width="45" customWidth="1"/>
+    <col min="4108" max="4108" width="24.25" customWidth="1"/>
+    <col min="4109" max="4109" width="11" customWidth="1"/>
+    <col min="4110" max="4110" width="9.875" customWidth="1"/>
+    <col min="4362" max="4362" width="8.75" customWidth="1"/>
+    <col min="4363" max="4363" width="45" customWidth="1"/>
+    <col min="4364" max="4364" width="24.25" customWidth="1"/>
+    <col min="4365" max="4365" width="11" customWidth="1"/>
+    <col min="4366" max="4366" width="9.875" customWidth="1"/>
+    <col min="4618" max="4618" width="8.75" customWidth="1"/>
+    <col min="4619" max="4619" width="45" customWidth="1"/>
+    <col min="4620" max="4620" width="24.25" customWidth="1"/>
+    <col min="4621" max="4621" width="11" customWidth="1"/>
+    <col min="4622" max="4622" width="9.875" customWidth="1"/>
+    <col min="4874" max="4874" width="8.75" customWidth="1"/>
+    <col min="4875" max="4875" width="45" customWidth="1"/>
+    <col min="4876" max="4876" width="24.25" customWidth="1"/>
+    <col min="4877" max="4877" width="11" customWidth="1"/>
+    <col min="4878" max="4878" width="9.875" customWidth="1"/>
+    <col min="5130" max="5130" width="8.75" customWidth="1"/>
+    <col min="5131" max="5131" width="45" customWidth="1"/>
+    <col min="5132" max="5132" width="24.25" customWidth="1"/>
+    <col min="5133" max="5133" width="11" customWidth="1"/>
+    <col min="5134" max="5134" width="9.875" customWidth="1"/>
+    <col min="5386" max="5386" width="8.75" customWidth="1"/>
+    <col min="5387" max="5387" width="45" customWidth="1"/>
+    <col min="5388" max="5388" width="24.25" customWidth="1"/>
+    <col min="5389" max="5389" width="11" customWidth="1"/>
+    <col min="5390" max="5390" width="9.875" customWidth="1"/>
+    <col min="5642" max="5642" width="8.75" customWidth="1"/>
+    <col min="5643" max="5643" width="45" customWidth="1"/>
+    <col min="5644" max="5644" width="24.25" customWidth="1"/>
+    <col min="5645" max="5645" width="11" customWidth="1"/>
+    <col min="5646" max="5646" width="9.875" customWidth="1"/>
+    <col min="5898" max="5898" width="8.75" customWidth="1"/>
+    <col min="5899" max="5899" width="45" customWidth="1"/>
+    <col min="5900" max="5900" width="24.25" customWidth="1"/>
+    <col min="5901" max="5901" width="11" customWidth="1"/>
+    <col min="5902" max="5902" width="9.875" customWidth="1"/>
+    <col min="6154" max="6154" width="8.75" customWidth="1"/>
+    <col min="6155" max="6155" width="45" customWidth="1"/>
+    <col min="6156" max="6156" width="24.25" customWidth="1"/>
+    <col min="6157" max="6157" width="11" customWidth="1"/>
+    <col min="6158" max="6158" width="9.875" customWidth="1"/>
+    <col min="6410" max="6410" width="8.75" customWidth="1"/>
+    <col min="6411" max="6411" width="45" customWidth="1"/>
+    <col min="6412" max="6412" width="24.25" customWidth="1"/>
+    <col min="6413" max="6413" width="11" customWidth="1"/>
+    <col min="6414" max="6414" width="9.875" customWidth="1"/>
+    <col min="6666" max="6666" width="8.75" customWidth="1"/>
+    <col min="6667" max="6667" width="45" customWidth="1"/>
+    <col min="6668" max="6668" width="24.25" customWidth="1"/>
+    <col min="6669" max="6669" width="11" customWidth="1"/>
+    <col min="6670" max="6670" width="9.875" customWidth="1"/>
+    <col min="6922" max="6922" width="8.75" customWidth="1"/>
+    <col min="6923" max="6923" width="45" customWidth="1"/>
+    <col min="6924" max="6924" width="24.25" customWidth="1"/>
+    <col min="6925" max="6925" width="11" customWidth="1"/>
+    <col min="6926" max="6926" width="9.875" customWidth="1"/>
+    <col min="7178" max="7178" width="8.75" customWidth="1"/>
+    <col min="7179" max="7179" width="45" customWidth="1"/>
+    <col min="7180" max="7180" width="24.25" customWidth="1"/>
+    <col min="7181" max="7181" width="11" customWidth="1"/>
+    <col min="7182" max="7182" width="9.875" customWidth="1"/>
+    <col min="7434" max="7434" width="8.75" customWidth="1"/>
+    <col min="7435" max="7435" width="45" customWidth="1"/>
+    <col min="7436" max="7436" width="24.25" customWidth="1"/>
+    <col min="7437" max="7437" width="11" customWidth="1"/>
+    <col min="7438" max="7438" width="9.875" customWidth="1"/>
+    <col min="7690" max="7690" width="8.75" customWidth="1"/>
+    <col min="7691" max="7691" width="45" customWidth="1"/>
+    <col min="7692" max="7692" width="24.25" customWidth="1"/>
+    <col min="7693" max="7693" width="11" customWidth="1"/>
+    <col min="7694" max="7694" width="9.875" customWidth="1"/>
+    <col min="7946" max="7946" width="8.75" customWidth="1"/>
+    <col min="7947" max="7947" width="45" customWidth="1"/>
+    <col min="7948" max="7948" width="24.25" customWidth="1"/>
+    <col min="7949" max="7949" width="11" customWidth="1"/>
+    <col min="7950" max="7950" width="9.875" customWidth="1"/>
+    <col min="8202" max="8202" width="8.75" customWidth="1"/>
+    <col min="8203" max="8203" width="45" customWidth="1"/>
+    <col min="8204" max="8204" width="24.25" customWidth="1"/>
+    <col min="8205" max="8205" width="11" customWidth="1"/>
+    <col min="8206" max="8206" width="9.875" customWidth="1"/>
+    <col min="8458" max="8458" width="8.75" customWidth="1"/>
+    <col min="8459" max="8459" width="45" customWidth="1"/>
+    <col min="8460" max="8460" width="24.25" customWidth="1"/>
+    <col min="8461" max="8461" width="11" customWidth="1"/>
+    <col min="8462" max="8462" width="9.875" customWidth="1"/>
+    <col min="8714" max="8714" width="8.75" customWidth="1"/>
+    <col min="8715" max="8715" width="45" customWidth="1"/>
+    <col min="8716" max="8716" width="24.25" customWidth="1"/>
+    <col min="8717" max="8717" width="11" customWidth="1"/>
+    <col min="8718" max="8718" width="9.875" customWidth="1"/>
+    <col min="8970" max="8970" width="8.75" customWidth="1"/>
+    <col min="8971" max="8971" width="45" customWidth="1"/>
+    <col min="8972" max="8972" width="24.25" customWidth="1"/>
+    <col min="8973" max="8973" width="11" customWidth="1"/>
+    <col min="8974" max="8974" width="9.875" customWidth="1"/>
+    <col min="9226" max="9226" width="8.75" customWidth="1"/>
+    <col min="9227" max="9227" width="45" customWidth="1"/>
+    <col min="9228" max="9228" width="24.25" customWidth="1"/>
+    <col min="9229" max="9229" width="11" customWidth="1"/>
+    <col min="9230" max="9230" width="9.875" customWidth="1"/>
+    <col min="9482" max="9482" width="8.75" customWidth="1"/>
+    <col min="9483" max="9483" width="45" customWidth="1"/>
+    <col min="9484" max="9484" width="24.25" customWidth="1"/>
+    <col min="9485" max="9485" width="11" customWidth="1"/>
+    <col min="9486" max="9486" width="9.875" customWidth="1"/>
+    <col min="9738" max="9738" width="8.75" customWidth="1"/>
+    <col min="9739" max="9739" width="45" customWidth="1"/>
+    <col min="9740" max="9740" width="24.25" customWidth="1"/>
+    <col min="9741" max="9741" width="11" customWidth="1"/>
+    <col min="9742" max="9742" width="9.875" customWidth="1"/>
+    <col min="9994" max="9994" width="8.75" customWidth="1"/>
+    <col min="9995" max="9995" width="45" customWidth="1"/>
+    <col min="9996" max="9996" width="24.25" customWidth="1"/>
+    <col min="9997" max="9997" width="11" customWidth="1"/>
+    <col min="9998" max="9998" width="9.875" customWidth="1"/>
+    <col min="10250" max="10250" width="8.75" customWidth="1"/>
+    <col min="10251" max="10251" width="45" customWidth="1"/>
+    <col min="10252" max="10252" width="24.25" customWidth="1"/>
+    <col min="10253" max="10253" width="11" customWidth="1"/>
+    <col min="10254" max="10254" width="9.875" customWidth="1"/>
+    <col min="10506" max="10506" width="8.75" customWidth="1"/>
+    <col min="10507" max="10507" width="45" customWidth="1"/>
+    <col min="10508" max="10508" width="24.25" customWidth="1"/>
+    <col min="10509" max="10509" width="11" customWidth="1"/>
+    <col min="10510" max="10510" width="9.875" customWidth="1"/>
+    <col min="10762" max="10762" width="8.75" customWidth="1"/>
+    <col min="10763" max="10763" width="45" customWidth="1"/>
+    <col min="10764" max="10764" width="24.25" customWidth="1"/>
+    <col min="10765" max="10765" width="11" customWidth="1"/>
+    <col min="10766" max="10766" width="9.875" customWidth="1"/>
+    <col min="11018" max="11018" width="8.75" customWidth="1"/>
+    <col min="11019" max="11019" width="45" customWidth="1"/>
+    <col min="11020" max="11020" width="24.25" customWidth="1"/>
+    <col min="11021" max="11021" width="11" customWidth="1"/>
+    <col min="11022" max="11022" width="9.875" customWidth="1"/>
+    <col min="11274" max="11274" width="8.75" customWidth="1"/>
+    <col min="11275" max="11275" width="45" customWidth="1"/>
+    <col min="11276" max="11276" width="24.25" customWidth="1"/>
+    <col min="11277" max="11277" width="11" customWidth="1"/>
+    <col min="11278" max="11278" width="9.875" customWidth="1"/>
+    <col min="11530" max="11530" width="8.75" customWidth="1"/>
+    <col min="11531" max="11531" width="45" customWidth="1"/>
+    <col min="11532" max="11532" width="24.25" customWidth="1"/>
+    <col min="11533" max="11533" width="11" customWidth="1"/>
+    <col min="11534" max="11534" width="9.875" customWidth="1"/>
+    <col min="11786" max="11786" width="8.75" customWidth="1"/>
+    <col min="11787" max="11787" width="45" customWidth="1"/>
+    <col min="11788" max="11788" width="24.25" customWidth="1"/>
+    <col min="11789" max="11789" width="11" customWidth="1"/>
+    <col min="11790" max="11790" width="9.875" customWidth="1"/>
+    <col min="12042" max="12042" width="8.75" customWidth="1"/>
+    <col min="12043" max="12043" width="45" customWidth="1"/>
+    <col min="12044" max="12044" width="24.25" customWidth="1"/>
+    <col min="12045" max="12045" width="11" customWidth="1"/>
+    <col min="12046" max="12046" width="9.875" customWidth="1"/>
+    <col min="12298" max="12298" width="8.75" customWidth="1"/>
+    <col min="12299" max="12299" width="45" customWidth="1"/>
+    <col min="12300" max="12300" width="24.25" customWidth="1"/>
+    <col min="12301" max="12301" width="11" customWidth="1"/>
+    <col min="12302" max="12302" width="9.875" customWidth="1"/>
+    <col min="12554" max="12554" width="8.75" customWidth="1"/>
+    <col min="12555" max="12555" width="45" customWidth="1"/>
+    <col min="12556" max="12556" width="24.25" customWidth="1"/>
+    <col min="12557" max="12557" width="11" customWidth="1"/>
+    <col min="12558" max="12558" width="9.875" customWidth="1"/>
+    <col min="12810" max="12810" width="8.75" customWidth="1"/>
+    <col min="12811" max="12811" width="45" customWidth="1"/>
+    <col min="12812" max="12812" width="24.25" customWidth="1"/>
+    <col min="12813" max="12813" width="11" customWidth="1"/>
+    <col min="12814" max="12814" width="9.875" customWidth="1"/>
+    <col min="13066" max="13066" width="8.75" customWidth="1"/>
+    <col min="13067" max="13067" width="45" customWidth="1"/>
+    <col min="13068" max="13068" width="24.25" customWidth="1"/>
+    <col min="13069" max="13069" width="11" customWidth="1"/>
+    <col min="13070" max="13070" width="9.875" customWidth="1"/>
+    <col min="13322" max="13322" width="8.75" customWidth="1"/>
+    <col min="13323" max="13323" width="45" customWidth="1"/>
+    <col min="13324" max="13324" width="24.25" customWidth="1"/>
+    <col min="13325" max="13325" width="11" customWidth="1"/>
+    <col min="13326" max="13326" width="9.875" customWidth="1"/>
+    <col min="13578" max="13578" width="8.75" customWidth="1"/>
+    <col min="13579" max="13579" width="45" customWidth="1"/>
+    <col min="13580" max="13580" width="24.25" customWidth="1"/>
+    <col min="13581" max="13581" width="11" customWidth="1"/>
+    <col min="13582" max="13582" width="9.875" customWidth="1"/>
+    <col min="13834" max="13834" width="8.75" customWidth="1"/>
+    <col min="13835" max="13835" width="45" customWidth="1"/>
+    <col min="13836" max="13836" width="24.25" customWidth="1"/>
+    <col min="13837" max="13837" width="11" customWidth="1"/>
+    <col min="13838" max="13838" width="9.875" customWidth="1"/>
+    <col min="14090" max="14090" width="8.75" customWidth="1"/>
+    <col min="14091" max="14091" width="45" customWidth="1"/>
+    <col min="14092" max="14092" width="24.25" customWidth="1"/>
+    <col min="14093" max="14093" width="11" customWidth="1"/>
+    <col min="14094" max="14094" width="9.875" customWidth="1"/>
+    <col min="14346" max="14346" width="8.75" customWidth="1"/>
+    <col min="14347" max="14347" width="45" customWidth="1"/>
+    <col min="14348" max="14348" width="24.25" customWidth="1"/>
+    <col min="14349" max="14349" width="11" customWidth="1"/>
+    <col min="14350" max="14350" width="9.875" customWidth="1"/>
+    <col min="14602" max="14602" width="8.75" customWidth="1"/>
+    <col min="14603" max="14603" width="45" customWidth="1"/>
+    <col min="14604" max="14604" width="24.25" customWidth="1"/>
+    <col min="14605" max="14605" width="11" customWidth="1"/>
+    <col min="14606" max="14606" width="9.875" customWidth="1"/>
+    <col min="14858" max="14858" width="8.75" customWidth="1"/>
+    <col min="14859" max="14859" width="45" customWidth="1"/>
+    <col min="14860" max="14860" width="24.25" customWidth="1"/>
+    <col min="14861" max="14861" width="11" customWidth="1"/>
+    <col min="14862" max="14862" width="9.875" customWidth="1"/>
+    <col min="15114" max="15114" width="8.75" customWidth="1"/>
+    <col min="15115" max="15115" width="45" customWidth="1"/>
+    <col min="15116" max="15116" width="24.25" customWidth="1"/>
+    <col min="15117" max="15117" width="11" customWidth="1"/>
+    <col min="15118" max="15118" width="9.875" customWidth="1"/>
+    <col min="15370" max="15370" width="8.75" customWidth="1"/>
+    <col min="15371" max="15371" width="45" customWidth="1"/>
+    <col min="15372" max="15372" width="24.25" customWidth="1"/>
+    <col min="15373" max="15373" width="11" customWidth="1"/>
+    <col min="15374" max="15374" width="9.875" customWidth="1"/>
+    <col min="15626" max="15626" width="8.75" customWidth="1"/>
+    <col min="15627" max="15627" width="45" customWidth="1"/>
+    <col min="15628" max="15628" width="24.25" customWidth="1"/>
+    <col min="15629" max="15629" width="11" customWidth="1"/>
+    <col min="15630" max="15630" width="9.875" customWidth="1"/>
+    <col min="15882" max="15882" width="8.75" customWidth="1"/>
+    <col min="15883" max="15883" width="45" customWidth="1"/>
+    <col min="15884" max="15884" width="24.25" customWidth="1"/>
+    <col min="15885" max="15885" width="11" customWidth="1"/>
+    <col min="15886" max="15886" width="9.875" customWidth="1"/>
+    <col min="16138" max="16138" width="8.75" customWidth="1"/>
+    <col min="16139" max="16139" width="45" customWidth="1"/>
+    <col min="16140" max="16140" width="24.25" customWidth="1"/>
+    <col min="16141" max="16141" width="11" customWidth="1"/>
+    <col min="16142" max="16142" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
     </row>
-    <row r="9" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:20" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="45" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="10"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="25" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="25" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>137</v>
       </c>
@@ -5888,48 +6218,76 @@
       <c r="D11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="N11" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="P11" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="Q11" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="R11" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="S11" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="52"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>160</v>
       </c>
@@ -5940,29 +6298,54 @@
       <c r="D13" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="11">
+        <v>390</v>
+      </c>
+      <c r="F13" s="32">
         <v>15.6</v>
       </c>
-      <c r="F13" s="20">
+      <c r="G13" s="66">
+        <f t="shared" ref="G13:G50" si="0">F13*21000</f>
+        <v>327600</v>
+      </c>
+      <c r="H13" s="68">
+        <f>ROUNDUP(G13+J13+K13,-4)</f>
+        <v>390000</v>
+      </c>
+      <c r="I13" s="71">
+        <v>0.17</v>
+      </c>
+      <c r="J13" s="72">
+        <f>G13*I13</f>
+        <v>55692.000000000007</v>
+      </c>
+      <c r="K13" s="72">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
         <v>0.3</v>
       </c>
-      <c r="G13" s="19">
-        <f>E13*1.3</f>
+      <c r="M13" s="19">
+        <f>F13*1.3</f>
         <v>20.28</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="N13" s="36">
+        <f>M13*21000</f>
+        <v>425880</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="30">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="30">
         <v>250</v>
       </c>
-      <c r="L13" s="29">
+      <c r="S13" s="29">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>161</v>
       </c>
@@ -5973,29 +6356,54 @@
       <c r="D14" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="11">
+        <v>390</v>
+      </c>
+      <c r="F14" s="32">
         <v>15.6</v>
       </c>
-      <c r="F14" s="20">
+      <c r="G14" s="66">
+        <f t="shared" si="0"/>
+        <v>327600</v>
+      </c>
+      <c r="H14" s="68">
+        <f t="shared" ref="H14:H38" si="1">ROUNDUP(G14+J14+K14,-4)</f>
+        <v>390000</v>
+      </c>
+      <c r="I14" s="71">
+        <v>0.17</v>
+      </c>
+      <c r="J14" s="72">
+        <f t="shared" ref="J14:J50" si="2">G14*I14</f>
+        <v>55692.000000000007</v>
+      </c>
+      <c r="K14" s="72">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
         <v>0.3</v>
       </c>
-      <c r="G14" s="19">
-        <f>E14*1.3</f>
+      <c r="M14" s="19">
+        <f>F14*1.3</f>
         <v>20.28</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="N14" s="36">
+        <f t="shared" ref="N14:N50" si="3">M14*21000</f>
+        <v>425880</v>
+      </c>
+      <c r="O14" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="30">
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="30">
         <v>500</v>
       </c>
-      <c r="L14" s="29">
+      <c r="S14" s="29">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -6006,32 +6414,57 @@
       <c r="D15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="34">
+        <v>305</v>
+      </c>
+      <c r="F15" s="19">
         <v>11.199434958735683</v>
       </c>
-      <c r="F15" s="20">
+      <c r="G15" s="66">
+        <f t="shared" si="0"/>
+        <v>235188.13413344935</v>
+      </c>
+      <c r="H15" s="68">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+      <c r="I15" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="72">
+        <f t="shared" si="2"/>
+        <v>23518.813413344935</v>
+      </c>
+      <c r="K15" s="72">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
         <v>0.3</v>
       </c>
-      <c r="G15" s="19">
-        <f>E15*1.3</f>
+      <c r="M15" s="19">
+        <f>F15*1.3</f>
         <v>14.559265446356388</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="N15" s="36">
+        <f t="shared" si="3"/>
+        <v>305744.57437348412</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="27">
+      <c r="P15" s="27">
         <v>131</v>
       </c>
-      <c r="J15" s="27">
+      <c r="Q15" s="27">
         <v>10</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="29">
-        <f t="shared" ref="L15" si="0">I15+J15+K15</f>
+      <c r="R15" s="30"/>
+      <c r="S15" s="29">
+        <f t="shared" ref="S15" si="4">P15+Q15+R15</f>
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
@@ -6042,32 +6475,57 @@
       <c r="D16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="34">
+        <v>305</v>
+      </c>
+      <c r="F16" s="19">
         <v>11.199434958735683</v>
       </c>
-      <c r="F16" s="20">
+      <c r="G16" s="66">
+        <f t="shared" si="0"/>
+        <v>235188.13413344935</v>
+      </c>
+      <c r="H16" s="68">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+      <c r="I16" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="72">
+        <f t="shared" si="2"/>
+        <v>23518.813413344935</v>
+      </c>
+      <c r="K16" s="72">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
         <v>0.3</v>
       </c>
-      <c r="G16" s="19">
-        <f t="shared" ref="G16:G70" si="1">E16*1.3</f>
+      <c r="M16" s="19">
+        <f>F16*1.3</f>
         <v>14.559265446356388</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="N16" s="36">
+        <f t="shared" si="3"/>
+        <v>305744.57437348412</v>
+      </c>
+      <c r="O16" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="27">
+      <c r="P16" s="27">
         <v>137</v>
       </c>
-      <c r="J16" s="27">
+      <c r="Q16" s="27">
         <v>10</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="29">
-        <f t="shared" ref="L16:L22" si="2">I16+J16+K16</f>
+      <c r="R16" s="30"/>
+      <c r="S16" s="29">
+        <f t="shared" ref="S16:S22" si="5">P16+Q16+R16</f>
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
@@ -6078,34 +6536,59 @@
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="34">
+        <v>281</v>
+      </c>
+      <c r="F17" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="F17" s="20">
+      <c r="G17" s="66">
+        <f t="shared" si="0"/>
+        <v>238165.19912248038</v>
+      </c>
+      <c r="H17" s="68">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="I17" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="72">
+        <f t="shared" si="2"/>
+        <v>23816.519912248041</v>
+      </c>
+      <c r="K17" s="72">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
         <v>0.3</v>
       </c>
-      <c r="G17" s="19">
-        <f t="shared" si="1"/>
+      <c r="M17" s="19">
+        <f>F17*1.3</f>
         <v>14.743559945677358</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="N17" s="36">
+        <f>M17*21000</f>
+        <v>309614.7588592245</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="27">
+      <c r="P17" s="27">
         <v>119</v>
       </c>
-      <c r="J17" s="27">
+      <c r="Q17" s="27">
         <v>3</v>
       </c>
-      <c r="K17" s="30">
+      <c r="R17" s="30">
         <v>200</v>
       </c>
-      <c r="L17" s="29">
-        <f t="shared" si="2"/>
+      <c r="S17" s="29">
+        <f t="shared" si="5"/>
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
@@ -6116,34 +6599,59 @@
       <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="34">
+        <v>281</v>
+      </c>
+      <c r="F18" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="F18" s="20">
+      <c r="G18" s="66">
+        <f t="shared" si="0"/>
+        <v>238165.19912248038</v>
+      </c>
+      <c r="H18" s="68">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="I18" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="72">
+        <f t="shared" si="2"/>
+        <v>23816.519912248041</v>
+      </c>
+      <c r="K18" s="72">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
         <v>0.3</v>
       </c>
-      <c r="G18" s="19">
-        <f t="shared" si="1"/>
+      <c r="M18" s="19">
+        <f>F18*1.3</f>
         <v>14.743559945677358</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="N18" s="36">
+        <f t="shared" si="3"/>
+        <v>309614.7588592245</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I18" s="27">
+      <c r="P18" s="27">
         <v>92</v>
       </c>
-      <c r="J18" s="27">
+      <c r="Q18" s="27">
         <v>2</v>
       </c>
-      <c r="K18" s="30">
+      <c r="R18" s="30">
         <v>200</v>
       </c>
-      <c r="L18" s="29">
-        <f t="shared" si="2"/>
+      <c r="S18" s="29">
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -6154,34 +6662,57 @@
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="34">
+        <v>281</v>
+      </c>
+      <c r="F19" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="F19" s="20">
+      <c r="G19" s="66">
+        <f t="shared" si="0"/>
+        <v>238165.19912248038</v>
+      </c>
+      <c r="H19" s="68">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="I19" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="72">
+        <f t="shared" si="2"/>
+        <v>23816.519912248041</v>
+      </c>
+      <c r="K19" s="72"/>
+      <c r="L19" s="20">
         <v>0.3</v>
       </c>
-      <c r="G19" s="19">
-        <f t="shared" si="1"/>
+      <c r="M19" s="19">
+        <f>F19*1.3</f>
         <v>14.743559945677358</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="N19" s="36">
+        <f t="shared" si="3"/>
+        <v>309614.7588592245</v>
+      </c>
+      <c r="O19" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="27">
+      <c r="P19" s="27">
         <v>92</v>
       </c>
-      <c r="J19" s="27">
+      <c r="Q19" s="27">
         <v>1</v>
       </c>
-      <c r="K19" s="30">
+      <c r="R19" s="30">
         <v>100</v>
       </c>
-      <c r="L19" s="29">
-        <f t="shared" si="2"/>
+      <c r="S19" s="29">
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -6192,32 +6723,55 @@
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="34">
+        <v>281</v>
+      </c>
+      <c r="F20" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="F20" s="20">
+      <c r="G20" s="66">
+        <f t="shared" si="0"/>
+        <v>238165.19912248038</v>
+      </c>
+      <c r="H20" s="68">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="I20" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="72">
+        <f t="shared" si="2"/>
+        <v>23816.519912248041</v>
+      </c>
+      <c r="K20" s="72"/>
+      <c r="L20" s="20">
         <v>0.3</v>
       </c>
-      <c r="G20" s="19">
-        <f t="shared" si="1"/>
+      <c r="M20" s="19">
+        <f>F20*1.3</f>
         <v>14.743559945677358</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="N20" s="36">
+        <f t="shared" si="3"/>
+        <v>309614.7588592245</v>
+      </c>
+      <c r="O20" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="27">
+      <c r="P20" s="27">
         <v>34</v>
       </c>
-      <c r="J20" s="27">
+      <c r="Q20" s="27">
         <v>24</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="29">
-        <f t="shared" si="2"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="29">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
@@ -6228,34 +6782,57 @@
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="34">
+        <v>281</v>
+      </c>
+      <c r="F21" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="F21" s="20">
+      <c r="G21" s="66">
+        <f t="shared" si="0"/>
+        <v>238165.19912248038</v>
+      </c>
+      <c r="H21" s="68">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="I21" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="72">
+        <f t="shared" si="2"/>
+        <v>23816.519912248041</v>
+      </c>
+      <c r="K21" s="72"/>
+      <c r="L21" s="20">
         <v>0.3</v>
       </c>
-      <c r="G21" s="19">
-        <f t="shared" si="1"/>
+      <c r="M21" s="19">
+        <f>F21*1.3</f>
         <v>14.743559945677358</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="N21" s="36">
+        <f t="shared" si="3"/>
+        <v>309614.7588592245</v>
+      </c>
+      <c r="O21" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="27">
+      <c r="P21" s="27">
         <v>117</v>
       </c>
-      <c r="J21" s="27">
+      <c r="Q21" s="27">
         <v>11</v>
       </c>
-      <c r="K21" s="30">
+      <c r="R21" s="30">
         <v>100</v>
       </c>
-      <c r="L21" s="29">
-        <f t="shared" si="2"/>
+      <c r="S21" s="29">
+        <f t="shared" si="5"/>
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -6266,32 +6843,55 @@
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="34">
+        <v>281</v>
+      </c>
+      <c r="F22" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="F22" s="20">
+      <c r="G22" s="66">
+        <f t="shared" si="0"/>
+        <v>238165.19912248038</v>
+      </c>
+      <c r="H22" s="68">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="I22" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="72">
+        <f t="shared" si="2"/>
+        <v>23816.519912248041</v>
+      </c>
+      <c r="K22" s="72"/>
+      <c r="L22" s="20">
         <v>0.3</v>
       </c>
-      <c r="G22" s="19">
-        <f t="shared" si="1"/>
+      <c r="M22" s="19">
+        <f>F22*1.3</f>
         <v>14.743559945677358</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="N22" s="36">
+        <f t="shared" si="3"/>
+        <v>309614.7588592245</v>
+      </c>
+      <c r="O22" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="27">
+      <c r="P22" s="27">
         <v>34</v>
       </c>
-      <c r="J22" s="27">
+      <c r="Q22" s="27">
         <v>5</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29">
-        <f t="shared" si="2"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="29">
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
@@ -6302,32 +6902,55 @@
       <c r="D23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="34">
+        <v>600</v>
+      </c>
+      <c r="F23" s="22">
         <v>23.391224913815034</v>
       </c>
-      <c r="F23" s="23">
+      <c r="G23" s="66">
+        <f t="shared" si="0"/>
+        <v>491215.72319011571</v>
+      </c>
+      <c r="H23" s="68">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="I23" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="72">
+        <f t="shared" si="2"/>
+        <v>49121.572319011575</v>
+      </c>
+      <c r="K23" s="72"/>
+      <c r="L23" s="23">
         <v>0.3</v>
       </c>
-      <c r="G23" s="22">
-        <f t="shared" ref="G23:G40" si="3">E23*1.3</f>
+      <c r="M23" s="22">
+        <f>F23*1.3</f>
         <v>30.408592387959544</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="N23" s="36">
+        <f t="shared" si="3"/>
+        <v>638580.44014715042</v>
+      </c>
+      <c r="O23" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="27">
+      <c r="P23" s="27">
         <v>91</v>
       </c>
-      <c r="J23" s="27">
+      <c r="Q23" s="27">
         <v>11</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="29">
-        <f t="shared" ref="L23:L24" si="4">I23+J23+K23</f>
+      <c r="R23" s="30"/>
+      <c r="S23" s="29">
+        <f t="shared" ref="S23:S24" si="6">P23+Q23+R23</f>
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="2" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
@@ -6338,32 +6961,55 @@
       <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="22">
         <v>77.970749712716767</v>
       </c>
-      <c r="F24" s="23">
+      <c r="G24" s="66">
+        <f t="shared" si="0"/>
+        <v>1637385.7439670521</v>
+      </c>
+      <c r="H24" s="68">
+        <f t="shared" si="1"/>
+        <v>1810000</v>
+      </c>
+      <c r="I24" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="72">
+        <f t="shared" si="2"/>
+        <v>163738.57439670523</v>
+      </c>
+      <c r="K24" s="72"/>
+      <c r="L24" s="23">
         <v>0.3</v>
       </c>
-      <c r="G24" s="22">
+      <c r="M24" s="22">
+        <f>F24*1.3</f>
+        <v>101.3619746265318</v>
+      </c>
+      <c r="N24" s="36">
         <f t="shared" si="3"/>
-        <v>101.3619746265318</v>
-      </c>
-      <c r="H24" s="21" t="s">
+        <v>2128601.4671571678</v>
+      </c>
+      <c r="O24" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="27">
+      <c r="P24" s="27">
         <v>9</v>
       </c>
-      <c r="J24" s="27">
+      <c r="Q24" s="27">
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="29">
-        <f t="shared" si="4"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="29">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="2" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
@@ -6374,32 +7020,55 @@
       <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="F25" s="23">
+      <c r="G25" s="66">
+        <f t="shared" si="0"/>
+        <v>982431.44638023141</v>
+      </c>
+      <c r="H25" s="68">
+        <f t="shared" si="1"/>
+        <v>1090000</v>
+      </c>
+      <c r="I25" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="72">
+        <f t="shared" si="2"/>
+        <v>98243.14463802315</v>
+      </c>
+      <c r="K25" s="72"/>
+      <c r="L25" s="23">
         <v>0.3</v>
       </c>
-      <c r="G25" s="22">
+      <c r="M25" s="22">
+        <f>F25*1.3</f>
+        <v>60.817184775919088</v>
+      </c>
+      <c r="N25" s="36">
         <f t="shared" si="3"/>
-        <v>60.817184775919088</v>
-      </c>
-      <c r="H25" s="21" t="s">
+        <v>1277160.8802943008</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I25" s="27">
+      <c r="P25" s="27">
         <v>4</v>
       </c>
-      <c r="J25" s="27">
+      <c r="Q25" s="27">
         <v>2</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="29">
-        <f t="shared" ref="L25:L26" si="5">I25+J25+K25</f>
+      <c r="R25" s="30"/>
+      <c r="S25" s="29">
+        <f t="shared" ref="S25:S26" si="7">P25+Q25+R25</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
@@ -6410,32 +7079,55 @@
       <c r="D26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="34">
+        <v>935</v>
+      </c>
+      <c r="F26" s="22">
         <v>34.307129873595379</v>
       </c>
-      <c r="F26" s="23">
+      <c r="G26" s="66">
+        <f t="shared" si="0"/>
+        <v>720449.72734550294</v>
+      </c>
+      <c r="H26" s="68">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="I26" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="72">
+        <f t="shared" si="2"/>
+        <v>72044.972734550291</v>
+      </c>
+      <c r="K26" s="72"/>
+      <c r="L26" s="23">
         <v>0.3</v>
       </c>
-      <c r="G26" s="22">
+      <c r="M26" s="22">
+        <f>F26*1.3</f>
+        <v>44.599268835673996</v>
+      </c>
+      <c r="N26" s="36">
         <f t="shared" si="3"/>
-        <v>44.599268835673996</v>
-      </c>
-      <c r="H26" s="21" t="s">
+        <v>936584.64554915391</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="27">
+      <c r="P26" s="27">
         <v>2</v>
       </c>
-      <c r="J26" s="27">
+      <c r="Q26" s="27">
         <v>15</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="29">
-        <f t="shared" si="5"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="29">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="2" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -6446,32 +7138,55 @@
       <c r="D27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="34">
+        <v>447</v>
+      </c>
+      <c r="F27" s="22">
         <v>19.138274929485029</v>
       </c>
-      <c r="F27" s="23">
+      <c r="G27" s="66">
+        <f t="shared" si="0"/>
+        <v>401903.7735191856</v>
+      </c>
+      <c r="H27" s="68">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+      <c r="I27" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="72">
+        <f t="shared" si="2"/>
+        <v>40190.377351918563</v>
+      </c>
+      <c r="K27" s="72"/>
+      <c r="L27" s="23">
         <v>0.3</v>
       </c>
-      <c r="G27" s="22">
+      <c r="M27" s="22">
+        <f>F27*1.3</f>
+        <v>24.879757408330537</v>
+      </c>
+      <c r="N27" s="36">
         <f t="shared" si="3"/>
-        <v>24.879757408330537</v>
-      </c>
-      <c r="H27" s="21" t="s">
+        <v>522474.90557494125</v>
+      </c>
+      <c r="O27" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I27" s="27">
+      <c r="P27" s="27">
         <v>144</v>
       </c>
-      <c r="J27" s="27">
+      <c r="Q27" s="27">
         <v>2</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="29">
-        <f>I27+J27+K27</f>
+      <c r="R27" s="30"/>
+      <c r="S27" s="29">
+        <f>P27+Q27+R27</f>
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>46</v>
       </c>
@@ -6482,32 +7197,55 @@
       <c r="D28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="34">
+        <v>606</v>
+      </c>
+      <c r="F28" s="22">
         <v>26.226524903368372</v>
       </c>
-      <c r="F28" s="23">
+      <c r="G28" s="66">
+        <f t="shared" si="0"/>
+        <v>550757.02297073579</v>
+      </c>
+      <c r="H28" s="68">
+        <f t="shared" si="1"/>
+        <v>610000</v>
+      </c>
+      <c r="I28" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="72">
+        <f t="shared" si="2"/>
+        <v>55075.702297073585</v>
+      </c>
+      <c r="K28" s="72"/>
+      <c r="L28" s="23">
         <v>0.3</v>
       </c>
-      <c r="G28" s="22">
+      <c r="M28" s="22">
+        <f>F28*1.3</f>
+        <v>34.094482374378885</v>
+      </c>
+      <c r="N28" s="36">
         <f t="shared" si="3"/>
-        <v>34.094482374378885</v>
-      </c>
-      <c r="H28" s="21" t="s">
+        <v>715984.12986195658</v>
+      </c>
+      <c r="O28" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="27">
+      <c r="P28" s="27">
         <v>5</v>
       </c>
-      <c r="J28" s="27">
+      <c r="Q28" s="27">
         <v>3</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29">
-        <f t="shared" ref="L28:L35" si="6">I28+J28+K28</f>
+      <c r="R28" s="30"/>
+      <c r="S28" s="29">
+        <f t="shared" ref="S28:S35" si="8">P28+Q28+R28</f>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="2" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>49</v>
       </c>
@@ -6518,32 +7256,55 @@
       <c r="D29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="11">
+        <v>989</v>
+      </c>
+      <c r="F29" s="22">
         <v>42.245969844344735</v>
       </c>
-      <c r="F29" s="23">
+      <c r="G29" s="66">
+        <f t="shared" si="0"/>
+        <v>887165.36673123948</v>
+      </c>
+      <c r="H29" s="68">
+        <f t="shared" si="1"/>
+        <v>980000</v>
+      </c>
+      <c r="I29" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="72">
+        <f t="shared" si="2"/>
+        <v>88716.536673123948</v>
+      </c>
+      <c r="K29" s="72"/>
+      <c r="L29" s="23">
         <v>0.3</v>
       </c>
-      <c r="G29" s="22">
+      <c r="M29" s="22">
+        <f>F29*1.3</f>
+        <v>54.919760797648159</v>
+      </c>
+      <c r="N29" s="36">
         <f t="shared" si="3"/>
-        <v>54.919760797648159</v>
-      </c>
-      <c r="H29" s="21" t="s">
+        <v>1153314.9767506113</v>
+      </c>
+      <c r="O29" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="27">
+      <c r="P29" s="27">
         <v>0</v>
       </c>
-      <c r="J29" s="27">
+      <c r="Q29" s="27">
         <v>3</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="29">
-        <f t="shared" si="6"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="29">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>51</v>
       </c>
@@ -6554,32 +7315,55 @@
       <c r="D30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="34">
+        <v>1100</v>
+      </c>
+      <c r="F30" s="19">
         <v>46.782449827630067</v>
       </c>
-      <c r="F30" s="20">
+      <c r="G30" s="66">
+        <f t="shared" si="0"/>
+        <v>982431.44638023141</v>
+      </c>
+      <c r="H30" s="68">
+        <f t="shared" si="1"/>
+        <v>1090000</v>
+      </c>
+      <c r="I30" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="72">
+        <f t="shared" si="2"/>
+        <v>98243.14463802315</v>
+      </c>
+      <c r="K30" s="72"/>
+      <c r="L30" s="20">
         <v>0.3</v>
       </c>
-      <c r="G30" s="19">
+      <c r="M30" s="19">
+        <f>F30*1.3</f>
+        <v>60.817184775919088</v>
+      </c>
+      <c r="N30" s="36">
         <f t="shared" si="3"/>
-        <v>60.817184775919088</v>
-      </c>
-      <c r="H30" s="21" t="s">
+        <v>1277160.8802943008</v>
+      </c>
+      <c r="O30" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="27">
+      <c r="P30" s="27">
         <v>135</v>
       </c>
-      <c r="J30" s="27">
+      <c r="Q30" s="27">
         <v>7</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="29">
-        <f t="shared" si="6"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="29">
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>54</v>
       </c>
@@ -6590,34 +7374,57 @@
       <c r="D31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="34">
+        <v>1100</v>
+      </c>
+      <c r="F31" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="F31" s="23">
+      <c r="G31" s="66">
+        <f t="shared" si="0"/>
+        <v>982431.44638023141</v>
+      </c>
+      <c r="H31" s="68">
+        <f t="shared" si="1"/>
+        <v>1090000</v>
+      </c>
+      <c r="I31" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="72">
+        <f t="shared" si="2"/>
+        <v>98243.14463802315</v>
+      </c>
+      <c r="K31" s="72"/>
+      <c r="L31" s="23">
         <v>0.3</v>
       </c>
-      <c r="G31" s="22">
+      <c r="M31" s="22">
+        <f>F31*1.3</f>
+        <v>60.817184775919088</v>
+      </c>
+      <c r="N31" s="36">
         <f t="shared" si="3"/>
-        <v>60.817184775919088</v>
-      </c>
-      <c r="H31" s="21" t="s">
+        <v>1277160.8802943008</v>
+      </c>
+      <c r="O31" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="27">
+      <c r="P31" s="27">
         <v>16</v>
       </c>
-      <c r="J31" s="27">
+      <c r="Q31" s="27">
         <v>0</v>
       </c>
-      <c r="K31" s="30">
+      <c r="R31" s="30">
         <v>50</v>
       </c>
-      <c r="L31" s="29">
-        <f t="shared" si="6"/>
+      <c r="S31" s="29">
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="121.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="2" customFormat="1" ht="121.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
@@ -6628,34 +7435,57 @@
       <c r="D32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="34">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="F32" s="23">
+      <c r="G32" s="66">
+        <f t="shared" si="0"/>
+        <v>982431.44638023141</v>
+      </c>
+      <c r="H32" s="68">
+        <f t="shared" si="1"/>
+        <v>1090000</v>
+      </c>
+      <c r="I32" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="72">
+        <f t="shared" si="2"/>
+        <v>98243.14463802315</v>
+      </c>
+      <c r="K32" s="72"/>
+      <c r="L32" s="23">
         <v>0.3</v>
       </c>
-      <c r="G32" s="22">
+      <c r="M32" s="22">
+        <f>F32*1.3</f>
+        <v>60.817184775919088</v>
+      </c>
+      <c r="N32" s="36">
         <f t="shared" si="3"/>
-        <v>60.817184775919088</v>
-      </c>
-      <c r="H32" s="21" t="s">
+        <v>1277160.8802943008</v>
+      </c>
+      <c r="O32" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="27">
+      <c r="P32" s="27">
         <v>4</v>
       </c>
-      <c r="J32" s="27">
+      <c r="Q32" s="27">
         <v>11</v>
       </c>
-      <c r="K32" s="30">
+      <c r="R32" s="30">
         <v>50</v>
       </c>
-      <c r="L32" s="29">
-        <f t="shared" si="6"/>
+      <c r="S32" s="29">
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="2" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -6666,34 +7496,57 @@
       <c r="D33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="34">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="F33" s="23">
+      <c r="G33" s="66">
+        <f t="shared" si="0"/>
+        <v>982431.44638023141</v>
+      </c>
+      <c r="H33" s="68">
+        <f t="shared" si="1"/>
+        <v>1090000</v>
+      </c>
+      <c r="I33" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="72">
+        <f t="shared" si="2"/>
+        <v>98243.14463802315</v>
+      </c>
+      <c r="K33" s="72"/>
+      <c r="L33" s="23">
         <v>0.3</v>
       </c>
-      <c r="G33" s="22">
+      <c r="M33" s="22">
+        <f>F33*1.3</f>
+        <v>60.817184775919088</v>
+      </c>
+      <c r="N33" s="36">
         <f t="shared" si="3"/>
-        <v>60.817184775919088</v>
-      </c>
-      <c r="H33" s="21" t="s">
+        <v>1277160.8802943008</v>
+      </c>
+      <c r="O33" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="27">
+      <c r="P33" s="27">
         <v>11</v>
       </c>
-      <c r="J33" s="27">
+      <c r="Q33" s="27">
         <v>5</v>
       </c>
-      <c r="K33" s="30">
+      <c r="R33" s="30">
         <v>50</v>
       </c>
-      <c r="L33" s="29">
-        <f t="shared" si="6"/>
+      <c r="S33" s="29">
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="2" customFormat="1" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>60</v>
       </c>
@@ -6704,34 +7557,57 @@
       <c r="D34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="34">
+        <v>1100</v>
+      </c>
+      <c r="F34" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="F34" s="23">
+      <c r="G34" s="66">
+        <f t="shared" si="0"/>
+        <v>982431.44638023141</v>
+      </c>
+      <c r="H34" s="68">
+        <f>ROUNDUP(G34+J34+K34,-4)</f>
+        <v>1090000</v>
+      </c>
+      <c r="I34" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="72">
+        <f t="shared" si="2"/>
+        <v>98243.14463802315</v>
+      </c>
+      <c r="K34" s="72"/>
+      <c r="L34" s="23">
         <v>0.3</v>
       </c>
-      <c r="G34" s="22">
+      <c r="M34" s="22">
+        <f>F34*1.3</f>
+        <v>60.817184775919088</v>
+      </c>
+      <c r="N34" s="36">
         <f t="shared" si="3"/>
-        <v>60.817184775919088</v>
-      </c>
-      <c r="H34" s="21" t="s">
+        <v>1277160.8802943008</v>
+      </c>
+      <c r="O34" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="27">
+      <c r="P34" s="27">
         <v>9</v>
       </c>
-      <c r="J34" s="27">
+      <c r="Q34" s="27">
         <v>4</v>
       </c>
-      <c r="K34" s="30">
+      <c r="R34" s="30">
         <v>50</v>
       </c>
-      <c r="L34" s="29">
-        <f t="shared" si="6"/>
+      <c r="S34" s="29">
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="2" customFormat="1" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>62</v>
       </c>
@@ -6742,34 +7618,57 @@
       <c r="D35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="34">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="F35" s="23">
+      <c r="G35" s="66">
+        <f t="shared" si="0"/>
+        <v>982431.44638023141</v>
+      </c>
+      <c r="H35" s="68">
+        <f t="shared" si="1"/>
+        <v>1090000</v>
+      </c>
+      <c r="I35" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J35" s="72">
+        <f t="shared" si="2"/>
+        <v>98243.14463802315</v>
+      </c>
+      <c r="K35" s="72"/>
+      <c r="L35" s="23">
         <v>0.3</v>
       </c>
-      <c r="G35" s="22">
+      <c r="M35" s="22">
+        <f>F35*1.3</f>
+        <v>60.817184775919088</v>
+      </c>
+      <c r="N35" s="36">
         <f t="shared" si="3"/>
-        <v>60.817184775919088</v>
-      </c>
-      <c r="H35" s="21" t="s">
+        <v>1277160.8802943008</v>
+      </c>
+      <c r="O35" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="27">
+      <c r="P35" s="27">
         <v>7</v>
       </c>
-      <c r="J35" s="27">
+      <c r="Q35" s="27">
         <v>10</v>
       </c>
-      <c r="K35" s="30">
+      <c r="R35" s="30">
         <v>50</v>
       </c>
-      <c r="L35" s="29">
-        <f t="shared" si="6"/>
+      <c r="S35" s="29">
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>79</v>
       </c>
@@ -6780,32 +7679,55 @@
       <c r="D36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="34">
+        <v>850</v>
+      </c>
+      <c r="F36" s="22">
         <v>36.99</v>
       </c>
-      <c r="F36" s="23">
+      <c r="G36" s="66">
+        <f t="shared" si="0"/>
+        <v>776790</v>
+      </c>
+      <c r="H36" s="68">
+        <f t="shared" si="1"/>
+        <v>860000</v>
+      </c>
+      <c r="I36" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="72">
+        <f t="shared" si="2"/>
+        <v>77679</v>
+      </c>
+      <c r="K36" s="72"/>
+      <c r="L36" s="23">
         <v>0.3</v>
       </c>
-      <c r="G36" s="22">
+      <c r="M36" s="22">
+        <f>F36*1.3</f>
+        <v>48.087000000000003</v>
+      </c>
+      <c r="N36" s="36">
         <f t="shared" si="3"/>
-        <v>48.087000000000003</v>
-      </c>
-      <c r="H36" s="21" t="s">
+        <v>1009827.0000000001</v>
+      </c>
+      <c r="O36" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="27">
+      <c r="P36" s="27">
         <v>137</v>
       </c>
-      <c r="J36" s="27">
+      <c r="Q36" s="27">
         <v>22</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="29">
-        <f t="shared" ref="L36:L40" si="7">I36+J36+K36</f>
+      <c r="R36" s="30"/>
+      <c r="S36" s="29">
+        <f t="shared" ref="S36:S40" si="9">P36+Q36+R36</f>
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="2" customFormat="1" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>81</v>
       </c>
@@ -6816,32 +7738,55 @@
       <c r="D37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="34">
+        <v>850</v>
+      </c>
+      <c r="F37" s="22">
         <v>36.99</v>
       </c>
-      <c r="F37" s="23">
+      <c r="G37" s="66">
+        <f t="shared" si="0"/>
+        <v>776790</v>
+      </c>
+      <c r="H37" s="68">
+        <f>ROUNDUP(G37+J37+K37,-4)</f>
+        <v>860000</v>
+      </c>
+      <c r="I37" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="72">
+        <f t="shared" si="2"/>
+        <v>77679</v>
+      </c>
+      <c r="K37" s="72"/>
+      <c r="L37" s="23">
         <v>0.3</v>
       </c>
-      <c r="G37" s="22">
+      <c r="M37" s="22">
+        <f>F37*1.3</f>
+        <v>48.087000000000003</v>
+      </c>
+      <c r="N37" s="36">
         <f t="shared" si="3"/>
-        <v>48.087000000000003</v>
-      </c>
-      <c r="H37" s="21" t="s">
+        <v>1009827.0000000001</v>
+      </c>
+      <c r="O37" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I37" s="27">
+      <c r="P37" s="27">
         <v>46</v>
       </c>
-      <c r="J37" s="27">
+      <c r="Q37" s="27">
         <v>3</v>
       </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="29">
-        <f t="shared" si="7"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="29">
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>82</v>
       </c>
@@ -6852,32 +7797,55 @@
       <c r="D38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="34">
+        <v>850</v>
+      </c>
+      <c r="F38" s="22">
         <v>36.99</v>
       </c>
-      <c r="F38" s="23">
+      <c r="G38" s="66">
+        <f t="shared" si="0"/>
+        <v>776790</v>
+      </c>
+      <c r="H38" s="68">
+        <f t="shared" si="1"/>
+        <v>860000</v>
+      </c>
+      <c r="I38" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="72">
+        <f t="shared" si="2"/>
+        <v>77679</v>
+      </c>
+      <c r="K38" s="72"/>
+      <c r="L38" s="23">
         <v>0.3</v>
       </c>
-      <c r="G38" s="22">
+      <c r="M38" s="22">
+        <f>F38*1.3</f>
+        <v>48.087000000000003</v>
+      </c>
+      <c r="N38" s="36">
         <f t="shared" si="3"/>
-        <v>48.087000000000003</v>
-      </c>
-      <c r="H38" s="21" t="s">
+        <v>1009827.0000000001</v>
+      </c>
+      <c r="O38" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I38" s="27">
+      <c r="P38" s="27">
         <v>156</v>
       </c>
-      <c r="J38" s="27">
+      <c r="Q38" s="27">
         <v>14</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="29">
-        <f t="shared" si="7"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="29">
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>83</v>
       </c>
@@ -6888,32 +7856,55 @@
       <c r="D39" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="34">
+        <v>850</v>
+      </c>
+      <c r="F39" s="22">
         <v>36.99</v>
       </c>
-      <c r="F39" s="23">
+      <c r="G39" s="66">
+        <f t="shared" si="0"/>
+        <v>776790</v>
+      </c>
+      <c r="H39" s="68">
+        <f>ROUNDUP(G39+J39+K39,-4)</f>
+        <v>860000</v>
+      </c>
+      <c r="I39" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J39" s="72">
+        <f t="shared" si="2"/>
+        <v>77679</v>
+      </c>
+      <c r="K39" s="72"/>
+      <c r="L39" s="23">
         <v>0.3</v>
       </c>
-      <c r="G39" s="22">
+      <c r="M39" s="22">
+        <f>F39*1.3</f>
+        <v>48.087000000000003</v>
+      </c>
+      <c r="N39" s="36">
         <f t="shared" si="3"/>
-        <v>48.087000000000003</v>
-      </c>
-      <c r="H39" s="21" t="s">
+        <v>1009827.0000000001</v>
+      </c>
+      <c r="O39" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="27">
+      <c r="P39" s="27">
         <v>198</v>
       </c>
-      <c r="J39" s="27">
+      <c r="Q39" s="27">
         <v>17</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="29">
-        <f t="shared" si="7"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="29">
+        <f t="shared" si="9"/>
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="2" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>84</v>
       </c>
@@ -6924,32 +7915,55 @@
       <c r="D40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="34">
+        <v>850</v>
+      </c>
+      <c r="F40" s="22">
         <v>36.99</v>
       </c>
-      <c r="F40" s="23">
+      <c r="G40" s="66">
+        <f t="shared" si="0"/>
+        <v>776790</v>
+      </c>
+      <c r="H40" s="68">
+        <f>ROUNDUP(G40+J40+K40,-4)</f>
+        <v>860000</v>
+      </c>
+      <c r="I40" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="72">
+        <f t="shared" si="2"/>
+        <v>77679</v>
+      </c>
+      <c r="K40" s="72"/>
+      <c r="L40" s="23">
         <v>0.3</v>
       </c>
-      <c r="G40" s="22">
+      <c r="M40" s="22">
+        <f>F40*1.3</f>
+        <v>48.087000000000003</v>
+      </c>
+      <c r="N40" s="36">
         <f t="shared" si="3"/>
-        <v>48.087000000000003</v>
-      </c>
-      <c r="H40" s="21" t="s">
+        <v>1009827.0000000001</v>
+      </c>
+      <c r="O40" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I40" s="27">
+      <c r="P40" s="27">
         <v>147</v>
       </c>
-      <c r="J40" s="27">
+      <c r="Q40" s="27">
         <v>16</v>
       </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="29">
-        <f t="shared" si="7"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="29">
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="2" customFormat="1" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>85</v>
       </c>
@@ -6960,32 +7974,55 @@
       <c r="D41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="11">
+        <v>570</v>
+      </c>
+      <c r="F41" s="22">
         <v>25.57</v>
       </c>
-      <c r="F41" s="23">
+      <c r="G41" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H41" s="68">
+        <f t="shared" ref="H41:H42" si="10">ROUNDUP(G41+J41+K41,-4)</f>
+        <v>600000</v>
+      </c>
+      <c r="I41" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K41" s="72"/>
+      <c r="L41" s="23">
         <v>0.3</v>
       </c>
-      <c r="G41" s="22">
-        <f t="shared" ref="G41:G50" si="8">E41*1.3</f>
+      <c r="M41" s="22">
+        <f>F41*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="N41" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O41" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I41" s="27">
+      <c r="P41" s="27">
         <v>23</v>
       </c>
-      <c r="J41" s="27">
+      <c r="Q41" s="27">
         <v>2</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="29">
-        <f t="shared" ref="L41:L45" si="9">I41+J41+K41</f>
+      <c r="R41" s="30"/>
+      <c r="S41" s="29">
+        <f t="shared" ref="S41:S45" si="11">P41+Q41+R41</f>
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -6996,32 +8033,55 @@
       <c r="D42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="11">
+        <v>570</v>
+      </c>
+      <c r="F42" s="22">
         <v>25.57</v>
       </c>
-      <c r="F42" s="23">
+      <c r="G42" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H42" s="68">
+        <f t="shared" si="10"/>
+        <v>600000</v>
+      </c>
+      <c r="I42" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K42" s="72"/>
+      <c r="L42" s="23">
         <v>0.3</v>
       </c>
-      <c r="G42" s="22">
-        <f t="shared" si="8"/>
+      <c r="M42" s="22">
+        <f>F42*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="N42" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O42" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I42" s="27">
+      <c r="P42" s="27">
         <v>334</v>
       </c>
-      <c r="J42" s="27">
+      <c r="Q42" s="27">
         <v>37</v>
       </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="29">
-        <f t="shared" si="9"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="29">
+        <f t="shared" si="11"/>
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -7032,34 +8092,57 @@
       <c r="D43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="11">
+        <v>570</v>
+      </c>
+      <c r="F43" s="22">
         <v>25.57</v>
       </c>
-      <c r="F43" s="23">
+      <c r="G43" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H43" s="68">
+        <f>ROUNDUP(G43+J43+K43,-4)</f>
+        <v>600000</v>
+      </c>
+      <c r="I43" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J43" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K43" s="72"/>
+      <c r="L43" s="23">
         <v>0.3</v>
       </c>
-      <c r="G43" s="22">
-        <f t="shared" si="8"/>
+      <c r="M43" s="22">
+        <f>F43*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="N43" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O43" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I43" s="27">
+      <c r="P43" s="27">
         <v>7</v>
       </c>
-      <c r="J43" s="27">
+      <c r="Q43" s="27">
         <v>1</v>
       </c>
-      <c r="K43" s="30">
+      <c r="R43" s="30">
         <v>200</v>
       </c>
-      <c r="L43" s="29">
-        <f t="shared" si="9"/>
+      <c r="S43" s="29">
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -7070,34 +8153,57 @@
       <c r="D44" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="11">
+        <v>570</v>
+      </c>
+      <c r="F44" s="22">
         <v>25.57</v>
       </c>
-      <c r="F44" s="23">
+      <c r="G44" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H44" s="68">
+        <f t="shared" ref="H44:H45" si="12">ROUNDUP(G44+J44+K44,-4)</f>
+        <v>600000</v>
+      </c>
+      <c r="I44" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J44" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K44" s="72"/>
+      <c r="L44" s="23">
         <v>0.3</v>
       </c>
-      <c r="G44" s="22">
-        <f t="shared" si="8"/>
+      <c r="M44" s="22">
+        <f>F44*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="N44" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O44" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I44" s="27">
+      <c r="P44" s="27">
         <v>10</v>
       </c>
-      <c r="J44" s="27">
+      <c r="Q44" s="27">
         <v>1</v>
       </c>
-      <c r="K44" s="30">
+      <c r="R44" s="30">
         <v>200</v>
       </c>
-      <c r="L44" s="29">
-        <f t="shared" si="9"/>
+      <c r="S44" s="29">
+        <f t="shared" si="11"/>
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -7108,32 +8214,55 @@
       <c r="D45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="11">
+        <v>570</v>
+      </c>
+      <c r="F45" s="22">
         <v>25.57</v>
       </c>
-      <c r="F45" s="23">
+      <c r="G45" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H45" s="68">
+        <f t="shared" si="12"/>
+        <v>600000</v>
+      </c>
+      <c r="I45" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J45" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K45" s="72"/>
+      <c r="L45" s="23">
         <v>0.3</v>
       </c>
-      <c r="G45" s="22">
-        <f t="shared" si="8"/>
+      <c r="M45" s="22">
+        <f>F45*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="N45" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O45" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="27">
+      <c r="P45" s="27">
         <v>6</v>
       </c>
-      <c r="J45" s="27">
+      <c r="Q45" s="27">
         <v>1</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="29">
-        <f t="shared" si="9"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="29">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
@@ -7144,32 +8273,55 @@
       <c r="D46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="11">
+        <v>570</v>
+      </c>
+      <c r="F46" s="22">
         <v>25.57</v>
       </c>
-      <c r="F46" s="23">
+      <c r="G46" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H46" s="68">
+        <f>ROUNDUP(G46+J46+K46,-4)</f>
+        <v>600000</v>
+      </c>
+      <c r="I46" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J46" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K46" s="72"/>
+      <c r="L46" s="23">
         <v>0.3</v>
       </c>
-      <c r="G46" s="22">
-        <f t="shared" si="8"/>
+      <c r="M46" s="22">
+        <f>F46*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="N46" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O46" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I46" s="28">
+      <c r="P46" s="28">
         <v>0</v>
       </c>
-      <c r="J46" s="27">
+      <c r="Q46" s="27">
         <v>6</v>
       </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="29">
-        <f t="shared" ref="L46:L49" si="10">I46+J46+K46</f>
+      <c r="R46" s="30"/>
+      <c r="S46" s="29">
+        <f t="shared" ref="S46:S49" si="13">P46+Q46+R46</f>
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>99</v>
       </c>
@@ -7180,34 +8332,57 @@
       <c r="D47" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="11">
+        <v>570</v>
+      </c>
+      <c r="F47" s="22">
         <v>25.57</v>
       </c>
-      <c r="F47" s="23">
+      <c r="G47" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H47" s="68">
+        <f t="shared" ref="H47:H49" si="14">ROUNDUP(G47+J47+K47,-4)</f>
+        <v>600000</v>
+      </c>
+      <c r="I47" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J47" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K47" s="72"/>
+      <c r="L47" s="23">
         <v>0.3</v>
       </c>
-      <c r="G47" s="22">
-        <f t="shared" si="8"/>
+      <c r="M47" s="22">
+        <f>F47*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="N47" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O47" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I47" s="27">
+      <c r="P47" s="27">
         <v>82</v>
       </c>
-      <c r="J47" s="27">
+      <c r="Q47" s="27">
         <v>0</v>
       </c>
-      <c r="K47" s="30">
+      <c r="R47" s="30">
         <v>200</v>
       </c>
-      <c r="L47" s="29">
-        <f t="shared" si="10"/>
+      <c r="S47" s="29">
+        <f t="shared" si="13"/>
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>100</v>
       </c>
@@ -7218,34 +8393,57 @@
       <c r="D48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="11">
+        <v>570</v>
+      </c>
+      <c r="F48" s="22">
         <v>25.57</v>
       </c>
-      <c r="F48" s="23">
+      <c r="G48" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H48" s="68">
+        <f t="shared" si="14"/>
+        <v>600000</v>
+      </c>
+      <c r="I48" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J48" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K48" s="72"/>
+      <c r="L48" s="23">
         <v>0.3</v>
       </c>
-      <c r="G48" s="22">
-        <f t="shared" si="8"/>
+      <c r="M48" s="22">
+        <f>F48*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="N48" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O48" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="27">
+      <c r="P48" s="27">
         <v>32</v>
       </c>
-      <c r="J48" s="27">
+      <c r="Q48" s="27">
         <v>0</v>
       </c>
-      <c r="K48" s="30">
+      <c r="R48" s="30">
         <v>200</v>
       </c>
-      <c r="L48" s="29">
-        <f t="shared" si="10"/>
+      <c r="S48" s="29">
+        <f t="shared" si="13"/>
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>101</v>
       </c>
@@ -7256,34 +8454,57 @@
       <c r="D49" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="11">
+        <v>570</v>
+      </c>
+      <c r="F49" s="22">
         <v>25.57</v>
       </c>
-      <c r="F49" s="23">
+      <c r="G49" s="66">
+        <f t="shared" si="0"/>
+        <v>536970</v>
+      </c>
+      <c r="H49" s="68">
+        <f t="shared" si="14"/>
+        <v>600000</v>
+      </c>
+      <c r="I49" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J49" s="72">
+        <f t="shared" si="2"/>
+        <v>53697</v>
+      </c>
+      <c r="K49" s="72"/>
+      <c r="L49" s="23">
         <v>0.3</v>
       </c>
-      <c r="G49" s="22">
-        <f t="shared" si="8"/>
+      <c r="M49" s="22">
+        <f>F49*1.3</f>
         <v>33.241</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="N49" s="36">
+        <f t="shared" si="3"/>
+        <v>698061</v>
+      </c>
+      <c r="O49" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I49" s="27">
+      <c r="P49" s="27">
         <v>83</v>
       </c>
-      <c r="J49" s="27">
+      <c r="Q49" s="27">
         <v>0</v>
       </c>
-      <c r="K49" s="30">
+      <c r="R49" s="30">
         <v>200</v>
       </c>
-      <c r="L49" s="29">
-        <f t="shared" si="10"/>
+      <c r="S49" s="29">
+        <f t="shared" si="13"/>
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="2" customFormat="1" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>102</v>
       </c>
@@ -7294,45 +8515,75 @@
       <c r="D50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="34">
+        <v>1780</v>
+      </c>
+      <c r="F50" s="22">
         <v>73.160865801867374</v>
       </c>
-      <c r="F50" s="23">
+      <c r="G50" s="66">
+        <f t="shared" si="0"/>
+        <v>1536378.1818392149</v>
+      </c>
+      <c r="H50" s="68">
+        <f>ROUNDUP(G50+J50+K50,-4)</f>
+        <v>1700000</v>
+      </c>
+      <c r="I50" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J50" s="72">
+        <f t="shared" si="2"/>
+        <v>153637.81818392148</v>
+      </c>
+      <c r="K50" s="72"/>
+      <c r="L50" s="23">
         <v>0.3</v>
       </c>
-      <c r="G50" s="22">
-        <f t="shared" si="8"/>
+      <c r="M50" s="22">
+        <f>F50*1.3</f>
         <v>95.109125542427591</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="N50" s="36">
+        <f t="shared" si="3"/>
+        <v>1997291.6363909794</v>
+      </c>
+      <c r="O50" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="30">
+      <c r="P50" s="28"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="30">
         <v>200</v>
       </c>
-      <c r="L50" s="29">
+      <c r="S50" s="29">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+    <row r="51" spans="1:19" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="41"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="61"/>
     </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -7343,32 +8594,47 @@
       <c r="D52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="11">
+        <v>407</v>
+      </c>
+      <c r="F52" s="22">
         <v>14.885324945155022</v>
       </c>
-      <c r="F52" s="23">
+      <c r="G52" s="67">
+        <f>F52*21000</f>
+        <v>312591.82384825544</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="23">
         <v>0.3</v>
       </c>
-      <c r="G52" s="22">
-        <f t="shared" si="1"/>
+      <c r="M52" s="22">
+        <f>F52*1.3</f>
         <v>19.35092242870153</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="N52" s="35">
+        <f>M52*21000</f>
+        <v>406369.37100273214</v>
+      </c>
+      <c r="O52" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I52" s="27">
+      <c r="P52" s="27">
         <v>1965</v>
       </c>
-      <c r="J52" s="27">
+      <c r="Q52" s="27">
         <v>16</v>
       </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="29">
-        <f t="shared" ref="L52" si="11">I52+J52+K52</f>
+      <c r="R52" s="30"/>
+      <c r="S52" s="29">
+        <f t="shared" ref="S52" si="15">P52+Q52+R52</f>
         <v>1981</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="2" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>21</v>
       </c>
@@ -7379,34 +8645,49 @@
       <c r="D53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="11">
+        <v>748</v>
+      </c>
+      <c r="F53" s="22">
         <v>29.07</v>
       </c>
-      <c r="F53" s="23">
+      <c r="G53" s="67">
+        <f t="shared" ref="G53:G57" si="16">F53*21000</f>
+        <v>610470</v>
+      </c>
+      <c r="H53" s="40"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="23">
         <v>0.3</v>
       </c>
-      <c r="G53" s="22">
-        <f t="shared" si="1"/>
+      <c r="M53" s="22">
+        <f>F53*1.3</f>
         <v>37.791000000000004</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="N53" s="35">
+        <f t="shared" ref="N53:N57" si="17">M53*21000</f>
+        <v>793611.00000000012</v>
+      </c>
+      <c r="O53" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I53" s="27">
+      <c r="P53" s="27">
         <v>364</v>
       </c>
-      <c r="J53" s="27">
+      <c r="Q53" s="27">
         <v>10</v>
       </c>
-      <c r="K53" s="30">
+      <c r="R53" s="30">
         <v>200</v>
       </c>
-      <c r="L53" s="29">
-        <f>I53+J53+K53</f>
+      <c r="S53" s="29">
+        <f>P53+Q53+R53</f>
         <v>574</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>24</v>
       </c>
@@ -7417,32 +8698,47 @@
       <c r="D54" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="11">
+        <v>1610</v>
+      </c>
+      <c r="F54" s="22">
         <v>58.832474783231739</v>
       </c>
-      <c r="F54" s="23">
+      <c r="G54" s="67">
+        <f t="shared" si="16"/>
+        <v>1235481.9704478665</v>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="23">
         <v>0.3</v>
       </c>
-      <c r="G54" s="22">
-        <f t="shared" si="1"/>
+      <c r="M54" s="22">
+        <f>F54*1.3</f>
         <v>76.482217218201257</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="N54" s="35">
+        <f t="shared" si="17"/>
+        <v>1606126.5615822263</v>
+      </c>
+      <c r="O54" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I54" s="27">
+      <c r="P54" s="27">
         <v>6</v>
       </c>
-      <c r="J54" s="27">
+      <c r="Q54" s="27">
         <v>4</v>
       </c>
-      <c r="K54" s="30"/>
-      <c r="L54" s="29">
-        <f t="shared" ref="L54" si="12">I54+J54+K54</f>
+      <c r="R54" s="30"/>
+      <c r="S54" s="29">
+        <f t="shared" ref="S54" si="18">P54+Q54+R54</f>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>27</v>
       </c>
@@ -7453,34 +8749,49 @@
       <c r="D55" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="22">
         <v>77.970749712716767</v>
       </c>
-      <c r="F55" s="23">
+      <c r="G55" s="67">
+        <f t="shared" si="16"/>
+        <v>1637385.7439670521</v>
+      </c>
+      <c r="H55" s="40"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="23">
         <v>0.3</v>
       </c>
-      <c r="G55" s="22">
-        <f t="shared" si="1"/>
+      <c r="M55" s="22">
+        <f>F55*1.3</f>
         <v>101.3619746265318</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="N55" s="35">
+        <f t="shared" si="17"/>
+        <v>2128601.4671571678</v>
+      </c>
+      <c r="O55" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I55" s="27">
+      <c r="P55" s="27">
         <v>1</v>
       </c>
-      <c r="J55" s="27">
+      <c r="Q55" s="27">
         <v>1</v>
       </c>
-      <c r="K55" s="30">
+      <c r="R55" s="30">
         <v>5</v>
       </c>
-      <c r="L55" s="29">
-        <f t="shared" ref="L55:L57" si="13">I55+J55+K55</f>
+      <c r="S55" s="29">
+        <f t="shared" ref="S55:S57" si="19">P55+Q55+R55</f>
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="2" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>30</v>
       </c>
@@ -7491,32 +8802,47 @@
       <c r="D56" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="11">
+        <v>2363</v>
+      </c>
+      <c r="F56" s="22">
         <v>86.476649681376784</v>
       </c>
-      <c r="F56" s="23">
+      <c r="G56" s="67">
+        <f t="shared" si="16"/>
+        <v>1816009.6433089124</v>
+      </c>
+      <c r="H56" s="40"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="23">
         <v>0.3</v>
       </c>
-      <c r="G56" s="22">
-        <f t="shared" si="1"/>
+      <c r="M56" s="22">
+        <f>F56*1.3</f>
         <v>112.41964458578983</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="N56" s="35">
+        <f t="shared" si="17"/>
+        <v>2360812.5363015863</v>
+      </c>
+      <c r="O56" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I56" s="27">
+      <c r="P56" s="27">
         <v>22</v>
       </c>
-      <c r="J56" s="27">
+      <c r="Q56" s="27">
         <v>2</v>
       </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="29">
-        <f t="shared" si="13"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="29">
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="2" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>64</v>
       </c>
@@ -7527,48 +8853,70 @@
       <c r="D57" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="11">
+        <v>1211</v>
+      </c>
+      <c r="F57" s="22">
         <v>55.997174793678404</v>
       </c>
-      <c r="F57" s="23">
+      <c r="G57" s="67">
+        <f t="shared" si="16"/>
+        <v>1175940.6706672464</v>
+      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="23">
         <v>0.3</v>
       </c>
-      <c r="G57" s="22">
-        <f t="shared" si="1"/>
+      <c r="M57" s="22">
+        <f>F57*1.3</f>
         <v>72.79632723178193</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="N57" s="35">
+        <f t="shared" si="17"/>
+        <v>1528722.8718674206</v>
+      </c>
+      <c r="O57" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I57" s="27">
+      <c r="P57" s="27">
         <v>11</v>
       </c>
-      <c r="J57" s="27">
+      <c r="Q57" s="27">
         <v>0</v>
       </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="29">
-        <f t="shared" si="13"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="29">
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+    <row r="58" spans="1:19" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="41"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="61"/>
     </row>
-    <row r="59" spans="1:12" s="2" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="2" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>67</v>
       </c>
@@ -7579,32 +8927,47 @@
       <c r="D59" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="11">
+        <v>1390</v>
+      </c>
+      <c r="F59" s="22">
         <v>55.997174793678404</v>
       </c>
-      <c r="F59" s="23">
+      <c r="G59" s="67">
+        <f>F59*21000</f>
+        <v>1175940.6706672464</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="23">
         <v>0.3</v>
       </c>
-      <c r="G59" s="22">
-        <f t="shared" si="1"/>
+      <c r="M59" s="22">
+        <f>F59*1.3</f>
         <v>72.79632723178193</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="N59" s="35">
+        <f>M59*21000</f>
+        <v>1528722.8718674206</v>
+      </c>
+      <c r="O59" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I59" s="27">
+      <c r="P59" s="27">
         <v>32</v>
       </c>
-      <c r="J59" s="27">
+      <c r="Q59" s="27">
         <v>20</v>
       </c>
-      <c r="K59" s="30"/>
-      <c r="L59" s="29">
-        <f t="shared" ref="L59" si="14">I59+J59+K59</f>
+      <c r="R59" s="30"/>
+      <c r="S59" s="29">
+        <f t="shared" ref="S59" si="20">P59+Q59+R59</f>
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="2" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="2" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>70</v>
       </c>
@@ -7615,32 +8978,47 @@
       <c r="D60" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="11">
+        <v>2052</v>
+      </c>
+      <c r="F60" s="22">
         <v>75.135449723163433</v>
       </c>
-      <c r="F60" s="23">
+      <c r="G60" s="67">
+        <f t="shared" ref="G60:G63" si="21">F60*21000</f>
+        <v>1577844.4441864321</v>
+      </c>
+      <c r="H60" s="40"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="23">
         <v>0.3</v>
       </c>
-      <c r="G60" s="22">
-        <f t="shared" si="1"/>
+      <c r="M60" s="22">
+        <f>F60*1.3</f>
         <v>97.676084640112464</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="N60" s="35">
+        <f t="shared" ref="N60:N62" si="22">M60*21000</f>
+        <v>2051197.7774423617</v>
+      </c>
+      <c r="O60" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I60" s="27">
+      <c r="P60" s="27">
         <v>2</v>
       </c>
-      <c r="J60" s="27">
+      <c r="Q60" s="27">
         <v>0</v>
       </c>
-      <c r="K60" s="30"/>
-      <c r="L60" s="29">
-        <f t="shared" ref="L60" si="15">I60+J60+K60</f>
+      <c r="R60" s="30"/>
+      <c r="S60" s="29">
+        <f t="shared" ref="S60" si="23">P60+Q60+R60</f>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>73</v>
       </c>
@@ -7651,32 +9029,47 @@
       <c r="D61" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="11">
+        <v>1298</v>
+      </c>
+      <c r="F61" s="22">
         <v>56.705999791066745</v>
       </c>
-      <c r="F61" s="23">
+      <c r="G61" s="67">
+        <f t="shared" si="21"/>
+        <v>1190825.9956124017</v>
+      </c>
+      <c r="H61" s="40"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="23">
         <v>0.3</v>
       </c>
-      <c r="G61" s="22">
-        <f t="shared" si="1"/>
+      <c r="M61" s="22">
+        <f>F61*1.3</f>
         <v>73.717799728386765</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="N61" s="35">
+        <f t="shared" si="22"/>
+        <v>1548073.7942961222</v>
+      </c>
+      <c r="O61" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I61" s="27">
+      <c r="P61" s="27">
         <v>3</v>
       </c>
-      <c r="J61" s="27">
+      <c r="Q61" s="27">
         <v>5</v>
       </c>
-      <c r="K61" s="30"/>
-      <c r="L61" s="29">
-        <f t="shared" ref="L61:L63" si="16">I61+J61+K61</f>
+      <c r="R61" s="30"/>
+      <c r="S61" s="29">
+        <f t="shared" ref="S61:S63" si="24">P61+Q61+R61</f>
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="2" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>76</v>
       </c>
@@ -7687,32 +9080,47 @@
       <c r="D62" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="11">
+        <v>958</v>
+      </c>
+      <c r="F62" s="22">
         <v>36.150074866805049</v>
       </c>
-      <c r="F62" s="23">
+      <c r="G62" s="67">
+        <f t="shared" si="21"/>
+        <v>759151.57220290601</v>
+      </c>
+      <c r="H62" s="40"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="23">
         <v>0.3</v>
       </c>
-      <c r="G62" s="22">
-        <f t="shared" si="1"/>
+      <c r="M62" s="22">
+        <f>F62*1.3</f>
         <v>46.995097326846569</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="N62" s="35">
+        <f t="shared" si="22"/>
+        <v>986897.043863778</v>
+      </c>
+      <c r="O62" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I62" s="27">
+      <c r="P62" s="27">
         <v>75</v>
       </c>
-      <c r="J62" s="27">
+      <c r="Q62" s="27">
         <v>17</v>
       </c>
-      <c r="K62" s="30"/>
-      <c r="L62" s="29">
-        <f t="shared" si="16"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="29">
+        <f t="shared" si="24"/>
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>163</v>
       </c>
@@ -7723,46 +9131,68 @@
       <c r="D63" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="11">
+        <v>920</v>
+      </c>
+      <c r="F63" s="22">
         <v>37.567724861581716</v>
       </c>
-      <c r="F63" s="23">
+      <c r="G63" s="67">
+        <f t="shared" si="21"/>
+        <v>788922.22209321603</v>
+      </c>
+      <c r="H63" s="40"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="23">
         <v>0.3</v>
       </c>
-      <c r="G63" s="22">
-        <f t="shared" ref="G63" si="17">E63*1.3</f>
+      <c r="M63" s="22">
+        <f>F63*1.3</f>
         <v>48.838042320056232</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="N63" s="35">
+        <f>M63*21000</f>
+        <v>1025598.8887211808</v>
+      </c>
+      <c r="O63" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="30">
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="30">
         <v>50</v>
       </c>
-      <c r="L63" s="29">
-        <f t="shared" si="16"/>
+      <c r="S63" s="29">
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+    <row r="64" spans="1:19" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="41"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="61"/>
     </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="2" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>91</v>
       </c>
@@ -7773,32 +9203,47 @@
       <c r="D65" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="11">
+        <v>1830</v>
+      </c>
+      <c r="F65" s="22">
         <v>78.913164766062607</v>
       </c>
-      <c r="F65" s="23">
+      <c r="G65" s="67">
+        <f>F65*21000</f>
+        <v>1657176.4600873147</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="23">
         <v>0.3</v>
       </c>
-      <c r="G65" s="22">
-        <f t="shared" si="1"/>
+      <c r="M65" s="22">
+        <f>F65*1.3</f>
         <v>102.5871141958814</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="N65" s="35">
+        <f>M65*21000</f>
+        <v>2154329.3981135092</v>
+      </c>
+      <c r="O65" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="27">
+      <c r="P65" s="27">
         <v>4</v>
       </c>
-      <c r="J65" s="27">
+      <c r="Q65" s="27">
         <v>0</v>
       </c>
-      <c r="K65" s="30"/>
-      <c r="L65" s="29">
-        <f t="shared" ref="L65" si="18">I65+J65+K65</f>
+      <c r="R65" s="30"/>
+      <c r="S65" s="29">
+        <f t="shared" ref="S65" si="25">P65+Q65+R65</f>
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>94</v>
       </c>
@@ -7809,32 +9254,47 @@
       <c r="D66" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="11">
+        <v>489</v>
+      </c>
+      <c r="F66" s="22">
         <v>18.751643112727752</v>
       </c>
-      <c r="F66" s="23">
+      <c r="G66" s="67">
+        <f t="shared" ref="G66:G69" si="26">F66*21000</f>
+        <v>393784.50536728278</v>
+      </c>
+      <c r="H66" s="40"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="23">
         <v>0.3</v>
       </c>
-      <c r="G66" s="22">
-        <f t="shared" si="1"/>
+      <c r="M66" s="22">
+        <f>F66*1.3</f>
         <v>24.377136046546077</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="N66" s="35">
+        <f t="shared" ref="N66:N70" si="27">M66*21000</f>
+        <v>511919.8569774676</v>
+      </c>
+      <c r="O66" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I66" s="27">
+      <c r="P66" s="27">
         <v>1</v>
       </c>
-      <c r="J66" s="27">
+      <c r="Q66" s="27">
         <v>0</v>
       </c>
-      <c r="K66" s="30"/>
-      <c r="L66" s="29">
-        <f t="shared" ref="L66:L69" si="19">I66+J66+K66</f>
+      <c r="R66" s="30"/>
+      <c r="S66" s="29">
+        <f t="shared" ref="S66:S69" si="28">P66+Q66+R66</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="2" customFormat="1" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="2" customFormat="1" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>104</v>
       </c>
@@ -7845,30 +9305,45 @@
       <c r="D67" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="11">
+        <v>718</v>
+      </c>
+      <c r="F67" s="22">
         <v>28.75251943951589</v>
       </c>
-      <c r="F67" s="23">
+      <c r="G67" s="67">
+        <f t="shared" si="26"/>
+        <v>603802.9082298337</v>
+      </c>
+      <c r="H67" s="40"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="23">
         <v>0.3</v>
       </c>
-      <c r="G67" s="22">
-        <f t="shared" si="1"/>
+      <c r="M67" s="22">
+        <f>F67*1.3</f>
         <v>37.378275271370661</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="N67" s="35">
+        <f t="shared" si="27"/>
+        <v>784943.78069878393</v>
+      </c>
+      <c r="O67" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I67" s="28"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="30">
+      <c r="P67" s="28"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="30">
         <v>5</v>
       </c>
-      <c r="L67" s="29">
-        <f t="shared" si="19"/>
+      <c r="S67" s="29">
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="2" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="2" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>107</v>
       </c>
@@ -7879,30 +9354,45 @@
       <c r="D68" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="11">
+        <v>498</v>
+      </c>
+      <c r="F68" s="22">
         <v>20.626807424000525</v>
       </c>
-      <c r="F68" s="23">
+      <c r="G68" s="67">
+        <f>F68*21000</f>
+        <v>433162.95590401103</v>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="23">
         <v>0.3</v>
       </c>
-      <c r="G68" s="22">
-        <f t="shared" si="1"/>
+      <c r="M68" s="22">
+        <f>F68*1.3</f>
         <v>26.814849651200682</v>
       </c>
-      <c r="H68" s="24" t="s">
+      <c r="N68" s="35">
+        <f t="shared" si="27"/>
+        <v>563111.84267521428</v>
+      </c>
+      <c r="O68" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I68" s="28"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="30">
+      <c r="P68" s="28"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="30">
         <v>50</v>
       </c>
-      <c r="L68" s="29">
-        <f t="shared" si="19"/>
+      <c r="S68" s="29">
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>110</v>
       </c>
@@ -7913,30 +9403,45 @@
       <c r="D69" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="11">
+        <v>459</v>
+      </c>
+      <c r="F69" s="22">
         <v>19.064170497939877</v>
       </c>
-      <c r="F69" s="23">
+      <c r="G69" s="67">
+        <f t="shared" si="26"/>
+        <v>400347.58045673743</v>
+      </c>
+      <c r="H69" s="40"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="23">
         <v>0.3</v>
       </c>
-      <c r="G69" s="22">
-        <f t="shared" si="1"/>
+      <c r="M69" s="22">
+        <f>F69*1.3</f>
         <v>24.783421647321841</v>
       </c>
-      <c r="H69" s="24" t="s">
+      <c r="N69" s="35">
+        <f t="shared" si="27"/>
+        <v>520451.85459375865</v>
+      </c>
+      <c r="O69" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="30">
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="30">
         <v>80</v>
       </c>
-      <c r="L69" s="29">
-        <f t="shared" si="19"/>
+      <c r="S69" s="29">
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="2" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="2" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>113</v>
       </c>
@@ -7947,46 +9452,61 @@
       <c r="D70" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="11">
+        <v>1210</v>
+      </c>
+      <c r="F70" s="22">
         <v>50.47317271175887</v>
       </c>
-      <c r="F70" s="23">
+      <c r="G70" s="67">
+        <f>F70*21000</f>
+        <v>1059936.6269469364</v>
+      </c>
+      <c r="H70" s="40"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="23">
         <v>0.3</v>
       </c>
-      <c r="G70" s="22">
-        <f t="shared" si="1"/>
+      <c r="M70" s="22">
+        <f>F70*1.3</f>
         <v>65.615124525286532</v>
       </c>
-      <c r="H70" s="24" t="s">
+      <c r="N70" s="35">
+        <f t="shared" si="27"/>
+        <v>1377917.6150310172</v>
+      </c>
+      <c r="O70" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I70" s="27">
+      <c r="P70" s="27">
         <v>6</v>
       </c>
-      <c r="J70" s="27">
+      <c r="Q70" s="27">
         <v>3</v>
       </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="29">
-        <f t="shared" ref="L70" si="20">I70+J70+K70</f>
+      <c r="R70" s="30"/>
+      <c r="S70" s="29">
+        <f t="shared" ref="S70" si="29">P70+Q70+R70</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A9:M9"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A58:O58"/>
+    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="P64:S64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Documents/Microsoft/MSHW Price April 2011 - Picture (new).xlsx
+++ b/trunk/Documents/Microsoft/MSHW Price April 2011 - Picture (new).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="12510" windowHeight="5100"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="12510" windowHeight="5040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -732,55 +732,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -812,8 +765,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +859,18 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1087,7 +1080,7 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1214,25 +1207,40 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="33" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1289,43 +1297,60 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5795,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5804,11 +5829,14 @@
     <col min="1" max="1" width="12.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="57.75" style="14" customWidth="1"/>
-    <col min="4" max="5" width="28.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="73" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="45" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="41" customWidth="1"/>
-    <col min="9" max="11" width="14.75" style="74" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="79" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="40" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="47" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="84" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="47" customWidth="1"/>
     <col min="12" max="12" width="14.625" style="3" customWidth="1"/>
     <col min="13" max="14" width="23.375" style="3" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="3" customWidth="1"/>
@@ -6135,74 +6163,74 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="33"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
       <c r="T9" s="10"/>
     </row>
     <row r="11" spans="1:20" s="25" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6218,25 +6246,25 @@
       <c r="D11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="69" t="s">
         <v>164</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="76" t="s">
         <v>167</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="41" t="s">
         <v>171</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -6265,27 +6293,27 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -6298,35 +6326,35 @@
       <c r="D13" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="71">
         <v>390</v>
       </c>
       <c r="F13" s="32">
         <v>15.6</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="77">
         <f t="shared" ref="G13:G50" si="0">F13*21000</f>
         <v>327600</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="42">
         <f>ROUNDUP(G13+J13+K13,-4)</f>
         <v>390000</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="45">
         <v>0.17</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="83">
         <f>G13*I13</f>
         <v>55692.000000000007</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="46">
         <v>0</v>
       </c>
       <c r="L13" s="20">
         <v>0.3</v>
       </c>
       <c r="M13" s="19">
-        <f>F13*1.3</f>
+        <f t="shared" ref="M13:M50" si="1">F13*1.3</f>
         <v>20.28</v>
       </c>
       <c r="N13" s="36">
@@ -6356,39 +6384,39 @@
       <c r="D14" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="71">
         <v>390</v>
       </c>
       <c r="F14" s="32">
         <v>15.6</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="77">
         <f t="shared" si="0"/>
         <v>327600</v>
       </c>
-      <c r="H14" s="68">
-        <f t="shared" ref="H14:H38" si="1">ROUNDUP(G14+J14+K14,-4)</f>
+      <c r="H14" s="42">
+        <f t="shared" ref="H14:H38" si="2">ROUNDUP(G14+J14+K14,-4)</f>
         <v>390000</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="45">
         <v>0.17</v>
       </c>
-      <c r="J14" s="72">
-        <f t="shared" ref="J14:J50" si="2">G14*I14</f>
+      <c r="J14" s="83">
+        <f t="shared" ref="J14:J70" si="3">G14*I14</f>
         <v>55692.000000000007</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="46">
         <v>0</v>
       </c>
       <c r="L14" s="20">
         <v>0.3</v>
       </c>
       <c r="M14" s="19">
-        <f>F14*1.3</f>
+        <f t="shared" si="1"/>
         <v>20.28</v>
       </c>
       <c r="N14" s="36">
-        <f t="shared" ref="N14:N50" si="3">M14*21000</f>
+        <f t="shared" ref="N14:N50" si="4">M14*21000</f>
         <v>425880</v>
       </c>
       <c r="O14" s="21" t="s">
@@ -6414,39 +6442,39 @@
       <c r="D15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="72">
         <v>305</v>
       </c>
       <c r="F15" s="19">
         <v>11.199434958735683</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="77">
         <f t="shared" si="0"/>
         <v>235188.13413344935</v>
       </c>
-      <c r="H15" s="68">
-        <f t="shared" si="1"/>
-        <v>260000</v>
-      </c>
-      <c r="I15" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="72">
+      <c r="H15" s="42">
         <f t="shared" si="2"/>
-        <v>23518.813413344935</v>
-      </c>
-      <c r="K15" s="72">
+        <v>300000</v>
+      </c>
+      <c r="I15" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="83">
+        <f t="shared" si="3"/>
+        <v>58797.033533362337</v>
+      </c>
+      <c r="K15" s="46">
         <v>0</v>
       </c>
       <c r="L15" s="20">
         <v>0.3</v>
       </c>
       <c r="M15" s="19">
-        <f>F15*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.559265446356388</v>
       </c>
       <c r="N15" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>305744.57437348412</v>
       </c>
       <c r="O15" s="21" t="s">
@@ -6460,7 +6488,7 @@
       </c>
       <c r="R15" s="30"/>
       <c r="S15" s="29">
-        <f t="shared" ref="S15" si="4">P15+Q15+R15</f>
+        <f t="shared" ref="S15" si="5">P15+Q15+R15</f>
         <v>141</v>
       </c>
     </row>
@@ -6475,39 +6503,39 @@
       <c r="D16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="72">
         <v>305</v>
       </c>
       <c r="F16" s="19">
         <v>11.199434958735683</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="77">
         <f t="shared" si="0"/>
         <v>235188.13413344935</v>
       </c>
-      <c r="H16" s="68">
-        <f t="shared" si="1"/>
-        <v>260000</v>
-      </c>
-      <c r="I16" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="72">
+      <c r="H16" s="42">
         <f t="shared" si="2"/>
-        <v>23518.813413344935</v>
-      </c>
-      <c r="K16" s="72">
+        <v>300000</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="83">
+        <f t="shared" si="3"/>
+        <v>58797.033533362337</v>
+      </c>
+      <c r="K16" s="46">
         <v>0</v>
       </c>
       <c r="L16" s="20">
         <v>0.3</v>
       </c>
       <c r="M16" s="19">
-        <f>F16*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.559265446356388</v>
       </c>
       <c r="N16" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>305744.57437348412</v>
       </c>
       <c r="O16" s="21" t="s">
@@ -6521,7 +6549,7 @@
       </c>
       <c r="R16" s="30"/>
       <c r="S16" s="29">
-        <f t="shared" ref="S16:S22" si="5">P16+Q16+R16</f>
+        <f t="shared" ref="S16:S22" si="6">P16+Q16+R16</f>
         <v>147</v>
       </c>
     </row>
@@ -6536,35 +6564,35 @@
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="72">
         <v>281</v>
       </c>
       <c r="F17" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="77">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
-      <c r="H17" s="68">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="I17" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="72">
+      <c r="H17" s="42">
         <f t="shared" si="2"/>
-        <v>23816.519912248041</v>
-      </c>
-      <c r="K17" s="72">
+        <v>280000</v>
+      </c>
+      <c r="I17" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="83">
+        <f t="shared" si="3"/>
+        <v>35724.779868372054</v>
+      </c>
+      <c r="K17" s="46">
         <v>0</v>
       </c>
       <c r="L17" s="20">
         <v>0.3</v>
       </c>
       <c r="M17" s="19">
-        <f>F17*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.743559945677358</v>
       </c>
       <c r="N17" s="36">
@@ -6584,7 +6612,7 @@
         <v>200</v>
       </c>
       <c r="S17" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>322</v>
       </c>
     </row>
@@ -6599,39 +6627,39 @@
       <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="72">
         <v>281</v>
       </c>
       <c r="F18" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="77">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
-      <c r="H18" s="68">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="I18" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="72">
+      <c r="H18" s="42">
         <f t="shared" si="2"/>
-        <v>23816.519912248041</v>
-      </c>
-      <c r="K18" s="72">
+        <v>280000</v>
+      </c>
+      <c r="I18" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="J18" s="83">
+        <f t="shared" si="3"/>
+        <v>35724.779868372054</v>
+      </c>
+      <c r="K18" s="46">
         <v>0</v>
       </c>
       <c r="L18" s="20">
         <v>0.3</v>
       </c>
       <c r="M18" s="19">
-        <f>F18*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.743559945677358</v>
       </c>
       <c r="N18" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>309614.7588592245</v>
       </c>
       <c r="O18" s="21" t="s">
@@ -6647,7 +6675,7 @@
         <v>200</v>
       </c>
       <c r="S18" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>294</v>
       </c>
     </row>
@@ -6662,37 +6690,39 @@
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="72">
         <v>281</v>
       </c>
       <c r="F19" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="77">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
-      <c r="H19" s="68">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="I19" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="72">
+      <c r="H19" s="42">
         <f t="shared" si="2"/>
-        <v>23816.519912248041</v>
-      </c>
-      <c r="K19" s="72"/>
+        <v>280000</v>
+      </c>
+      <c r="I19" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="83">
+        <f t="shared" si="3"/>
+        <v>35724.779868372054</v>
+      </c>
+      <c r="K19" s="46">
+        <v>0</v>
+      </c>
       <c r="L19" s="20">
         <v>0.3</v>
       </c>
       <c r="M19" s="19">
-        <f>F19*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.743559945677358</v>
       </c>
       <c r="N19" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>309614.7588592245</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -6708,7 +6738,7 @@
         <v>100</v>
       </c>
       <c r="S19" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
     </row>
@@ -6723,37 +6753,39 @@
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="72">
         <v>281</v>
       </c>
       <c r="F20" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="77">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
-      <c r="H20" s="68">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="I20" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="72">
+      <c r="H20" s="42">
         <f t="shared" si="2"/>
-        <v>23816.519912248041</v>
-      </c>
-      <c r="K20" s="72"/>
+        <v>280000</v>
+      </c>
+      <c r="I20" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="J20" s="83">
+        <f t="shared" si="3"/>
+        <v>35724.779868372054</v>
+      </c>
+      <c r="K20" s="46">
+        <v>0</v>
+      </c>
       <c r="L20" s="20">
         <v>0.3</v>
       </c>
       <c r="M20" s="19">
-        <f>F20*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.743559945677358</v>
       </c>
       <c r="N20" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>309614.7588592245</v>
       </c>
       <c r="O20" s="21" t="s">
@@ -6767,7 +6799,7 @@
       </c>
       <c r="R20" s="30"/>
       <c r="S20" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
     </row>
@@ -6782,37 +6814,39 @@
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="72">
         <v>281</v>
       </c>
       <c r="F21" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="77">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
-      <c r="H21" s="68">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="I21" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="72">
+      <c r="H21" s="42">
         <f t="shared" si="2"/>
-        <v>23816.519912248041</v>
-      </c>
-      <c r="K21" s="72"/>
+        <v>280000</v>
+      </c>
+      <c r="I21" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="J21" s="83">
+        <f t="shared" si="3"/>
+        <v>35724.779868372054</v>
+      </c>
+      <c r="K21" s="46">
+        <v>0</v>
+      </c>
       <c r="L21" s="20">
         <v>0.3</v>
       </c>
       <c r="M21" s="19">
-        <f>F21*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.743559945677358</v>
       </c>
       <c r="N21" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>309614.7588592245</v>
       </c>
       <c r="O21" s="21" t="s">
@@ -6828,7 +6862,7 @@
         <v>100</v>
       </c>
       <c r="S21" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
     </row>
@@ -6843,37 +6877,39 @@
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="72">
         <v>281</v>
       </c>
       <c r="F22" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="77">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
-      <c r="H22" s="68">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="I22" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J22" s="72">
+      <c r="H22" s="42">
         <f t="shared" si="2"/>
-        <v>23816.519912248041</v>
-      </c>
-      <c r="K22" s="72"/>
+        <v>280000</v>
+      </c>
+      <c r="I22" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="J22" s="83">
+        <f t="shared" si="3"/>
+        <v>35724.779868372054</v>
+      </c>
+      <c r="K22" s="46">
+        <v>0</v>
+      </c>
       <c r="L22" s="20">
         <v>0.3</v>
       </c>
       <c r="M22" s="19">
-        <f>F22*1.3</f>
+        <f t="shared" si="1"/>
         <v>14.743559945677358</v>
       </c>
       <c r="N22" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>309614.7588592245</v>
       </c>
       <c r="O22" s="21" t="s">
@@ -6887,7 +6923,7 @@
       </c>
       <c r="R22" s="30"/>
       <c r="S22" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
@@ -6902,37 +6938,39 @@
       <c r="D23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="72">
         <v>600</v>
       </c>
       <c r="F23" s="22">
         <v>23.391224913815034</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="77">
         <f t="shared" si="0"/>
         <v>491215.72319011571</v>
       </c>
-      <c r="H23" s="68">
-        <f t="shared" si="1"/>
-        <v>550000</v>
-      </c>
-      <c r="I23" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="72">
-        <f t="shared" si="2"/>
-        <v>49121.572319011575</v>
-      </c>
-      <c r="K23" s="72"/>
+      <c r="H23" s="42">
+        <f>ROUNDUP(G23+J23+K23,-4)</f>
+        <v>600000</v>
+      </c>
+      <c r="I23" s="45">
+        <v>0.22</v>
+      </c>
+      <c r="J23" s="83">
+        <f t="shared" si="3"/>
+        <v>108067.45910182546</v>
+      </c>
+      <c r="K23" s="46">
+        <v>0</v>
+      </c>
       <c r="L23" s="23">
         <v>0.3</v>
       </c>
       <c r="M23" s="22">
-        <f>F23*1.3</f>
+        <f t="shared" si="1"/>
         <v>30.408592387959544</v>
       </c>
       <c r="N23" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>638580.44014715042</v>
       </c>
       <c r="O23" s="21" t="s">
@@ -6946,7 +6984,7 @@
       </c>
       <c r="R23" s="30"/>
       <c r="S23" s="29">
-        <f t="shared" ref="S23:S24" si="6">P23+Q23+R23</f>
+        <f t="shared" ref="S23:S24" si="7">P23+Q23+R23</f>
         <v>102</v>
       </c>
     </row>
@@ -6961,37 +6999,39 @@
       <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="72" t="s">
         <v>165</v>
       </c>
       <c r="F24" s="22">
         <v>77.970749712716767</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="77">
         <f t="shared" si="0"/>
         <v>1637385.7439670521</v>
       </c>
-      <c r="H24" s="68">
-        <f t="shared" si="1"/>
-        <v>1810000</v>
-      </c>
-      <c r="I24" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J24" s="72">
-        <f t="shared" si="2"/>
-        <v>163738.57439670523</v>
-      </c>
-      <c r="K24" s="72"/>
+      <c r="H24" s="42">
+        <f>ROUNDUP(G24+J24+K24,-4)</f>
+        <v>1860000</v>
+      </c>
+      <c r="I24" s="45">
+        <v>0.13</v>
+      </c>
+      <c r="J24" s="83">
+        <f t="shared" si="3"/>
+        <v>212860.14671571678</v>
+      </c>
+      <c r="K24" s="46">
+        <v>0</v>
+      </c>
       <c r="L24" s="23">
         <v>0.3</v>
       </c>
       <c r="M24" s="22">
-        <f>F24*1.3</f>
+        <f t="shared" si="1"/>
         <v>101.3619746265318</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2128601.4671571678</v>
       </c>
       <c r="O24" s="21" t="s">
@@ -7005,7 +7045,7 @@
       </c>
       <c r="R24" s="30"/>
       <c r="S24" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -7020,37 +7060,39 @@
       <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="72" t="s">
         <v>166</v>
       </c>
       <c r="F25" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="77">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
-      <c r="H25" s="68">
-        <f t="shared" si="1"/>
-        <v>1090000</v>
-      </c>
-      <c r="I25" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J25" s="72">
+      <c r="H25" s="42">
         <f t="shared" si="2"/>
-        <v>98243.14463802315</v>
-      </c>
-      <c r="K25" s="72"/>
+        <v>1130000</v>
+      </c>
+      <c r="I25" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="83">
+        <f t="shared" si="3"/>
+        <v>147364.71695703472</v>
+      </c>
+      <c r="K25" s="46">
+        <v>0</v>
+      </c>
       <c r="L25" s="23">
         <v>0.3</v>
       </c>
       <c r="M25" s="22">
-        <f>F25*1.3</f>
+        <f t="shared" si="1"/>
         <v>60.817184775919088</v>
       </c>
       <c r="N25" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1277160.8802943008</v>
       </c>
       <c r="O25" s="21" t="s">
@@ -7064,7 +7106,7 @@
       </c>
       <c r="R25" s="30"/>
       <c r="S25" s="29">
-        <f t="shared" ref="S25:S26" si="7">P25+Q25+R25</f>
+        <f t="shared" ref="S25:S26" si="8">P25+Q25+R25</f>
         <v>6</v>
       </c>
     </row>
@@ -7079,37 +7121,39 @@
       <c r="D26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="34">
-        <v>935</v>
+      <c r="E26" s="70">
+        <v>848</v>
       </c>
       <c r="F26" s="22">
         <v>34.307129873595379</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="77">
         <f t="shared" si="0"/>
         <v>720449.72734550294</v>
       </c>
-      <c r="H26" s="68">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="I26" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="72">
+      <c r="H26" s="42">
         <f t="shared" si="2"/>
-        <v>72044.972734550291</v>
-      </c>
-      <c r="K26" s="72"/>
+        <v>850000</v>
+      </c>
+      <c r="I26" s="45">
+        <v>0.17</v>
+      </c>
+      <c r="J26" s="83">
+        <f t="shared" si="3"/>
+        <v>122476.45364873551</v>
+      </c>
+      <c r="K26" s="46">
+        <v>0</v>
+      </c>
       <c r="L26" s="23">
         <v>0.3</v>
       </c>
       <c r="M26" s="22">
-        <f>F26*1.3</f>
+        <f t="shared" si="1"/>
         <v>44.599268835673996</v>
       </c>
       <c r="N26" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>936584.64554915391</v>
       </c>
       <c r="O26" s="21" t="s">
@@ -7123,7 +7167,7 @@
       </c>
       <c r="R26" s="30"/>
       <c r="S26" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -7138,37 +7182,39 @@
       <c r="D27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="72">
         <v>447</v>
       </c>
       <c r="F27" s="22">
         <v>19.138274929485029</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="77">
         <f t="shared" si="0"/>
         <v>401903.7735191856</v>
       </c>
-      <c r="H27" s="68">
-        <f t="shared" si="1"/>
+      <c r="H27" s="42">
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="45">
         <v>0.1</v>
       </c>
-      <c r="J27" s="72">
-        <f t="shared" si="2"/>
+      <c r="J27" s="83">
+        <f t="shared" si="3"/>
         <v>40190.377351918563</v>
       </c>
-      <c r="K27" s="72"/>
+      <c r="K27" s="46">
+        <v>0</v>
+      </c>
       <c r="L27" s="23">
         <v>0.3</v>
       </c>
       <c r="M27" s="22">
-        <f>F27*1.3</f>
+        <f t="shared" si="1"/>
         <v>24.879757408330537</v>
       </c>
       <c r="N27" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>522474.90557494125</v>
       </c>
       <c r="O27" s="21" t="s">
@@ -7197,37 +7243,39 @@
       <c r="D28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="72">
         <v>606</v>
       </c>
       <c r="F28" s="22">
         <v>26.226524903368372</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="77">
         <f t="shared" si="0"/>
         <v>550757.02297073579</v>
       </c>
-      <c r="H28" s="68">
-        <f t="shared" si="1"/>
+      <c r="H28" s="42">
+        <f t="shared" si="2"/>
         <v>610000</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="45">
         <v>0.1</v>
       </c>
-      <c r="J28" s="72">
-        <f t="shared" si="2"/>
+      <c r="J28" s="83">
+        <f t="shared" si="3"/>
         <v>55075.702297073585</v>
       </c>
-      <c r="K28" s="72"/>
+      <c r="K28" s="46">
+        <v>0</v>
+      </c>
       <c r="L28" s="23">
         <v>0.3</v>
       </c>
       <c r="M28" s="22">
-        <f>F28*1.3</f>
+        <f t="shared" si="1"/>
         <v>34.094482374378885</v>
       </c>
       <c r="N28" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>715984.12986195658</v>
       </c>
       <c r="O28" s="21" t="s">
@@ -7241,7 +7289,7 @@
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="29">
-        <f t="shared" ref="S28:S35" si="8">P28+Q28+R28</f>
+        <f t="shared" ref="S28:S35" si="9">P28+Q28+R28</f>
         <v>8</v>
       </c>
     </row>
@@ -7256,37 +7304,39 @@
       <c r="D29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="71">
         <v>989</v>
       </c>
       <c r="F29" s="22">
         <v>42.245969844344735</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="77">
         <f t="shared" si="0"/>
         <v>887165.36673123948</v>
       </c>
-      <c r="H29" s="68">
-        <f t="shared" si="1"/>
-        <v>980000</v>
-      </c>
-      <c r="I29" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="72">
+      <c r="H29" s="42">
         <f t="shared" si="2"/>
-        <v>88716.536673123948</v>
-      </c>
-      <c r="K29" s="72"/>
+        <v>990000</v>
+      </c>
+      <c r="I29" s="45">
+        <v>0.11</v>
+      </c>
+      <c r="J29" s="83">
+        <f t="shared" si="3"/>
+        <v>97588.19034043634</v>
+      </c>
+      <c r="K29" s="46">
+        <v>0</v>
+      </c>
       <c r="L29" s="23">
         <v>0.3</v>
       </c>
       <c r="M29" s="22">
-        <f>F29*1.3</f>
+        <f t="shared" si="1"/>
         <v>54.919760797648159</v>
       </c>
       <c r="N29" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1153314.9767506113</v>
       </c>
       <c r="O29" s="21" t="s">
@@ -7300,7 +7350,7 @@
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -7315,37 +7365,39 @@
       <c r="D30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="72">
         <v>1100</v>
       </c>
       <c r="F30" s="19">
         <v>46.782449827630067</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="77">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
-      <c r="H30" s="68">
-        <f t="shared" si="1"/>
-        <v>1090000</v>
-      </c>
-      <c r="I30" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="72">
+      <c r="H30" s="42">
         <f t="shared" si="2"/>
-        <v>98243.14463802315</v>
-      </c>
-      <c r="K30" s="72"/>
+        <v>1110000</v>
+      </c>
+      <c r="I30" s="45">
+        <v>0.12</v>
+      </c>
+      <c r="J30" s="83">
+        <f t="shared" si="3"/>
+        <v>117891.77356562777</v>
+      </c>
+      <c r="K30" s="46">
+        <v>0</v>
+      </c>
       <c r="L30" s="20">
         <v>0.3</v>
       </c>
       <c r="M30" s="19">
-        <f>F30*1.3</f>
+        <f t="shared" si="1"/>
         <v>60.817184775919088</v>
       </c>
       <c r="N30" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1277160.8802943008</v>
       </c>
       <c r="O30" s="21" t="s">
@@ -7359,7 +7411,7 @@
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>142</v>
       </c>
     </row>
@@ -7374,37 +7426,39 @@
       <c r="D31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="72">
         <v>1100</v>
       </c>
       <c r="F31" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="77">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
-      <c r="H31" s="68">
-        <f t="shared" si="1"/>
-        <v>1090000</v>
-      </c>
-      <c r="I31" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="72">
+      <c r="H31" s="42">
         <f t="shared" si="2"/>
-        <v>98243.14463802315</v>
-      </c>
-      <c r="K31" s="72"/>
+        <v>1110000</v>
+      </c>
+      <c r="I31" s="45">
+        <v>0.12</v>
+      </c>
+      <c r="J31" s="83">
+        <f t="shared" si="3"/>
+        <v>117891.77356562777</v>
+      </c>
+      <c r="K31" s="46">
+        <v>0</v>
+      </c>
       <c r="L31" s="23">
         <v>0.3</v>
       </c>
       <c r="M31" s="22">
-        <f>F31*1.3</f>
+        <f t="shared" si="1"/>
         <v>60.817184775919088</v>
       </c>
       <c r="N31" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1277160.8802943008</v>
       </c>
       <c r="O31" s="21" t="s">
@@ -7420,7 +7474,7 @@
         <v>50</v>
       </c>
       <c r="S31" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
     </row>
@@ -7435,37 +7489,39 @@
       <c r="D32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="72">
         <v>1100</v>
       </c>
       <c r="F32" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="77">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
-      <c r="H32" s="68">
-        <f t="shared" si="1"/>
-        <v>1090000</v>
-      </c>
-      <c r="I32" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="72">
+      <c r="H32" s="42">
         <f t="shared" si="2"/>
-        <v>98243.14463802315</v>
-      </c>
-      <c r="K32" s="72"/>
+        <v>1110000</v>
+      </c>
+      <c r="I32" s="45">
+        <v>0.12</v>
+      </c>
+      <c r="J32" s="83">
+        <f t="shared" si="3"/>
+        <v>117891.77356562777</v>
+      </c>
+      <c r="K32" s="46">
+        <v>0</v>
+      </c>
       <c r="L32" s="23">
         <v>0.3</v>
       </c>
       <c r="M32" s="22">
-        <f>F32*1.3</f>
+        <f t="shared" si="1"/>
         <v>60.817184775919088</v>
       </c>
       <c r="N32" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1277160.8802943008</v>
       </c>
       <c r="O32" s="21" t="s">
@@ -7481,7 +7537,7 @@
         <v>50</v>
       </c>
       <c r="S32" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
     </row>
@@ -7496,37 +7552,39 @@
       <c r="D33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="72">
         <v>1100</v>
       </c>
       <c r="F33" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="77">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
-      <c r="H33" s="68">
-        <f t="shared" si="1"/>
-        <v>1090000</v>
-      </c>
-      <c r="I33" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J33" s="72">
+      <c r="H33" s="42">
         <f t="shared" si="2"/>
-        <v>98243.14463802315</v>
-      </c>
-      <c r="K33" s="72"/>
+        <v>1110000</v>
+      </c>
+      <c r="I33" s="45">
+        <v>0.12</v>
+      </c>
+      <c r="J33" s="83">
+        <f t="shared" si="3"/>
+        <v>117891.77356562777</v>
+      </c>
+      <c r="K33" s="46">
+        <v>0</v>
+      </c>
       <c r="L33" s="23">
         <v>0.3</v>
       </c>
       <c r="M33" s="22">
-        <f>F33*1.3</f>
+        <f t="shared" si="1"/>
         <v>60.817184775919088</v>
       </c>
       <c r="N33" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1277160.8802943008</v>
       </c>
       <c r="O33" s="21" t="s">
@@ -7542,7 +7600,7 @@
         <v>50</v>
       </c>
       <c r="S33" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
     </row>
@@ -7557,37 +7615,39 @@
       <c r="D34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="72">
         <v>1100</v>
       </c>
       <c r="F34" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G34" s="66">
+      <c r="G34" s="77">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="42">
         <f>ROUNDUP(G34+J34+K34,-4)</f>
-        <v>1090000</v>
-      </c>
-      <c r="I34" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J34" s="72">
-        <f t="shared" si="2"/>
-        <v>98243.14463802315</v>
-      </c>
-      <c r="K34" s="72"/>
+        <v>1110000</v>
+      </c>
+      <c r="I34" s="45">
+        <v>0.12</v>
+      </c>
+      <c r="J34" s="83">
+        <f t="shared" si="3"/>
+        <v>117891.77356562777</v>
+      </c>
+      <c r="K34" s="46">
+        <v>0</v>
+      </c>
       <c r="L34" s="23">
         <v>0.3</v>
       </c>
       <c r="M34" s="22">
-        <f>F34*1.3</f>
+        <f t="shared" si="1"/>
         <v>60.817184775919088</v>
       </c>
       <c r="N34" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1277160.8802943008</v>
       </c>
       <c r="O34" s="21" t="s">
@@ -7603,7 +7663,7 @@
         <v>50</v>
       </c>
       <c r="S34" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
     </row>
@@ -7618,37 +7678,39 @@
       <c r="D35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="72">
         <v>1100</v>
       </c>
       <c r="F35" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="77">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
-      <c r="H35" s="68">
-        <f t="shared" si="1"/>
-        <v>1090000</v>
-      </c>
-      <c r="I35" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J35" s="72">
+      <c r="H35" s="42">
         <f t="shared" si="2"/>
-        <v>98243.14463802315</v>
-      </c>
-      <c r="K35" s="72"/>
+        <v>1110000</v>
+      </c>
+      <c r="I35" s="45">
+        <v>0.12</v>
+      </c>
+      <c r="J35" s="83">
+        <f t="shared" si="3"/>
+        <v>117891.77356562777</v>
+      </c>
+      <c r="K35" s="46">
+        <v>0</v>
+      </c>
       <c r="L35" s="23">
         <v>0.3</v>
       </c>
       <c r="M35" s="22">
-        <f>F35*1.3</f>
+        <f t="shared" si="1"/>
         <v>60.817184775919088</v>
       </c>
       <c r="N35" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1277160.8802943008</v>
       </c>
       <c r="O35" s="21" t="s">
@@ -7664,7 +7726,7 @@
         <v>50</v>
       </c>
       <c r="S35" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
     </row>
@@ -7679,37 +7741,39 @@
       <c r="D36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="72">
         <v>850</v>
       </c>
       <c r="F36" s="22">
         <v>36.99</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="77">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
-      <c r="H36" s="68">
-        <f t="shared" si="1"/>
+      <c r="H36" s="42">
+        <f t="shared" si="2"/>
         <v>860000</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="45">
         <v>0.1</v>
       </c>
-      <c r="J36" s="72">
-        <f t="shared" si="2"/>
+      <c r="J36" s="83">
+        <f t="shared" si="3"/>
         <v>77679</v>
       </c>
-      <c r="K36" s="72"/>
+      <c r="K36" s="46">
+        <v>0</v>
+      </c>
       <c r="L36" s="23">
         <v>0.3</v>
       </c>
       <c r="M36" s="22">
-        <f>F36*1.3</f>
+        <f t="shared" si="1"/>
         <v>48.087000000000003</v>
       </c>
       <c r="N36" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1009827.0000000001</v>
       </c>
       <c r="O36" s="21" t="s">
@@ -7723,7 +7787,7 @@
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="29">
-        <f t="shared" ref="S36:S40" si="9">P36+Q36+R36</f>
+        <f t="shared" ref="S36:S40" si="10">P36+Q36+R36</f>
         <v>159</v>
       </c>
     </row>
@@ -7738,37 +7802,39 @@
       <c r="D37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="72">
         <v>850</v>
       </c>
       <c r="F37" s="22">
         <v>36.99</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="77">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="42">
         <f>ROUNDUP(G37+J37+K37,-4)</f>
         <v>860000</v>
       </c>
-      <c r="I37" s="71">
+      <c r="I37" s="45">
         <v>0.1</v>
       </c>
-      <c r="J37" s="72">
-        <f t="shared" si="2"/>
+      <c r="J37" s="83">
+        <f t="shared" si="3"/>
         <v>77679</v>
       </c>
-      <c r="K37" s="72"/>
+      <c r="K37" s="46">
+        <v>0</v>
+      </c>
       <c r="L37" s="23">
         <v>0.3</v>
       </c>
       <c r="M37" s="22">
-        <f>F37*1.3</f>
+        <f t="shared" si="1"/>
         <v>48.087000000000003</v>
       </c>
       <c r="N37" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1009827.0000000001</v>
       </c>
       <c r="O37" s="21" t="s">
@@ -7782,7 +7848,7 @@
       </c>
       <c r="R37" s="30"/>
       <c r="S37" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
     </row>
@@ -7797,37 +7863,39 @@
       <c r="D38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="72">
         <v>850</v>
       </c>
       <c r="F38" s="22">
         <v>36.99</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="77">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
-      <c r="H38" s="68">
-        <f t="shared" si="1"/>
+      <c r="H38" s="42">
+        <f t="shared" si="2"/>
         <v>860000</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I38" s="45">
         <v>0.1</v>
       </c>
-      <c r="J38" s="72">
-        <f t="shared" si="2"/>
+      <c r="J38" s="83">
+        <f t="shared" si="3"/>
         <v>77679</v>
       </c>
-      <c r="K38" s="72"/>
+      <c r="K38" s="46">
+        <v>0</v>
+      </c>
       <c r="L38" s="23">
         <v>0.3</v>
       </c>
       <c r="M38" s="22">
-        <f>F38*1.3</f>
+        <f t="shared" si="1"/>
         <v>48.087000000000003</v>
       </c>
       <c r="N38" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1009827.0000000001</v>
       </c>
       <c r="O38" s="21" t="s">
@@ -7841,7 +7909,7 @@
       </c>
       <c r="R38" s="30"/>
       <c r="S38" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
     </row>
@@ -7856,37 +7924,39 @@
       <c r="D39" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="72">
         <v>850</v>
       </c>
       <c r="F39" s="22">
         <v>36.99</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="77">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="42">
         <f>ROUNDUP(G39+J39+K39,-4)</f>
         <v>860000</v>
       </c>
-      <c r="I39" s="71">
+      <c r="I39" s="45">
         <v>0.1</v>
       </c>
-      <c r="J39" s="72">
-        <f t="shared" si="2"/>
+      <c r="J39" s="83">
+        <f t="shared" si="3"/>
         <v>77679</v>
       </c>
-      <c r="K39" s="72"/>
+      <c r="K39" s="46">
+        <v>0</v>
+      </c>
       <c r="L39" s="23">
         <v>0.3</v>
       </c>
       <c r="M39" s="22">
-        <f>F39*1.3</f>
+        <f t="shared" si="1"/>
         <v>48.087000000000003</v>
       </c>
       <c r="N39" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1009827.0000000001</v>
       </c>
       <c r="O39" s="21" t="s">
@@ -7900,7 +7970,7 @@
       </c>
       <c r="R39" s="30"/>
       <c r="S39" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
     </row>
@@ -7915,37 +7985,39 @@
       <c r="D40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="72">
         <v>850</v>
       </c>
       <c r="F40" s="22">
         <v>36.99</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="77">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="42">
         <f>ROUNDUP(G40+J40+K40,-4)</f>
         <v>860000</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="45">
         <v>0.1</v>
       </c>
-      <c r="J40" s="72">
-        <f t="shared" si="2"/>
+      <c r="J40" s="83">
+        <f t="shared" si="3"/>
         <v>77679</v>
       </c>
-      <c r="K40" s="72"/>
+      <c r="K40" s="46">
+        <v>0</v>
+      </c>
       <c r="L40" s="23">
         <v>0.3</v>
       </c>
       <c r="M40" s="22">
-        <f>F40*1.3</f>
+        <f t="shared" si="1"/>
         <v>48.087000000000003</v>
       </c>
       <c r="N40" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1009827.0000000001</v>
       </c>
       <c r="O40" s="21" t="s">
@@ -7959,7 +8031,7 @@
       </c>
       <c r="R40" s="30"/>
       <c r="S40" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
     </row>
@@ -7974,37 +8046,39 @@
       <c r="D41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="71">
         <v>570</v>
       </c>
       <c r="F41" s="22">
         <v>25.57</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H41" s="68">
-        <f t="shared" ref="H41:H42" si="10">ROUNDUP(G41+J41+K41,-4)</f>
-        <v>600000</v>
-      </c>
-      <c r="I41" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J41" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K41" s="72"/>
+      <c r="H41" s="42">
+        <f t="shared" ref="H41:H42" si="11">ROUNDUP(G41+J41+K41,-4)</f>
+        <v>590000</v>
+      </c>
+      <c r="I41" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J41" s="83">
+        <f>G41*I41</f>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K41" s="46">
+        <v>0</v>
+      </c>
       <c r="L41" s="23">
         <v>0.3</v>
       </c>
       <c r="M41" s="22">
-        <f>F41*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N41" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O41" s="21" t="s">
@@ -8018,7 +8092,7 @@
       </c>
       <c r="R41" s="30"/>
       <c r="S41" s="29">
-        <f t="shared" ref="S41:S45" si="11">P41+Q41+R41</f>
+        <f t="shared" ref="S41:S45" si="12">P41+Q41+R41</f>
         <v>25</v>
       </c>
     </row>
@@ -8033,37 +8107,39 @@
       <c r="D42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="71">
         <v>570</v>
       </c>
       <c r="F42" s="22">
         <v>25.57</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H42" s="68">
-        <f t="shared" si="10"/>
-        <v>600000</v>
-      </c>
-      <c r="I42" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J42" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K42" s="72"/>
+      <c r="H42" s="42">
+        <f t="shared" si="11"/>
+        <v>590000</v>
+      </c>
+      <c r="I42" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J42" s="83">
+        <f>G42*I42</f>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K42" s="46">
+        <v>0</v>
+      </c>
       <c r="L42" s="23">
         <v>0.3</v>
       </c>
       <c r="M42" s="22">
-        <f>F42*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O42" s="21" t="s">
@@ -8077,7 +8153,7 @@
       </c>
       <c r="R42" s="30"/>
       <c r="S42" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>371</v>
       </c>
     </row>
@@ -8092,37 +8168,39 @@
       <c r="D43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="71">
         <v>570</v>
       </c>
       <c r="F43" s="22">
         <v>25.57</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H43" s="68">
+      <c r="H43" s="42">
         <f>ROUNDUP(G43+J43+K43,-4)</f>
-        <v>600000</v>
-      </c>
-      <c r="I43" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J43" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K43" s="72"/>
+        <v>590000</v>
+      </c>
+      <c r="I43" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J43" s="83">
+        <f>G43*I43</f>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K43" s="46">
+        <v>0</v>
+      </c>
       <c r="L43" s="23">
         <v>0.3</v>
       </c>
       <c r="M43" s="22">
-        <f>F43*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N43" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O43" s="21" t="s">
@@ -8138,7 +8216,7 @@
         <v>200</v>
       </c>
       <c r="S43" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>208</v>
       </c>
     </row>
@@ -8153,37 +8231,39 @@
       <c r="D44" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="71">
         <v>570</v>
       </c>
       <c r="F44" s="22">
         <v>25.57</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H44" s="68">
-        <f t="shared" ref="H44:H45" si="12">ROUNDUP(G44+J44+K44,-4)</f>
-        <v>600000</v>
-      </c>
-      <c r="I44" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J44" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K44" s="72"/>
+      <c r="H44" s="42">
+        <f t="shared" ref="H44:H45" si="13">ROUNDUP(G44+J44+K44,-4)</f>
+        <v>590000</v>
+      </c>
+      <c r="I44" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J44" s="83">
+        <f>G44*I44</f>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K44" s="46">
+        <v>0</v>
+      </c>
       <c r="L44" s="23">
         <v>0.3</v>
       </c>
       <c r="M44" s="22">
-        <f>F44*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N44" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O44" s="21" t="s">
@@ -8199,7 +8279,7 @@
         <v>200</v>
       </c>
       <c r="S44" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>211</v>
       </c>
     </row>
@@ -8214,37 +8294,39 @@
       <c r="D45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="71">
         <v>570</v>
       </c>
       <c r="F45" s="22">
         <v>25.57</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H45" s="68">
-        <f t="shared" si="12"/>
-        <v>600000</v>
-      </c>
-      <c r="I45" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J45" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K45" s="72"/>
+      <c r="H45" s="42">
+        <f t="shared" si="13"/>
+        <v>590000</v>
+      </c>
+      <c r="I45" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J45" s="83">
+        <f>G45*I45</f>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K45" s="46">
+        <v>0</v>
+      </c>
       <c r="L45" s="23">
         <v>0.3</v>
       </c>
       <c r="M45" s="22">
-        <f>F45*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N45" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O45" s="21" t="s">
@@ -8258,7 +8340,7 @@
       </c>
       <c r="R45" s="30"/>
       <c r="S45" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
     </row>
@@ -8273,37 +8355,39 @@
       <c r="D46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="71">
         <v>570</v>
       </c>
       <c r="F46" s="22">
         <v>25.57</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H46" s="68">
+      <c r="H46" s="42">
         <f>ROUNDUP(G46+J46+K46,-4)</f>
-        <v>600000</v>
-      </c>
-      <c r="I46" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J46" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K46" s="72"/>
+        <v>590000</v>
+      </c>
+      <c r="I46" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J46" s="83">
+        <f>G46*I46</f>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K46" s="46">
+        <v>0</v>
+      </c>
       <c r="L46" s="23">
         <v>0.3</v>
       </c>
       <c r="M46" s="22">
-        <f>F46*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N46" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O46" s="21" t="s">
@@ -8317,7 +8401,7 @@
       </c>
       <c r="R46" s="30"/>
       <c r="S46" s="29">
-        <f t="shared" ref="S46:S49" si="13">P46+Q46+R46</f>
+        <f t="shared" ref="S46:S49" si="14">P46+Q46+R46</f>
         <v>6</v>
       </c>
     </row>
@@ -8332,37 +8416,39 @@
       <c r="D47" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="71">
         <v>570</v>
       </c>
       <c r="F47" s="22">
         <v>25.57</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H47" s="68">
-        <f t="shared" ref="H47:H49" si="14">ROUNDUP(G47+J47+K47,-4)</f>
-        <v>600000</v>
-      </c>
-      <c r="I47" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J47" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K47" s="72"/>
+      <c r="H47" s="42">
+        <f t="shared" ref="H47:H49" si="15">ROUNDUP(G47+J47+K47,-4)</f>
+        <v>590000</v>
+      </c>
+      <c r="I47" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J47" s="83">
+        <f>G47*I47</f>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K47" s="46">
+        <v>0</v>
+      </c>
       <c r="L47" s="23">
         <v>0.3</v>
       </c>
       <c r="M47" s="22">
-        <f>F47*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N47" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O47" s="21" t="s">
@@ -8378,7 +8464,7 @@
         <v>200</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>282</v>
       </c>
     </row>
@@ -8393,37 +8479,39 @@
       <c r="D48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="71">
         <v>570</v>
       </c>
       <c r="F48" s="22">
         <v>25.57</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H48" s="68">
-        <f t="shared" si="14"/>
-        <v>600000</v>
-      </c>
-      <c r="I48" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J48" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K48" s="72"/>
+      <c r="H48" s="42">
+        <f t="shared" si="15"/>
+        <v>590000</v>
+      </c>
+      <c r="I48" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J48" s="83">
+        <f t="shared" si="3"/>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K48" s="46">
+        <v>0</v>
+      </c>
       <c r="L48" s="23">
         <v>0.3</v>
       </c>
       <c r="M48" s="22">
-        <f>F48*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N48" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O48" s="21" t="s">
@@ -8439,7 +8527,7 @@
         <v>200</v>
       </c>
       <c r="S48" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>232</v>
       </c>
     </row>
@@ -8454,37 +8542,39 @@
       <c r="D49" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="71">
         <v>570</v>
       </c>
       <c r="F49" s="22">
         <v>25.57</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="77">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
-      <c r="H49" s="68">
-        <f t="shared" si="14"/>
-        <v>600000</v>
-      </c>
-      <c r="I49" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J49" s="72">
-        <f t="shared" si="2"/>
-        <v>53697</v>
-      </c>
-      <c r="K49" s="72"/>
+      <c r="H49" s="42">
+        <f t="shared" si="15"/>
+        <v>590000</v>
+      </c>
+      <c r="I49" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="J49" s="83">
+        <f t="shared" si="3"/>
+        <v>48327.299999999996</v>
+      </c>
+      <c r="K49" s="46">
+        <v>0</v>
+      </c>
       <c r="L49" s="23">
         <v>0.3</v>
       </c>
       <c r="M49" s="22">
-        <f>F49*1.3</f>
+        <f t="shared" si="1"/>
         <v>33.241</v>
       </c>
       <c r="N49" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>698061</v>
       </c>
       <c r="O49" s="21" t="s">
@@ -8500,7 +8590,7 @@
         <v>200</v>
       </c>
       <c r="S49" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>283</v>
       </c>
     </row>
@@ -8515,37 +8605,39 @@
       <c r="D50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="72">
         <v>1780</v>
       </c>
       <c r="F50" s="22">
         <v>73.160865801867374</v>
       </c>
-      <c r="G50" s="66">
+      <c r="G50" s="77">
         <f t="shared" si="0"/>
         <v>1536378.1818392149</v>
       </c>
-      <c r="H50" s="68">
+      <c r="H50" s="42">
         <f>ROUNDUP(G50+J50+K50,-4)</f>
-        <v>1700000</v>
-      </c>
-      <c r="I50" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="J50" s="72">
-        <f t="shared" si="2"/>
-        <v>153637.81818392148</v>
-      </c>
-      <c r="K50" s="72"/>
+        <v>1790000</v>
+      </c>
+      <c r="I50" s="45">
+        <v>0.16</v>
+      </c>
+      <c r="J50" s="83">
+        <f t="shared" si="3"/>
+        <v>245820.50909427437</v>
+      </c>
+      <c r="K50" s="46">
+        <v>0</v>
+      </c>
       <c r="L50" s="23">
         <v>0.3</v>
       </c>
       <c r="M50" s="22">
-        <f>F50*1.3</f>
+        <f t="shared" si="1"/>
         <v>95.109125542427591</v>
       </c>
       <c r="N50" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1997291.6363909794</v>
       </c>
       <c r="O50" s="21" t="s">
@@ -8561,27 +8653,27 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="66"/>
     </row>
     <row r="52" spans="1:19" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
@@ -8594,25 +8686,35 @@
       <c r="D52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="71">
         <v>407</v>
       </c>
       <c r="F52" s="22">
         <v>14.885324945155022</v>
       </c>
-      <c r="G52" s="67">
+      <c r="G52" s="78">
         <f>F52*21000</f>
         <v>312591.82384825544</v>
       </c>
-      <c r="H52" s="40"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
+      <c r="H52" s="42">
+        <f>ROUNDUP(G52+J52+K52,-4)</f>
+        <v>410000</v>
+      </c>
+      <c r="I52" s="67">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J52" s="83">
+        <f t="shared" si="3"/>
+        <v>87525.710677511539</v>
+      </c>
+      <c r="K52" s="46">
+        <v>0</v>
+      </c>
       <c r="L52" s="23">
         <v>0.3</v>
       </c>
       <c r="M52" s="22">
-        <f>F52*1.3</f>
+        <f t="shared" ref="M52:M57" si="16">F52*1.3</f>
         <v>19.35092242870153</v>
       </c>
       <c r="N52" s="35">
@@ -8630,7 +8732,7 @@
       </c>
       <c r="R52" s="30"/>
       <c r="S52" s="29">
-        <f t="shared" ref="S52" si="15">P52+Q52+R52</f>
+        <f t="shared" ref="S52" si="17">P52+Q52+R52</f>
         <v>1981</v>
       </c>
     </row>
@@ -8645,29 +8747,39 @@
       <c r="D53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="71">
         <v>748</v>
       </c>
       <c r="F53" s="22">
         <v>29.07</v>
       </c>
-      <c r="G53" s="67">
-        <f t="shared" ref="G53:G57" si="16">F53*21000</f>
+      <c r="G53" s="78">
+        <f t="shared" ref="G53:G57" si="18">F53*21000</f>
         <v>610470</v>
       </c>
-      <c r="H53" s="40"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
+      <c r="H53" s="42">
+        <f t="shared" ref="H53:H70" si="19">ROUNDUP(G53+J53+K53,-4)</f>
+        <v>750000</v>
+      </c>
+      <c r="I53" s="67">
+        <v>0.22</v>
+      </c>
+      <c r="J53" s="83">
+        <f t="shared" si="3"/>
+        <v>134303.4</v>
+      </c>
+      <c r="K53" s="46">
+        <v>0</v>
+      </c>
       <c r="L53" s="23">
         <v>0.3</v>
       </c>
       <c r="M53" s="22">
-        <f>F53*1.3</f>
+        <f t="shared" si="16"/>
         <v>37.791000000000004</v>
       </c>
       <c r="N53" s="35">
-        <f t="shared" ref="N53:N57" si="17">M53*21000</f>
+        <f t="shared" ref="N53:N57" si="20">M53*21000</f>
         <v>793611.00000000012</v>
       </c>
       <c r="O53" s="21" t="s">
@@ -8698,29 +8810,39 @@
       <c r="D54" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="71">
         <v>1610</v>
       </c>
       <c r="F54" s="22">
         <v>58.832474783231739</v>
       </c>
-      <c r="G54" s="67">
-        <f t="shared" si="16"/>
+      <c r="G54" s="78">
+        <f t="shared" si="18"/>
         <v>1235481.9704478665</v>
       </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
+      <c r="H54" s="42">
+        <f t="shared" si="19"/>
+        <v>1570000</v>
+      </c>
+      <c r="I54" s="67">
+        <v>0.27</v>
+      </c>
+      <c r="J54" s="83">
+        <f t="shared" si="3"/>
+        <v>333580.13202092395</v>
+      </c>
+      <c r="K54" s="46">
+        <v>0</v>
+      </c>
       <c r="L54" s="23">
         <v>0.3</v>
       </c>
       <c r="M54" s="22">
-        <f>F54*1.3</f>
+        <f t="shared" si="16"/>
         <v>76.482217218201257</v>
       </c>
       <c r="N54" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1606126.5615822263</v>
       </c>
       <c r="O54" s="21" t="s">
@@ -8734,7 +8856,7 @@
       </c>
       <c r="R54" s="30"/>
       <c r="S54" s="29">
-        <f t="shared" ref="S54" si="18">P54+Q54+R54</f>
+        <f t="shared" ref="S54" si="21">P54+Q54+R54</f>
         <v>10</v>
       </c>
     </row>
@@ -8749,29 +8871,39 @@
       <c r="D55" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="11">
-        <v>0</v>
+      <c r="E55" s="34">
+        <v>1.889</v>
       </c>
       <c r="F55" s="22">
         <v>77.970749712716767</v>
       </c>
-      <c r="G55" s="67">
-        <f t="shared" si="16"/>
+      <c r="G55" s="78">
+        <f t="shared" si="18"/>
         <v>1637385.7439670521</v>
       </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
+      <c r="H55" s="42">
+        <f t="shared" si="19"/>
+        <v>1900000</v>
+      </c>
+      <c r="I55" s="67">
+        <v>0.16</v>
+      </c>
+      <c r="J55" s="83">
+        <f t="shared" si="3"/>
+        <v>261981.71903472833</v>
+      </c>
+      <c r="K55" s="46">
+        <v>0</v>
+      </c>
       <c r="L55" s="23">
         <v>0.3</v>
       </c>
       <c r="M55" s="22">
-        <f>F55*1.3</f>
+        <f t="shared" si="16"/>
         <v>101.3619746265318</v>
       </c>
       <c r="N55" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2128601.4671571678</v>
       </c>
       <c r="O55" s="21" t="s">
@@ -8787,7 +8919,7 @@
         <v>5</v>
       </c>
       <c r="S55" s="29">
-        <f t="shared" ref="S55:S57" si="19">P55+Q55+R55</f>
+        <f t="shared" ref="S55:S57" si="22">P55+Q55+R55</f>
         <v>7</v>
       </c>
     </row>
@@ -8802,29 +8934,39 @@
       <c r="D56" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="71">
         <v>2363</v>
       </c>
       <c r="F56" s="22">
         <v>86.476649681376784</v>
       </c>
-      <c r="G56" s="67">
-        <f t="shared" si="16"/>
+      <c r="G56" s="78">
+        <f t="shared" si="18"/>
         <v>1816009.6433089124</v>
       </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
+      <c r="H56" s="42">
+        <f t="shared" si="19"/>
+        <v>2350000</v>
+      </c>
+      <c r="I56" s="67">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J56" s="83">
+        <f t="shared" si="3"/>
+        <v>526642.79655958456</v>
+      </c>
+      <c r="K56" s="46">
+        <v>0</v>
+      </c>
       <c r="L56" s="23">
         <v>0.3</v>
       </c>
       <c r="M56" s="22">
-        <f>F56*1.3</f>
+        <f t="shared" si="16"/>
         <v>112.41964458578983</v>
       </c>
       <c r="N56" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2360812.5363015863</v>
       </c>
       <c r="O56" s="21" t="s">
@@ -8838,7 +8980,7 @@
       </c>
       <c r="R56" s="30"/>
       <c r="S56" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
     </row>
@@ -8853,29 +8995,39 @@
       <c r="D57" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="71">
         <v>1211</v>
       </c>
       <c r="F57" s="22">
         <v>55.997174793678404</v>
       </c>
-      <c r="G57" s="67">
-        <f t="shared" si="16"/>
+      <c r="G57" s="78">
+        <f t="shared" si="18"/>
         <v>1175940.6706672464</v>
       </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
+      <c r="H57" s="42">
+        <f t="shared" si="19"/>
+        <v>1300000</v>
+      </c>
+      <c r="I57" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="J57" s="83">
+        <f t="shared" si="3"/>
+        <v>117594.06706672464</v>
+      </c>
+      <c r="K57" s="46">
+        <v>0</v>
+      </c>
       <c r="L57" s="23">
         <v>0.3</v>
       </c>
       <c r="M57" s="22">
-        <f>F57*1.3</f>
+        <f t="shared" si="16"/>
         <v>72.79632723178193</v>
       </c>
       <c r="N57" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1528722.8718674206</v>
       </c>
       <c r="O57" s="21" t="s">
@@ -8889,32 +9041,32 @@
       </c>
       <c r="R57" s="30"/>
       <c r="S57" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="61"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="66"/>
     </row>
     <row r="59" spans="1:19" s="2" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -8927,20 +9079,30 @@
       <c r="D59" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="71">
         <v>1390</v>
       </c>
       <c r="F59" s="22">
         <v>55.997174793678404</v>
       </c>
-      <c r="G59" s="67">
+      <c r="G59" s="78">
         <f>F59*21000</f>
         <v>1175940.6706672464</v>
       </c>
-      <c r="H59" s="40"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
+      <c r="H59" s="42">
+        <f t="shared" si="19"/>
+        <v>1390000</v>
+      </c>
+      <c r="I59" s="67">
+        <v>0.18</v>
+      </c>
+      <c r="J59" s="83">
+        <f t="shared" si="3"/>
+        <v>211669.32072010436</v>
+      </c>
+      <c r="K59" s="46">
+        <v>0</v>
+      </c>
       <c r="L59" s="23">
         <v>0.3</v>
       </c>
@@ -8963,7 +9125,7 @@
       </c>
       <c r="R59" s="30"/>
       <c r="S59" s="29">
-        <f t="shared" ref="S59" si="20">P59+Q59+R59</f>
+        <f t="shared" ref="S59" si="23">P59+Q59+R59</f>
         <v>52</v>
       </c>
     </row>
@@ -8978,20 +9140,30 @@
       <c r="D60" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="71">
         <v>2052</v>
       </c>
       <c r="F60" s="22">
         <v>75.135449723163433</v>
       </c>
-      <c r="G60" s="67">
-        <f t="shared" ref="G60:G63" si="21">F60*21000</f>
+      <c r="G60" s="78">
+        <f t="shared" ref="G60:G63" si="24">F60*21000</f>
         <v>1577844.4441864321</v>
       </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
+      <c r="H60" s="42">
+        <f t="shared" si="19"/>
+        <v>1900000</v>
+      </c>
+      <c r="I60" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="J60" s="83">
+        <f t="shared" si="3"/>
+        <v>315568.88883728645</v>
+      </c>
+      <c r="K60" s="46">
+        <v>0</v>
+      </c>
       <c r="L60" s="23">
         <v>0.3</v>
       </c>
@@ -9000,7 +9172,7 @@
         <v>97.676084640112464</v>
       </c>
       <c r="N60" s="35">
-        <f t="shared" ref="N60:N62" si="22">M60*21000</f>
+        <f t="shared" ref="N60:N62" si="25">M60*21000</f>
         <v>2051197.7774423617</v>
       </c>
       <c r="O60" s="21" t="s">
@@ -9014,7 +9186,7 @@
       </c>
       <c r="R60" s="30"/>
       <c r="S60" s="29">
-        <f t="shared" ref="S60" si="23">P60+Q60+R60</f>
+        <f t="shared" ref="S60" si="26">P60+Q60+R60</f>
         <v>2</v>
       </c>
     </row>
@@ -9029,20 +9201,30 @@
       <c r="D61" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="71">
         <v>1298</v>
       </c>
       <c r="F61" s="22">
         <v>56.705999791066745</v>
       </c>
-      <c r="G61" s="67">
-        <f t="shared" si="21"/>
+      <c r="G61" s="78">
+        <f t="shared" si="24"/>
         <v>1190825.9956124017</v>
       </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
+      <c r="H61" s="42">
+        <f t="shared" si="19"/>
+        <v>1310000</v>
+      </c>
+      <c r="I61" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="J61" s="83">
+        <f t="shared" si="3"/>
+        <v>119082.59956124017</v>
+      </c>
+      <c r="K61" s="46">
+        <v>0</v>
+      </c>
       <c r="L61" s="23">
         <v>0.3</v>
       </c>
@@ -9051,7 +9233,7 @@
         <v>73.717799728386765</v>
       </c>
       <c r="N61" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1548073.7942961222</v>
       </c>
       <c r="O61" s="21" t="s">
@@ -9065,7 +9247,7 @@
       </c>
       <c r="R61" s="30"/>
       <c r="S61" s="29">
-        <f t="shared" ref="S61:S63" si="24">P61+Q61+R61</f>
+        <f t="shared" ref="S61:S63" si="27">P61+Q61+R61</f>
         <v>8</v>
       </c>
     </row>
@@ -9080,20 +9262,30 @@
       <c r="D62" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="71">
         <v>958</v>
       </c>
       <c r="F62" s="22">
         <v>36.150074866805049</v>
       </c>
-      <c r="G62" s="67">
-        <f t="shared" si="21"/>
+      <c r="G62" s="78">
+        <f t="shared" si="24"/>
         <v>759151.57220290601</v>
       </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
+      <c r="H62" s="42">
+        <f t="shared" si="19"/>
+        <v>950000</v>
+      </c>
+      <c r="I62" s="67">
+        <v>0.24</v>
+      </c>
+      <c r="J62" s="83">
+        <f t="shared" si="3"/>
+        <v>182196.37732869745</v>
+      </c>
+      <c r="K62" s="46">
+        <v>0</v>
+      </c>
       <c r="L62" s="23">
         <v>0.3</v>
       </c>
@@ -9102,7 +9294,7 @@
         <v>46.995097326846569</v>
       </c>
       <c r="N62" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>986897.043863778</v>
       </c>
       <c r="O62" s="21" t="s">
@@ -9116,7 +9308,7 @@
       </c>
       <c r="R62" s="30"/>
       <c r="S62" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>92</v>
       </c>
     </row>
@@ -9131,20 +9323,30 @@
       <c r="D63" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="71">
         <v>920</v>
       </c>
       <c r="F63" s="22">
         <v>37.567724861581716</v>
       </c>
-      <c r="G63" s="67">
-        <f t="shared" si="21"/>
+      <c r="G63" s="78">
+        <f t="shared" si="24"/>
         <v>788922.22209321603</v>
       </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
+      <c r="H63" s="42">
+        <f t="shared" si="19"/>
+        <v>920000</v>
+      </c>
+      <c r="I63" s="67">
+        <v>0.16</v>
+      </c>
+      <c r="J63" s="83">
+        <f t="shared" si="3"/>
+        <v>126227.55553491457</v>
+      </c>
+      <c r="K63" s="46">
+        <v>0</v>
+      </c>
       <c r="L63" s="23">
         <v>0.3</v>
       </c>
@@ -9165,32 +9367,32 @@
         <v>50</v>
       </c>
       <c r="S63" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="61"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="66"/>
     </row>
     <row r="65" spans="1:19" s="2" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -9203,25 +9405,35 @@
       <c r="D65" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="71">
         <v>1830</v>
       </c>
       <c r="F65" s="22">
         <v>78.913164766062607</v>
       </c>
-      <c r="G65" s="67">
+      <c r="G65" s="78">
         <f>F65*21000</f>
         <v>1657176.4600873147</v>
       </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
+      <c r="H65" s="42">
+        <f t="shared" si="19"/>
+        <v>1830000</v>
+      </c>
+      <c r="I65" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="J65" s="83">
+        <f t="shared" si="3"/>
+        <v>165717.64600873148</v>
+      </c>
+      <c r="K65" s="46">
+        <v>0</v>
+      </c>
       <c r="L65" s="23">
         <v>0.3</v>
       </c>
       <c r="M65" s="22">
-        <f>F65*1.3</f>
+        <f t="shared" ref="M65:M70" si="28">F65*1.3</f>
         <v>102.5871141958814</v>
       </c>
       <c r="N65" s="35">
@@ -9239,7 +9451,7 @@
       </c>
       <c r="R65" s="30"/>
       <c r="S65" s="29">
-        <f t="shared" ref="S65" si="25">P65+Q65+R65</f>
+        <f t="shared" ref="S65" si="29">P65+Q65+R65</f>
         <v>4</v>
       </c>
     </row>
@@ -9254,29 +9466,39 @@
       <c r="D66" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="71">
         <v>489</v>
       </c>
       <c r="F66" s="22">
         <v>18.751643112727752</v>
       </c>
-      <c r="G66" s="67">
-        <f t="shared" ref="G66:G69" si="26">F66*21000</f>
+      <c r="G66" s="78">
+        <f t="shared" ref="G66:G69" si="30">F66*21000</f>
         <v>393784.50536728278</v>
       </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
+      <c r="H66" s="42">
+        <f t="shared" si="19"/>
+        <v>480000</v>
+      </c>
+      <c r="I66" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="J66" s="83">
+        <f t="shared" si="3"/>
+        <v>78756.901073456567</v>
+      </c>
+      <c r="K66" s="46">
+        <v>0</v>
+      </c>
       <c r="L66" s="23">
         <v>0.3</v>
       </c>
       <c r="M66" s="22">
-        <f>F66*1.3</f>
+        <f t="shared" si="28"/>
         <v>24.377136046546077</v>
       </c>
       <c r="N66" s="35">
-        <f t="shared" ref="N66:N70" si="27">M66*21000</f>
+        <f t="shared" ref="N66:N70" si="31">M66*21000</f>
         <v>511919.8569774676</v>
       </c>
       <c r="O66" s="21" t="s">
@@ -9290,7 +9512,7 @@
       </c>
       <c r="R66" s="30"/>
       <c r="S66" s="29">
-        <f t="shared" ref="S66:S69" si="28">P66+Q66+R66</f>
+        <f t="shared" ref="S66:S69" si="32">P66+Q66+R66</f>
         <v>1</v>
       </c>
     </row>
@@ -9305,29 +9527,39 @@
       <c r="D67" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="71">
         <v>718</v>
       </c>
       <c r="F67" s="22">
         <v>28.75251943951589</v>
       </c>
-      <c r="G67" s="67">
-        <f t="shared" si="26"/>
+      <c r="G67" s="78">
+        <f t="shared" si="30"/>
         <v>603802.9082298337</v>
       </c>
-      <c r="H67" s="40"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="73"/>
+      <c r="H67" s="42">
+        <f t="shared" si="19"/>
+        <v>720000</v>
+      </c>
+      <c r="I67" s="67">
+        <v>0.18</v>
+      </c>
+      <c r="J67" s="83">
+        <f t="shared" si="3"/>
+        <v>108684.52348137007</v>
+      </c>
+      <c r="K67" s="46">
+        <v>0</v>
+      </c>
       <c r="L67" s="23">
         <v>0.3</v>
       </c>
       <c r="M67" s="22">
-        <f>F67*1.3</f>
+        <f t="shared" si="28"/>
         <v>37.378275271370661</v>
       </c>
       <c r="N67" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>784943.78069878393</v>
       </c>
       <c r="O67" s="21" t="s">
@@ -9339,7 +9571,7 @@
         <v>5</v>
       </c>
       <c r="S67" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
     </row>
@@ -9354,29 +9586,39 @@
       <c r="D68" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="71">
         <v>498</v>
       </c>
       <c r="F68" s="22">
         <v>20.626807424000525</v>
       </c>
-      <c r="G68" s="67">
+      <c r="G68" s="78">
         <f>F68*21000</f>
         <v>433162.95590401103</v>
       </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
+      <c r="H68" s="42">
+        <f t="shared" si="19"/>
+        <v>500000</v>
+      </c>
+      <c r="I68" s="67">
+        <v>0.15</v>
+      </c>
+      <c r="J68" s="83">
+        <f t="shared" si="3"/>
+        <v>64974.443385601655</v>
+      </c>
+      <c r="K68" s="46">
+        <v>0</v>
+      </c>
       <c r="L68" s="23">
         <v>0.3</v>
       </c>
       <c r="M68" s="22">
-        <f>F68*1.3</f>
+        <f t="shared" si="28"/>
         <v>26.814849651200682</v>
       </c>
       <c r="N68" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>563111.84267521428</v>
       </c>
       <c r="O68" s="24" t="s">
@@ -9388,7 +9630,7 @@
         <v>50</v>
       </c>
       <c r="S68" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
     </row>
@@ -9403,29 +9645,39 @@
       <c r="D69" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="71">
         <v>459</v>
       </c>
       <c r="F69" s="22">
         <v>19.064170497939877</v>
       </c>
-      <c r="G69" s="67">
-        <f t="shared" si="26"/>
+      <c r="G69" s="78">
+        <f t="shared" si="30"/>
         <v>400347.58045673743</v>
       </c>
-      <c r="H69" s="40"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
+      <c r="H69" s="42">
+        <f t="shared" si="19"/>
+        <v>460000</v>
+      </c>
+      <c r="I69" s="67">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J69" s="83">
+        <f t="shared" si="3"/>
+        <v>56048.661263943242</v>
+      </c>
+      <c r="K69" s="46">
+        <v>0</v>
+      </c>
       <c r="L69" s="23">
         <v>0.3</v>
       </c>
       <c r="M69" s="22">
-        <f>F69*1.3</f>
+        <f t="shared" si="28"/>
         <v>24.783421647321841</v>
       </c>
       <c r="N69" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>520451.85459375865</v>
       </c>
       <c r="O69" s="24" t="s">
@@ -9437,7 +9689,7 @@
         <v>80</v>
       </c>
       <c r="S69" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>80</v>
       </c>
     </row>
@@ -9452,29 +9704,39 @@
       <c r="D70" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="71">
         <v>1210</v>
       </c>
       <c r="F70" s="22">
         <v>50.47317271175887</v>
       </c>
-      <c r="G70" s="67">
+      <c r="G70" s="78">
         <f>F70*21000</f>
         <v>1059936.6269469364</v>
       </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="73"/>
+      <c r="H70" s="42">
+        <f t="shared" si="19"/>
+        <v>1220000</v>
+      </c>
+      <c r="I70" s="67">
+        <v>0.15</v>
+      </c>
+      <c r="J70" s="83">
+        <f t="shared" si="3"/>
+        <v>158990.49404204046</v>
+      </c>
+      <c r="K70" s="46">
+        <v>0</v>
+      </c>
       <c r="L70" s="23">
         <v>0.3</v>
       </c>
       <c r="M70" s="22">
-        <f>F70*1.3</f>
+        <f t="shared" si="28"/>
         <v>65.615124525286532</v>
       </c>
       <c r="N70" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1377917.6150310172</v>
       </c>
       <c r="O70" s="24" t="s">
@@ -9488,17 +9750,12 @@
       </c>
       <c r="R70" s="30"/>
       <c r="S70" s="29">
-        <f t="shared" ref="S70" si="29">P70+Q70+R70</f>
+        <f t="shared" ref="S70" si="33">P70+Q70+R70</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="P9:S9"/>
     <mergeCell ref="A58:O58"/>
     <mergeCell ref="A64:O64"/>
     <mergeCell ref="P12:S12"/>
@@ -9507,6 +9764,11 @@
     <mergeCell ref="P51:S51"/>
     <mergeCell ref="P58:S58"/>
     <mergeCell ref="P64:S64"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="P9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Documents/Microsoft/MSHW Price April 2011 - Picture (new).xlsx
+++ b/trunk/Documents/Microsoft/MSHW Price April 2011 - Picture (new).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="12510" windowHeight="5040"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="12510" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="171">
   <si>
     <t>P58-00043</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>U81-00031</t>
-  </si>
-  <si>
-    <t>Compact Opt Mse Mac/Win USB Port EN/XT/ZH/KO Hdwr Navy</t>
   </si>
   <si>
     <t>U81-00032</t>
@@ -1080,7 +1077,7 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1231,17 +1228,72 @@
     <xf numFmtId="2" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,60 +1349,16 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5820,8 +5828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5830,12 +5838,12 @@
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="57.75" style="14" customWidth="1"/>
     <col min="4" max="4" width="28.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="73" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="54" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="79" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="60" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="40" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="47" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="84" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="65" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="47" customWidth="1"/>
     <col min="12" max="12" width="14.625" style="3" customWidth="1"/>
     <col min="13" max="14" width="23.375" style="3" customWidth="1"/>
@@ -6163,176 +6171,176 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="74"/>
+      <c r="A6" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="37"/>
       <c r="I6" s="43"/>
-      <c r="J6" s="80"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="68"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="75"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="38"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="81"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="A8" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="68"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="75"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="38"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="81"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="A9" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="33"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
+      <c r="P9" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
       <c r="T9" s="10"/>
     </row>
     <row r="11" spans="1:20" s="25" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="M11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="O11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P11" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="R11" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="S11" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="S11" s="26" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
+      <c r="A12" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="71">
+      <c r="E13" s="52">
         <v>390</v>
       </c>
       <c r="F13" s="32">
         <v>15.6</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="58">
         <f t="shared" ref="G13:G50" si="0">F13*21000</f>
         <v>327600</v>
       </c>
@@ -6343,7 +6351,7 @@
       <c r="I13" s="45">
         <v>0.17</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="64">
         <f>G13*I13</f>
         <v>55692.000000000007</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>425880</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
@@ -6375,22 +6383,22 @@
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="71">
+      <c r="E14" s="52">
         <v>390</v>
       </c>
       <c r="F14" s="32">
         <v>15.6</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="58">
         <f t="shared" si="0"/>
         <v>327600</v>
       </c>
@@ -6401,7 +6409,7 @@
       <c r="I14" s="45">
         <v>0.17</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="64">
         <f t="shared" ref="J14:J70" si="3">G14*I14</f>
         <v>55692.000000000007</v>
       </c>
@@ -6420,7 +6428,7 @@
         <v>425880</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
@@ -6442,13 +6450,13 @@
       <c r="D15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="53">
         <v>305</v>
       </c>
       <c r="F15" s="19">
         <v>11.199434958735683</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="58">
         <f t="shared" si="0"/>
         <v>235188.13413344935</v>
       </c>
@@ -6459,7 +6467,7 @@
       <c r="I15" s="45">
         <v>0.25</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="64">
         <f t="shared" si="3"/>
         <v>58797.033533362337</v>
       </c>
@@ -6478,7 +6486,7 @@
         <v>305744.57437348412</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P15" s="27">
         <v>131</v>
@@ -6503,13 +6511,13 @@
       <c r="D16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="53">
         <v>305</v>
       </c>
       <c r="F16" s="19">
         <v>11.199434958735683</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="58">
         <f t="shared" si="0"/>
         <v>235188.13413344935</v>
       </c>
@@ -6520,7 +6528,7 @@
       <c r="I16" s="45">
         <v>0.25</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="64">
         <f t="shared" si="3"/>
         <v>58797.033533362337</v>
       </c>
@@ -6539,7 +6547,7 @@
         <v>305744.57437348412</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P16" s="27">
         <v>137</v>
@@ -6558,32 +6566,32 @@
         <v>5</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="68" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="53">
         <v>281</v>
       </c>
       <c r="F17" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="58">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
       <c r="H17" s="42">
         <f t="shared" si="2"/>
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="I17" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="J17" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="64">
         <f t="shared" si="3"/>
-        <v>35724.779868372054</v>
+        <v>47633.039824496082</v>
       </c>
       <c r="K17" s="46">
         <v>0</v>
@@ -6600,7 +6608,7 @@
         <v>309614.7588592245</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P17" s="27">
         <v>119</v>
@@ -6621,32 +6629,32 @@
         <v>8</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="68" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="53">
         <v>281</v>
       </c>
       <c r="F18" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="58">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
       <c r="H18" s="42">
         <f t="shared" si="2"/>
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="I18" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="J18" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="64">
         <f t="shared" si="3"/>
-        <v>35724.779868372054</v>
+        <v>47633.039824496082</v>
       </c>
       <c r="K18" s="46">
         <v>0</v>
@@ -6663,7 +6671,7 @@
         <v>309614.7588592245</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P18" s="27">
         <v>92</v>
@@ -6684,19 +6692,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="11" t="s">
-        <v>11</v>
+      <c r="C19" s="68" t="s">
+        <v>9</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="53">
         <v>281</v>
       </c>
       <c r="F19" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="58">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
@@ -6707,7 +6715,7 @@
       <c r="I19" s="45">
         <v>0.15</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="64">
         <f t="shared" si="3"/>
         <v>35724.779868372054</v>
       </c>
@@ -6726,7 +6734,7 @@
         <v>309614.7588592245</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P19" s="27">
         <v>92</v>
@@ -6744,22 +6752,22 @@
     </row>
     <row r="20" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="68" t="s">
         <v>12</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="53">
         <v>281</v>
       </c>
       <c r="F20" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="58">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
@@ -6770,7 +6778,7 @@
       <c r="I20" s="45">
         <v>0.15</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="64">
         <f t="shared" si="3"/>
         <v>35724.779868372054</v>
       </c>
@@ -6789,7 +6797,7 @@
         <v>309614.7588592245</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P20" s="27">
         <v>34</v>
@@ -6805,22 +6813,22 @@
     </row>
     <row r="21" spans="1:19" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="68" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="53">
         <v>281</v>
       </c>
       <c r="F21" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="58">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
@@ -6831,7 +6839,7 @@
       <c r="I21" s="45">
         <v>0.15</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="64">
         <f t="shared" si="3"/>
         <v>35724.779868372054</v>
       </c>
@@ -6850,7 +6858,7 @@
         <v>309614.7588592245</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P21" s="27">
         <v>117</v>
@@ -6868,22 +6876,22 @@
     </row>
     <row r="22" spans="1:19" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="68" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="53">
         <v>281</v>
       </c>
       <c r="F22" s="19">
         <v>11.341199958213352</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="58">
         <f t="shared" si="0"/>
         <v>238165.19912248038</v>
       </c>
@@ -6894,7 +6902,7 @@
       <c r="I22" s="45">
         <v>0.15</v>
       </c>
-      <c r="J22" s="83">
+      <c r="J22" s="64">
         <f t="shared" si="3"/>
         <v>35724.779868372054</v>
       </c>
@@ -6913,7 +6921,7 @@
         <v>309614.7588592245</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P22" s="27">
         <v>34</v>
@@ -6929,22 +6937,22 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="72">
+      <c r="E23" s="53">
         <v>600</v>
       </c>
       <c r="F23" s="22">
         <v>23.391224913815034</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="58">
         <f t="shared" si="0"/>
         <v>491215.72319011571</v>
       </c>
@@ -6955,7 +6963,7 @@
       <c r="I23" s="45">
         <v>0.22</v>
       </c>
-      <c r="J23" s="83">
+      <c r="J23" s="64">
         <f t="shared" si="3"/>
         <v>108067.45910182546</v>
       </c>
@@ -6974,7 +6982,7 @@
         <v>638580.44014715042</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P23" s="27">
         <v>91</v>
@@ -6990,22 +6998,22 @@
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>165</v>
+      <c r="E24" s="53" t="s">
+        <v>164</v>
       </c>
       <c r="F24" s="22">
         <v>77.970749712716767</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="58">
         <f t="shared" si="0"/>
         <v>1637385.7439670521</v>
       </c>
@@ -7016,7 +7024,7 @@
       <c r="I24" s="45">
         <v>0.13</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J24" s="64">
         <f t="shared" si="3"/>
         <v>212860.14671571678</v>
       </c>
@@ -7035,7 +7043,7 @@
         <v>2128601.4671571678</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P24" s="27">
         <v>9</v>
@@ -7051,35 +7059,35 @@
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>166</v>
+      <c r="E25" s="53" t="s">
+        <v>165</v>
       </c>
       <c r="F25" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="58">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
       <c r="H25" s="42">
         <f t="shared" si="2"/>
-        <v>1130000</v>
+        <v>1120000</v>
       </c>
       <c r="I25" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="J25" s="83">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J25" s="64">
         <f t="shared" si="3"/>
-        <v>147364.71695703472</v>
+        <v>137540.40249323242</v>
       </c>
       <c r="K25" s="46">
         <v>0</v>
@@ -7096,7 +7104,7 @@
         <v>1277160.8802943008</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P25" s="27">
         <v>4</v>
@@ -7112,22 +7120,22 @@
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="70">
+      <c r="E26" s="51">
         <v>848</v>
       </c>
       <c r="F26" s="22">
         <v>34.307129873595379</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="58">
         <f t="shared" si="0"/>
         <v>720449.72734550294</v>
       </c>
@@ -7138,7 +7146,7 @@
       <c r="I26" s="45">
         <v>0.17</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="64">
         <f t="shared" si="3"/>
         <v>122476.45364873551</v>
       </c>
@@ -7157,7 +7165,7 @@
         <v>936584.64554915391</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P26" s="27">
         <v>2</v>
@@ -7173,35 +7181,35 @@
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="72">
+        <v>44</v>
+      </c>
+      <c r="E27" s="53">
         <v>447</v>
       </c>
       <c r="F27" s="22">
         <v>19.138274929485029</v>
       </c>
-      <c r="G27" s="77">
-        <f t="shared" si="0"/>
+      <c r="G27" s="58">
+        <f>F27*21000</f>
         <v>401903.7735191856</v>
       </c>
       <c r="H27" s="42">
         <f t="shared" si="2"/>
-        <v>450000</v>
+        <v>480000</v>
       </c>
       <c r="I27" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="83">
+        <v>0.17</v>
+      </c>
+      <c r="J27" s="64">
         <f t="shared" si="3"/>
-        <v>40190.377351918563</v>
+        <v>68323.641498261553</v>
       </c>
       <c r="K27" s="46">
         <v>0</v>
@@ -7218,7 +7226,7 @@
         <v>522474.90557494125</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P27" s="27">
         <v>144</v>
@@ -7234,35 +7242,35 @@
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="72">
+      <c r="E28" s="53">
         <v>606</v>
       </c>
       <c r="F28" s="22">
         <v>26.226524903368372</v>
       </c>
-      <c r="G28" s="77">
-        <f t="shared" si="0"/>
+      <c r="G28" s="58">
+        <f>F28*21000</f>
         <v>550757.02297073579</v>
       </c>
       <c r="H28" s="42">
         <f t="shared" si="2"/>
-        <v>610000</v>
+        <v>650000</v>
       </c>
       <c r="I28" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="83">
+        <v>0.17</v>
+      </c>
+      <c r="J28" s="64">
         <f t="shared" si="3"/>
-        <v>55075.702297073585</v>
+        <v>93628.693905025095</v>
       </c>
       <c r="K28" s="46">
         <v>0</v>
@@ -7279,7 +7287,7 @@
         <v>715984.12986195658</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P28" s="27">
         <v>5</v>
@@ -7295,22 +7303,22 @@
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="71">
+        <v>49</v>
+      </c>
+      <c r="E29" s="52">
         <v>989</v>
       </c>
       <c r="F29" s="22">
         <v>42.245969844344735</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="58">
         <f t="shared" si="0"/>
         <v>887165.36673123948</v>
       </c>
@@ -7321,7 +7329,7 @@
       <c r="I29" s="45">
         <v>0.11</v>
       </c>
-      <c r="J29" s="83">
+      <c r="J29" s="64">
         <f t="shared" si="3"/>
         <v>97588.19034043634</v>
       </c>
@@ -7340,7 +7348,7 @@
         <v>1153314.9767506113</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P29" s="27">
         <v>0</v>
@@ -7356,22 +7364,22 @@
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="72">
+      <c r="E30" s="53">
         <v>1100</v>
       </c>
       <c r="F30" s="19">
         <v>46.782449827630067</v>
       </c>
-      <c r="G30" s="77">
+      <c r="G30" s="58">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
@@ -7382,7 +7390,7 @@
       <c r="I30" s="45">
         <v>0.12</v>
       </c>
-      <c r="J30" s="83">
+      <c r="J30" s="64">
         <f t="shared" si="3"/>
         <v>117891.77356562777</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>1277160.8802943008</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P30" s="27">
         <v>135</v>
@@ -7417,22 +7425,22 @@
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="72">
+        <v>52</v>
+      </c>
+      <c r="E31" s="53">
         <v>1100</v>
       </c>
       <c r="F31" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="58">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
@@ -7443,7 +7451,7 @@
       <c r="I31" s="45">
         <v>0.12</v>
       </c>
-      <c r="J31" s="83">
+      <c r="J31" s="64">
         <f t="shared" si="3"/>
         <v>117891.77356562777</v>
       </c>
@@ -7462,7 +7470,7 @@
         <v>1277160.8802943008</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P31" s="27">
         <v>16</v>
@@ -7480,22 +7488,22 @@
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" ht="121.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="72">
+        <v>52</v>
+      </c>
+      <c r="E32" s="53">
         <v>1100</v>
       </c>
       <c r="F32" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="58">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
@@ -7506,7 +7514,7 @@
       <c r="I32" s="45">
         <v>0.12</v>
       </c>
-      <c r="J32" s="83">
+      <c r="J32" s="64">
         <f t="shared" si="3"/>
         <v>117891.77356562777</v>
       </c>
@@ -7525,7 +7533,7 @@
         <v>1277160.8802943008</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P32" s="27">
         <v>4</v>
@@ -7543,22 +7551,22 @@
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="72">
+        <v>52</v>
+      </c>
+      <c r="E33" s="53">
         <v>1100</v>
       </c>
       <c r="F33" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="58">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
@@ -7569,7 +7577,7 @@
       <c r="I33" s="45">
         <v>0.12</v>
       </c>
-      <c r="J33" s="83">
+      <c r="J33" s="64">
         <f t="shared" si="3"/>
         <v>117891.77356562777</v>
       </c>
@@ -7588,7 +7596,7 @@
         <v>1277160.8802943008</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P33" s="27">
         <v>11</v>
@@ -7606,35 +7614,35 @@
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="72">
+        <v>52</v>
+      </c>
+      <c r="E34" s="53">
         <v>1100</v>
       </c>
       <c r="F34" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G34" s="58">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
       <c r="H34" s="42">
         <f>ROUNDUP(G34+J34+K34,-4)</f>
-        <v>1110000</v>
+        <v>1130000</v>
       </c>
       <c r="I34" s="45">
-        <v>0.12</v>
-      </c>
-      <c r="J34" s="83">
+        <v>0.15</v>
+      </c>
+      <c r="J34" s="64">
         <f t="shared" si="3"/>
-        <v>117891.77356562777</v>
+        <v>147364.71695703472</v>
       </c>
       <c r="K34" s="46">
         <v>0</v>
@@ -7651,7 +7659,7 @@
         <v>1277160.8802943008</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P34" s="27">
         <v>9</v>
@@ -7669,22 +7677,22 @@
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="72">
+        <v>52</v>
+      </c>
+      <c r="E35" s="53">
         <v>1100</v>
       </c>
       <c r="F35" s="22">
         <v>46.782449827630067</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="58">
         <f t="shared" si="0"/>
         <v>982431.44638023141</v>
       </c>
@@ -7695,7 +7703,7 @@
       <c r="I35" s="45">
         <v>0.12</v>
       </c>
-      <c r="J35" s="83">
+      <c r="J35" s="64">
         <f t="shared" si="3"/>
         <v>117891.77356562777</v>
       </c>
@@ -7714,7 +7722,7 @@
         <v>1277160.8802943008</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P35" s="27">
         <v>7</v>
@@ -7732,22 +7740,22 @@
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="72">
+        <v>79</v>
+      </c>
+      <c r="E36" s="53">
         <v>850</v>
       </c>
       <c r="F36" s="22">
         <v>36.99</v>
       </c>
-      <c r="G36" s="77">
+      <c r="G36" s="58">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
@@ -7758,7 +7766,7 @@
       <c r="I36" s="45">
         <v>0.1</v>
       </c>
-      <c r="J36" s="83">
+      <c r="J36" s="64">
         <f t="shared" si="3"/>
         <v>77679</v>
       </c>
@@ -7777,7 +7785,7 @@
         <v>1009827.0000000001</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P36" s="27">
         <v>137</v>
@@ -7793,22 +7801,22 @@
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="72">
+        <v>79</v>
+      </c>
+      <c r="E37" s="53">
         <v>850</v>
       </c>
       <c r="F37" s="22">
         <v>36.99</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="58">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
@@ -7819,7 +7827,7 @@
       <c r="I37" s="45">
         <v>0.1</v>
       </c>
-      <c r="J37" s="83">
+      <c r="J37" s="64">
         <f t="shared" si="3"/>
         <v>77679</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>1009827.0000000001</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P37" s="27">
         <v>46</v>
@@ -7854,22 +7862,22 @@
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="72">
+        <v>79</v>
+      </c>
+      <c r="E38" s="53">
         <v>850</v>
       </c>
       <c r="F38" s="22">
         <v>36.99</v>
       </c>
-      <c r="G38" s="77">
+      <c r="G38" s="58">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
@@ -7880,7 +7888,7 @@
       <c r="I38" s="45">
         <v>0.1</v>
       </c>
-      <c r="J38" s="83">
+      <c r="J38" s="64">
         <f t="shared" si="3"/>
         <v>77679</v>
       </c>
@@ -7899,7 +7907,7 @@
         <v>1009827.0000000001</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P38" s="27">
         <v>156</v>
@@ -7915,22 +7923,22 @@
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="72">
+        <v>79</v>
+      </c>
+      <c r="E39" s="53">
         <v>850</v>
       </c>
       <c r="F39" s="22">
         <v>36.99</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="58">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
@@ -7941,7 +7949,7 @@
       <c r="I39" s="45">
         <v>0.1</v>
       </c>
-      <c r="J39" s="83">
+      <c r="J39" s="64">
         <f t="shared" si="3"/>
         <v>77679</v>
       </c>
@@ -7960,7 +7968,7 @@
         <v>1009827.0000000001</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P39" s="27">
         <v>198</v>
@@ -7976,35 +7984,35 @@
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="72">
+        <v>79</v>
+      </c>
+      <c r="E40" s="53">
         <v>850</v>
       </c>
       <c r="F40" s="22">
         <v>36.99</v>
       </c>
-      <c r="G40" s="77">
+      <c r="G40" s="58">
         <f t="shared" si="0"/>
         <v>776790</v>
       </c>
       <c r="H40" s="42">
         <f>ROUNDUP(G40+J40+K40,-4)</f>
-        <v>860000</v>
+        <v>880000</v>
       </c>
       <c r="I40" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="J40" s="83">
+        <v>0.13</v>
+      </c>
+      <c r="J40" s="64">
         <f t="shared" si="3"/>
-        <v>77679</v>
+        <v>100982.7</v>
       </c>
       <c r="K40" s="46">
         <v>0</v>
@@ -8021,7 +8029,7 @@
         <v>1009827.0000000001</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P40" s="27">
         <v>147</v>
@@ -8037,35 +8045,35 @@
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="71">
+        <v>85</v>
+      </c>
+      <c r="E41" s="52">
         <v>570</v>
       </c>
       <c r="F41" s="22">
         <v>25.57</v>
       </c>
-      <c r="G41" s="77">
+      <c r="G41" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H41" s="42">
-        <f t="shared" ref="H41:H42" si="11">ROUNDUP(G41+J41+K41,-4)</f>
-        <v>590000</v>
+        <f t="shared" ref="H41:H43" si="11">ROUNDUP(G41+J41+K41,-4)</f>
+        <v>620000</v>
       </c>
       <c r="I41" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J41" s="83">
-        <f>G41*I41</f>
-        <v>48327.299999999996</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J41" s="64">
+        <f t="shared" ref="J41:J47" si="12">G41*I41</f>
+        <v>75175.8</v>
       </c>
       <c r="K41" s="46">
         <v>0</v>
@@ -8082,7 +8090,7 @@
         <v>698061</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P41" s="27">
         <v>23</v>
@@ -8092,41 +8100,41 @@
       </c>
       <c r="R41" s="30"/>
       <c r="S41" s="29">
-        <f t="shared" ref="S41:S45" si="12">P41+Q41+R41</f>
+        <f t="shared" ref="S41:S45" si="13">P41+Q41+R41</f>
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="71">
+        <v>85</v>
+      </c>
+      <c r="E42" s="52">
         <v>570</v>
       </c>
       <c r="F42" s="22">
         <v>25.57</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H42" s="42">
         <f t="shared" si="11"/>
-        <v>590000</v>
+        <v>620000</v>
       </c>
       <c r="I42" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J42" s="83">
-        <f>G42*I42</f>
-        <v>48327.299999999996</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J42" s="64">
+        <f t="shared" si="12"/>
+        <v>75175.8</v>
       </c>
       <c r="K42" s="46">
         <v>0</v>
@@ -8143,7 +8151,7 @@
         <v>698061</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P42" s="27">
         <v>334</v>
@@ -8153,41 +8161,41 @@
       </c>
       <c r="R42" s="30"/>
       <c r="S42" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="71">
+        <v>85</v>
+      </c>
+      <c r="E43" s="52">
         <v>570</v>
       </c>
       <c r="F43" s="22">
         <v>25.57</v>
       </c>
-      <c r="G43" s="77">
+      <c r="G43" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H43" s="42">
-        <f>ROUNDUP(G43+J43+K43,-4)</f>
-        <v>590000</v>
+        <f t="shared" si="11"/>
+        <v>620000</v>
       </c>
       <c r="I43" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J43" s="83">
-        <f>G43*I43</f>
-        <v>48327.299999999996</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J43" s="64">
+        <f t="shared" si="12"/>
+        <v>75175.8</v>
       </c>
       <c r="K43" s="46">
         <v>0</v>
@@ -8204,7 +8212,7 @@
         <v>698061</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P43" s="27">
         <v>7</v>
@@ -8216,41 +8224,41 @@
         <v>200</v>
       </c>
       <c r="S43" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="71">
+        <v>85</v>
+      </c>
+      <c r="E44" s="52">
         <v>570</v>
       </c>
       <c r="F44" s="22">
         <v>25.57</v>
       </c>
-      <c r="G44" s="77">
+      <c r="G44" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H44" s="42">
-        <f t="shared" ref="H44:H45" si="13">ROUNDUP(G44+J44+K44,-4)</f>
-        <v>590000</v>
+        <f t="shared" ref="H44:H45" si="14">ROUNDUP(G44+J44+K44,-4)</f>
+        <v>620000</v>
       </c>
       <c r="I44" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J44" s="83">
-        <f>G44*I44</f>
-        <v>48327.299999999996</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J44" s="64">
+        <f t="shared" si="12"/>
+        <v>75175.8</v>
       </c>
       <c r="K44" s="46">
         <v>0</v>
@@ -8267,7 +8275,7 @@
         <v>698061</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P44" s="27">
         <v>10</v>
@@ -8279,41 +8287,41 @@
         <v>200</v>
       </c>
       <c r="S44" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="71">
+        <v>85</v>
+      </c>
+      <c r="E45" s="52">
         <v>570</v>
       </c>
       <c r="F45" s="22">
         <v>25.57</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H45" s="42">
-        <f t="shared" si="13"/>
-        <v>590000</v>
+        <f t="shared" si="14"/>
+        <v>620000</v>
       </c>
       <c r="I45" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J45" s="83">
-        <f>G45*I45</f>
-        <v>48327.299999999996</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J45" s="64">
+        <f t="shared" si="12"/>
+        <v>75175.8</v>
       </c>
       <c r="K45" s="46">
         <v>0</v>
@@ -8330,7 +8338,7 @@
         <v>698061</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P45" s="27">
         <v>6</v>
@@ -8340,41 +8348,41 @@
       </c>
       <c r="R45" s="30"/>
       <c r="S45" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="71">
+        <v>85</v>
+      </c>
+      <c r="E46" s="52">
         <v>570</v>
       </c>
       <c r="F46" s="22">
         <v>25.57</v>
       </c>
-      <c r="G46" s="77">
+      <c r="G46" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H46" s="42">
         <f>ROUNDUP(G46+J46+K46,-4)</f>
-        <v>590000</v>
+        <v>620000</v>
       </c>
       <c r="I46" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J46" s="83">
-        <f>G46*I46</f>
-        <v>48327.299999999996</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J46" s="64">
+        <f t="shared" si="12"/>
+        <v>75175.8</v>
       </c>
       <c r="K46" s="46">
         <v>0</v>
@@ -8391,7 +8399,7 @@
         <v>698061</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P46" s="28">
         <v>0</v>
@@ -8401,41 +8409,41 @@
       </c>
       <c r="R46" s="30"/>
       <c r="S46" s="29">
-        <f t="shared" ref="S46:S49" si="14">P46+Q46+R46</f>
+        <f t="shared" ref="S46:S49" si="15">P46+Q46+R46</f>
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="71">
+        <v>85</v>
+      </c>
+      <c r="E47" s="52">
         <v>570</v>
       </c>
       <c r="F47" s="22">
         <v>25.57</v>
       </c>
-      <c r="G47" s="77">
+      <c r="G47" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H47" s="42">
-        <f t="shared" ref="H47:H49" si="15">ROUNDUP(G47+J47+K47,-4)</f>
-        <v>590000</v>
+        <f t="shared" ref="H47:H49" si="16">ROUNDUP(G47+J47+K47,-4)</f>
+        <v>620000</v>
       </c>
       <c r="I47" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J47" s="83">
-        <f>G47*I47</f>
-        <v>48327.299999999996</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J47" s="64">
+        <f t="shared" si="12"/>
+        <v>75175.8</v>
       </c>
       <c r="K47" s="46">
         <v>0</v>
@@ -8452,7 +8460,7 @@
         <v>698061</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P47" s="27">
         <v>82</v>
@@ -8464,41 +8472,41 @@
         <v>200</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="71">
+        <v>85</v>
+      </c>
+      <c r="E48" s="52">
         <v>570</v>
       </c>
       <c r="F48" s="22">
         <v>25.57</v>
       </c>
-      <c r="G48" s="77">
+      <c r="G48" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H48" s="42">
-        <f t="shared" si="15"/>
-        <v>590000</v>
+        <f t="shared" si="16"/>
+        <v>620000</v>
       </c>
       <c r="I48" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J48" s="83">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J48" s="64">
         <f t="shared" si="3"/>
-        <v>48327.299999999996</v>
+        <v>75175.8</v>
       </c>
       <c r="K48" s="46">
         <v>0</v>
@@ -8515,7 +8523,7 @@
         <v>698061</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P48" s="27">
         <v>32</v>
@@ -8527,41 +8535,41 @@
         <v>200</v>
       </c>
       <c r="S48" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="71">
+        <v>85</v>
+      </c>
+      <c r="E49" s="52">
         <v>570</v>
       </c>
       <c r="F49" s="22">
         <v>25.57</v>
       </c>
-      <c r="G49" s="77">
+      <c r="G49" s="58">
         <f t="shared" si="0"/>
         <v>536970</v>
       </c>
       <c r="H49" s="42">
-        <f t="shared" si="15"/>
-        <v>590000</v>
+        <f t="shared" si="16"/>
+        <v>620000</v>
       </c>
       <c r="I49" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="J49" s="83">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J49" s="64">
         <f t="shared" si="3"/>
-        <v>48327.299999999996</v>
+        <v>75175.8</v>
       </c>
       <c r="K49" s="46">
         <v>0</v>
@@ -8578,7 +8586,7 @@
         <v>698061</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P49" s="27">
         <v>83</v>
@@ -8590,28 +8598,28 @@
         <v>200</v>
       </c>
       <c r="S49" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="72">
+        <v>102</v>
+      </c>
+      <c r="E50" s="53">
         <v>1780</v>
       </c>
       <c r="F50" s="22">
         <v>73.160865801867374</v>
       </c>
-      <c r="G50" s="77">
+      <c r="G50" s="58">
         <f t="shared" si="0"/>
         <v>1536378.1818392149</v>
       </c>
@@ -8622,7 +8630,7 @@
       <c r="I50" s="45">
         <v>0.16</v>
       </c>
-      <c r="J50" s="83">
+      <c r="J50" s="64">
         <f t="shared" si="3"/>
         <v>245820.50909427437</v>
       </c>
@@ -8641,7 +8649,7 @@
         <v>1997291.6363909794</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P50" s="28"/>
       <c r="Q50" s="27"/>
@@ -8653,46 +8661,46 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="66"/>
+      <c r="A51" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="83"/>
     </row>
     <row r="52" spans="1:19" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="71">
+      <c r="E52" s="52">
         <v>407</v>
       </c>
       <c r="F52" s="22">
         <v>14.885324945155022</v>
       </c>
-      <c r="G52" s="78">
+      <c r="G52" s="59">
         <f>F52*21000</f>
         <v>312591.82384825544</v>
       </c>
@@ -8700,10 +8708,10 @@
         <f>ROUNDUP(G52+J52+K52,-4)</f>
         <v>410000</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="48">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J52" s="83">
+      <c r="J52" s="64">
         <f t="shared" si="3"/>
         <v>87525.710677511539</v>
       </c>
@@ -8714,7 +8722,7 @@
         <v>0.3</v>
       </c>
       <c r="M52" s="22">
-        <f t="shared" ref="M52:M57" si="16">F52*1.3</f>
+        <f t="shared" ref="M52:M57" si="17">F52*1.3</f>
         <v>19.35092242870153</v>
       </c>
       <c r="N52" s="35">
@@ -8722,7 +8730,7 @@
         <v>406369.37100273214</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P52" s="27">
         <v>1965</v>
@@ -8732,39 +8740,39 @@
       </c>
       <c r="R52" s="30"/>
       <c r="S52" s="29">
-        <f t="shared" ref="S52" si="17">P52+Q52+R52</f>
+        <f t="shared" ref="S52" si="18">P52+Q52+R52</f>
         <v>1981</v>
       </c>
     </row>
     <row r="53" spans="1:19" s="2" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="71">
+      <c r="E53" s="52">
         <v>748</v>
       </c>
       <c r="F53" s="22">
         <v>29.07</v>
       </c>
-      <c r="G53" s="78">
-        <f t="shared" ref="G53:G57" si="18">F53*21000</f>
+      <c r="G53" s="59">
+        <f t="shared" ref="G53:G57" si="19">F53*21000</f>
         <v>610470</v>
       </c>
       <c r="H53" s="42">
-        <f t="shared" ref="H53:H70" si="19">ROUNDUP(G53+J53+K53,-4)</f>
+        <f t="shared" ref="H53:H70" si="20">ROUNDUP(G53+J53+K53,-4)</f>
         <v>750000</v>
       </c>
-      <c r="I53" s="67">
+      <c r="I53" s="48">
         <v>0.22</v>
       </c>
-      <c r="J53" s="83">
+      <c r="J53" s="64">
         <f t="shared" si="3"/>
         <v>134303.4</v>
       </c>
@@ -8775,15 +8783,15 @@
         <v>0.3</v>
       </c>
       <c r="M53" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.791000000000004</v>
       </c>
       <c r="N53" s="35">
-        <f t="shared" ref="N53:N57" si="20">M53*21000</f>
+        <f t="shared" ref="N53:N57" si="21">M53*21000</f>
         <v>793611.00000000012</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P53" s="27">
         <v>364</v>
@@ -8801,33 +8809,33 @@
     </row>
     <row r="54" spans="1:19" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="71">
+      <c r="E54" s="52">
         <v>1610</v>
       </c>
       <c r="F54" s="22">
         <v>58.832474783231739</v>
       </c>
-      <c r="G54" s="78">
-        <f t="shared" si="18"/>
+      <c r="G54" s="59">
+        <f t="shared" si="19"/>
         <v>1235481.9704478665</v>
       </c>
       <c r="H54" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1570000</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="48">
         <v>0.27</v>
       </c>
-      <c r="J54" s="83">
+      <c r="J54" s="64">
         <f t="shared" si="3"/>
         <v>333580.13202092395</v>
       </c>
@@ -8838,15 +8846,15 @@
         <v>0.3</v>
       </c>
       <c r="M54" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>76.482217218201257</v>
       </c>
       <c r="N54" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1606126.5615822263</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P54" s="27">
         <v>6</v>
@@ -8856,20 +8864,20 @@
       </c>
       <c r="R54" s="30"/>
       <c r="S54" s="29">
-        <f t="shared" ref="S54" si="21">P54+Q54+R54</f>
+        <f t="shared" ref="S54" si="22">P54+Q54+R54</f>
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="2" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="E55" s="34">
         <v>1.889</v>
@@ -8877,18 +8885,18 @@
       <c r="F55" s="22">
         <v>77.970749712716767</v>
       </c>
-      <c r="G55" s="78">
-        <f t="shared" si="18"/>
+      <c r="G55" s="59">
+        <f t="shared" si="19"/>
         <v>1637385.7439670521</v>
       </c>
       <c r="H55" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1900000</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="48">
         <v>0.16</v>
       </c>
-      <c r="J55" s="83">
+      <c r="J55" s="64">
         <f t="shared" si="3"/>
         <v>261981.71903472833</v>
       </c>
@@ -8899,15 +8907,15 @@
         <v>0.3</v>
       </c>
       <c r="M55" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>101.3619746265318</v>
       </c>
       <c r="N55" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2128601.4671571678</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P55" s="27">
         <v>1</v>
@@ -8919,39 +8927,39 @@
         <v>5</v>
       </c>
       <c r="S55" s="29">
-        <f t="shared" ref="S55:S57" si="22">P55+Q55+R55</f>
+        <f t="shared" ref="S55:S57" si="23">P55+Q55+R55</f>
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:19" s="2" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="71">
+        <v>30</v>
+      </c>
+      <c r="E56" s="52">
         <v>2363</v>
       </c>
       <c r="F56" s="22">
         <v>86.476649681376784</v>
       </c>
-      <c r="G56" s="78">
-        <f t="shared" si="18"/>
+      <c r="G56" s="59">
+        <f t="shared" si="19"/>
         <v>1816009.6433089124</v>
       </c>
       <c r="H56" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2350000</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="48">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J56" s="83">
+      <c r="J56" s="64">
         <f t="shared" si="3"/>
         <v>526642.79655958456</v>
       </c>
@@ -8962,15 +8970,15 @@
         <v>0.3</v>
       </c>
       <c r="M56" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>112.41964458578983</v>
       </c>
       <c r="N56" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2360812.5363015863</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P56" s="27">
         <v>22</v>
@@ -8980,39 +8988,39 @@
       </c>
       <c r="R56" s="30"/>
       <c r="S56" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="2" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="71">
+      <c r="E57" s="52">
         <v>1211</v>
       </c>
       <c r="F57" s="22">
         <v>55.997174793678404</v>
       </c>
-      <c r="G57" s="78">
-        <f t="shared" si="18"/>
+      <c r="G57" s="59">
+        <f t="shared" si="19"/>
         <v>1175940.6706672464</v>
       </c>
       <c r="H57" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1300000</v>
       </c>
-      <c r="I57" s="67">
+      <c r="I57" s="48">
         <v>0.1</v>
       </c>
-      <c r="J57" s="83">
+      <c r="J57" s="64">
         <f t="shared" si="3"/>
         <v>117594.06706672464</v>
       </c>
@@ -9023,15 +9031,15 @@
         <v>0.3</v>
       </c>
       <c r="M57" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>72.79632723178193</v>
       </c>
       <c r="N57" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1528722.8718674206</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P57" s="27">
         <v>11</v>
@@ -9041,62 +9049,62 @@
       </c>
       <c r="R57" s="30"/>
       <c r="S57" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="66"/>
+      <c r="A58" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="82"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="83"/>
     </row>
     <row r="59" spans="1:19" s="2" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="71">
+      <c r="E59" s="52">
         <v>1390</v>
       </c>
       <c r="F59" s="22">
         <v>55.997174793678404</v>
       </c>
-      <c r="G59" s="78">
+      <c r="G59" s="59">
         <f>F59*21000</f>
         <v>1175940.6706672464</v>
       </c>
       <c r="H59" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1390000</v>
       </c>
-      <c r="I59" s="67">
+      <c r="I59" s="48">
         <v>0.18</v>
       </c>
-      <c r="J59" s="83">
+      <c r="J59" s="64">
         <f t="shared" si="3"/>
         <v>211669.32072010436</v>
       </c>
@@ -9115,7 +9123,7 @@
         <v>1528722.8718674206</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P59" s="27">
         <v>32</v>
@@ -9125,39 +9133,39 @@
       </c>
       <c r="R59" s="30"/>
       <c r="S59" s="29">
-        <f t="shared" ref="S59" si="23">P59+Q59+R59</f>
+        <f t="shared" ref="S59" si="24">P59+Q59+R59</f>
         <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:19" s="2" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="71">
+      <c r="E60" s="52">
         <v>2052</v>
       </c>
       <c r="F60" s="22">
         <v>75.135449723163433</v>
       </c>
-      <c r="G60" s="78">
-        <f t="shared" ref="G60:G63" si="24">F60*21000</f>
+      <c r="G60" s="59">
+        <f t="shared" ref="G60:G63" si="25">F60*21000</f>
         <v>1577844.4441864321</v>
       </c>
       <c r="H60" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1900000</v>
       </c>
-      <c r="I60" s="67">
+      <c r="I60" s="48">
         <v>0.2</v>
       </c>
-      <c r="J60" s="83">
+      <c r="J60" s="64">
         <f t="shared" si="3"/>
         <v>315568.88883728645</v>
       </c>
@@ -9172,11 +9180,11 @@
         <v>97.676084640112464</v>
       </c>
       <c r="N60" s="35">
-        <f t="shared" ref="N60:N62" si="25">M60*21000</f>
+        <f t="shared" ref="N60:N62" si="26">M60*21000</f>
         <v>2051197.7774423617</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P60" s="27">
         <v>2</v>
@@ -9186,39 +9194,39 @@
       </c>
       <c r="R60" s="30"/>
       <c r="S60" s="29">
-        <f t="shared" ref="S60" si="26">P60+Q60+R60</f>
+        <f t="shared" ref="S60" si="27">P60+Q60+R60</f>
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="71">
+      <c r="E61" s="52">
         <v>1298</v>
       </c>
       <c r="F61" s="22">
         <v>56.705999791066745</v>
       </c>
-      <c r="G61" s="78">
-        <f t="shared" si="24"/>
+      <c r="G61" s="59">
+        <f t="shared" si="25"/>
         <v>1190825.9956124017</v>
       </c>
       <c r="H61" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1310000</v>
       </c>
-      <c r="I61" s="67">
+      <c r="I61" s="48">
         <v>0.1</v>
       </c>
-      <c r="J61" s="83">
+      <c r="J61" s="64">
         <f t="shared" si="3"/>
         <v>119082.59956124017</v>
       </c>
@@ -9233,11 +9241,11 @@
         <v>73.717799728386765</v>
       </c>
       <c r="N61" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1548073.7942961222</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P61" s="27">
         <v>3</v>
@@ -9247,39 +9255,39 @@
       </c>
       <c r="R61" s="30"/>
       <c r="S61" s="29">
-        <f t="shared" ref="S61:S63" si="27">P61+Q61+R61</f>
+        <f t="shared" ref="S61:S63" si="28">P61+Q61+R61</f>
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:19" s="2" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="71">
+      <c r="E62" s="52">
         <v>958</v>
       </c>
       <c r="F62" s="22">
         <v>36.150074866805049</v>
       </c>
-      <c r="G62" s="78">
-        <f t="shared" si="24"/>
+      <c r="G62" s="59">
+        <f t="shared" si="25"/>
         <v>759151.57220290601</v>
       </c>
       <c r="H62" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>950000</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="48">
         <v>0.24</v>
       </c>
-      <c r="J62" s="83">
+      <c r="J62" s="64">
         <f t="shared" si="3"/>
         <v>182196.37732869745</v>
       </c>
@@ -9294,11 +9302,11 @@
         <v>46.995097326846569</v>
       </c>
       <c r="N62" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>986897.043863778</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P62" s="27">
         <v>75</v>
@@ -9308,39 +9316,39 @@
       </c>
       <c r="R62" s="30"/>
       <c r="S62" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="71">
+        <v>96</v>
+      </c>
+      <c r="E63" s="52">
         <v>920</v>
       </c>
       <c r="F63" s="22">
         <v>37.567724861581716</v>
       </c>
-      <c r="G63" s="78">
-        <f t="shared" si="24"/>
+      <c r="G63" s="59">
+        <f t="shared" si="25"/>
         <v>788922.22209321603</v>
       </c>
       <c r="H63" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>920000</v>
       </c>
-      <c r="I63" s="67">
+      <c r="I63" s="48">
         <v>0.16</v>
       </c>
-      <c r="J63" s="83">
+      <c r="J63" s="64">
         <f t="shared" si="3"/>
         <v>126227.55553491457</v>
       </c>
@@ -9359,7 +9367,7 @@
         <v>1025598.8887211808</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
@@ -9367,64 +9375,64 @@
         <v>50</v>
       </c>
       <c r="S63" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="65"/>
-      <c r="S64" s="66"/>
+      <c r="A64" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="83"/>
     </row>
     <row r="65" spans="1:19" s="2" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="71">
+      <c r="E65" s="52">
         <v>1830</v>
       </c>
       <c r="F65" s="22">
         <v>78.913164766062607</v>
       </c>
-      <c r="G65" s="78">
+      <c r="G65" s="59">
         <f>F65*21000</f>
         <v>1657176.4600873147</v>
       </c>
       <c r="H65" s="42">
-        <f t="shared" si="19"/>
-        <v>1830000</v>
-      </c>
-      <c r="I65" s="67">
-        <v>0.1</v>
-      </c>
-      <c r="J65" s="83">
+        <f t="shared" si="20"/>
+        <v>1890000</v>
+      </c>
+      <c r="I65" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J65" s="64">
         <f t="shared" si="3"/>
-        <v>165717.64600873148</v>
+        <v>232004.70441222409</v>
       </c>
       <c r="K65" s="46">
         <v>0</v>
@@ -9433,7 +9441,7 @@
         <v>0.3</v>
       </c>
       <c r="M65" s="22">
-        <f t="shared" ref="M65:M70" si="28">F65*1.3</f>
+        <f t="shared" ref="M65:M70" si="29">F65*1.3</f>
         <v>102.5871141958814</v>
       </c>
       <c r="N65" s="35">
@@ -9441,7 +9449,7 @@
         <v>2154329.3981135092</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P65" s="27">
         <v>4</v>
@@ -9451,39 +9459,39 @@
       </c>
       <c r="R65" s="30"/>
       <c r="S65" s="29">
-        <f t="shared" ref="S65" si="29">P65+Q65+R65</f>
+        <f t="shared" ref="S65" si="30">P65+Q65+R65</f>
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="71">
+      <c r="E66" s="52">
         <v>489</v>
       </c>
       <c r="F66" s="22">
         <v>18.751643112727752</v>
       </c>
-      <c r="G66" s="78">
-        <f t="shared" ref="G66:G69" si="30">F66*21000</f>
+      <c r="G66" s="59">
+        <f t="shared" ref="G66:G69" si="31">F66*21000</f>
         <v>393784.50536728278</v>
       </c>
       <c r="H66" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>480000</v>
       </c>
-      <c r="I66" s="67">
+      <c r="I66" s="48">
         <v>0.2</v>
       </c>
-      <c r="J66" s="83">
+      <c r="J66" s="64">
         <f t="shared" si="3"/>
         <v>78756.901073456567</v>
       </c>
@@ -9494,15 +9502,15 @@
         <v>0.3</v>
       </c>
       <c r="M66" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>24.377136046546077</v>
       </c>
       <c r="N66" s="35">
-        <f t="shared" ref="N66:N70" si="31">M66*21000</f>
+        <f t="shared" ref="N66:N70" si="32">M66*21000</f>
         <v>511919.8569774676</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P66" s="27">
         <v>1</v>
@@ -9512,39 +9520,39 @@
       </c>
       <c r="R66" s="30"/>
       <c r="S66" s="29">
-        <f t="shared" ref="S66:S69" si="32">P66+Q66+R66</f>
+        <f t="shared" ref="S66:S69" si="33">P66+Q66+R66</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="2" customFormat="1" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="71">
+      <c r="E67" s="52">
         <v>718</v>
       </c>
       <c r="F67" s="22">
         <v>28.75251943951589</v>
       </c>
-      <c r="G67" s="78">
-        <f t="shared" si="30"/>
+      <c r="G67" s="59">
+        <f t="shared" si="31"/>
         <v>603802.9082298337</v>
       </c>
       <c r="H67" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>720000</v>
       </c>
-      <c r="I67" s="67">
+      <c r="I67" s="48">
         <v>0.18</v>
       </c>
-      <c r="J67" s="83">
+      <c r="J67" s="64">
         <f t="shared" si="3"/>
         <v>108684.52348137007</v>
       </c>
@@ -9555,15 +9563,15 @@
         <v>0.3</v>
       </c>
       <c r="M67" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>37.378275271370661</v>
       </c>
       <c r="N67" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>784943.78069878393</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P67" s="28"/>
       <c r="Q67" s="27"/>
@@ -9571,39 +9579,39 @@
         <v>5</v>
       </c>
       <c r="S67" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="2" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="71">
+      <c r="E68" s="52">
         <v>498</v>
       </c>
       <c r="F68" s="22">
         <v>20.626807424000525</v>
       </c>
-      <c r="G68" s="78">
+      <c r="G68" s="59">
         <f>F68*21000</f>
         <v>433162.95590401103</v>
       </c>
       <c r="H68" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>500000</v>
       </c>
-      <c r="I68" s="67">
+      <c r="I68" s="48">
         <v>0.15</v>
       </c>
-      <c r="J68" s="83">
+      <c r="J68" s="64">
         <f t="shared" si="3"/>
         <v>64974.443385601655</v>
       </c>
@@ -9614,15 +9622,15 @@
         <v>0.3</v>
       </c>
       <c r="M68" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>26.814849651200682</v>
       </c>
       <c r="N68" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>563111.84267521428</v>
       </c>
       <c r="O68" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P68" s="28"/>
       <c r="Q68" s="27"/>
@@ -9630,39 +9638,39 @@
         <v>50</v>
       </c>
       <c r="S68" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="71">
+      <c r="E69" s="52">
         <v>459</v>
       </c>
       <c r="F69" s="22">
         <v>19.064170497939877</v>
       </c>
-      <c r="G69" s="78">
-        <f t="shared" si="30"/>
+      <c r="G69" s="59">
+        <f t="shared" si="31"/>
         <v>400347.58045673743</v>
       </c>
       <c r="H69" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>460000</v>
       </c>
-      <c r="I69" s="67">
+      <c r="I69" s="48">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J69" s="83">
+      <c r="J69" s="64">
         <f t="shared" si="3"/>
         <v>56048.661263943242</v>
       </c>
@@ -9673,15 +9681,15 @@
         <v>0.3</v>
       </c>
       <c r="M69" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>24.783421647321841</v>
       </c>
       <c r="N69" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>520451.85459375865</v>
       </c>
       <c r="O69" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P69" s="27"/>
       <c r="Q69" s="27"/>
@@ -9689,39 +9697,39 @@
         <v>80</v>
       </c>
       <c r="S69" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="2" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="71">
+      <c r="E70" s="52">
         <v>1210</v>
       </c>
       <c r="F70" s="22">
         <v>50.47317271175887</v>
       </c>
-      <c r="G70" s="78">
+      <c r="G70" s="59">
         <f>F70*21000</f>
         <v>1059936.6269469364</v>
       </c>
       <c r="H70" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1220000</v>
       </c>
-      <c r="I70" s="67">
+      <c r="I70" s="48">
         <v>0.15</v>
       </c>
-      <c r="J70" s="83">
+      <c r="J70" s="64">
         <f t="shared" si="3"/>
         <v>158990.49404204046</v>
       </c>
@@ -9732,15 +9740,15 @@
         <v>0.3</v>
       </c>
       <c r="M70" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>65.615124525286532</v>
       </c>
       <c r="N70" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1377917.6150310172</v>
       </c>
       <c r="O70" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P70" s="27">
         <v>6</v>
@@ -9750,12 +9758,17 @@
       </c>
       <c r="R70" s="30"/>
       <c r="S70" s="29">
-        <f t="shared" ref="S70" si="33">P70+Q70+R70</f>
+        <f t="shared" ref="S70" si="34">P70+Q70+R70</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="A58:O58"/>
     <mergeCell ref="A64:O64"/>
     <mergeCell ref="P12:S12"/>
@@ -9764,11 +9777,6 @@
     <mergeCell ref="P51:S51"/>
     <mergeCell ref="P58:S58"/>
     <mergeCell ref="P64:S64"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="P9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
